--- a/Data/Data_geology/Otorowiri_outcrop.xlsx
+++ b/Data/Data_geology/Otorowiri_outcrop.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC0ABA-A708-4792-894D-CE3C357DA3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1055CF70-7740-4290-BF45-4A2745700531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Otorowiri_1" sheetId="1" r:id="rId1"/>
     <sheet name="Otorowiri_2" sheetId="2" r:id="rId2"/>
     <sheet name="Otorowiri_3" sheetId="3" r:id="rId3"/>
+    <sheet name="Otorowiri-Parmelia contact" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Longitude</t>
   </si>
@@ -11544,7 +11545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B63E1B2-B045-424E-A7F4-9B64B6780B2D}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -12841,4 +12842,6434 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D685859-3BBD-47B0-96F3-080F3A45CE16}">
+  <dimension ref="A1:D458"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J434" sqref="J434"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>115.555408726</v>
+      </c>
+      <c r="B2">
+        <v>-30.174039107999899</v>
+      </c>
+      <c r="C2">
+        <v>360908.9262041077</v>
+      </c>
+      <c r="D2">
+        <v>6661048.0139107797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>115.551080864</v>
+      </c>
+      <c r="B3">
+        <v>-30.168032239999899</v>
+      </c>
+      <c r="C3">
+        <v>360483.71501282987</v>
+      </c>
+      <c r="D3">
+        <v>6661708.4566286132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>115.54369829700001</v>
+      </c>
+      <c r="B4">
+        <v>-30.157362555999899</v>
+      </c>
+      <c r="C4">
+        <v>359757.6670181239</v>
+      </c>
+      <c r="D4">
+        <v>6662881.9039483648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>115.54122981800001</v>
+      </c>
+      <c r="B5">
+        <v>-30.153987376999901</v>
+      </c>
+      <c r="C5">
+        <v>359515.14070308057</v>
+      </c>
+      <c r="D5">
+        <v>6663252.9315276407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>115.539635782</v>
+      </c>
+      <c r="B6">
+        <v>-30.1514880689999</v>
+      </c>
+      <c r="C6">
+        <v>359358.06556502543</v>
+      </c>
+      <c r="D6">
+        <v>6663527.9614135846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>115.536203571</v>
+      </c>
+      <c r="B7">
+        <v>-30.1447364469999</v>
+      </c>
+      <c r="C7">
+        <v>359017.8836241723</v>
+      </c>
+      <c r="D7">
+        <v>6664271.996501008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>115.534235469</v>
+      </c>
+      <c r="B8">
+        <v>-30.1410826299999</v>
+      </c>
+      <c r="C8">
+        <v>358823.10658938502</v>
+      </c>
+      <c r="D8">
+        <v>6664674.5096239727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>115.530302476</v>
+      </c>
+      <c r="B9">
+        <v>-30.134356998999898</v>
+      </c>
+      <c r="C9">
+        <v>358434.65218848677</v>
+      </c>
+      <c r="D9">
+        <v>6665415.02790373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>115.527833988</v>
+      </c>
+      <c r="B10">
+        <v>-30.130778887999899</v>
+      </c>
+      <c r="C10">
+        <v>358191.73830670101</v>
+      </c>
+      <c r="D10">
+        <v>6665808.5194858778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>115.525894983</v>
+      </c>
+      <c r="B11">
+        <v>-30.127608193999901</v>
+      </c>
+      <c r="C11">
+        <v>358000.4014947837</v>
+      </c>
+      <c r="D11">
+        <v>6666157.5116938818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>115.52180254300001</v>
+      </c>
+      <c r="B12">
+        <v>-30.1202625049999</v>
+      </c>
+      <c r="C12">
+        <v>357595.59219273605</v>
+      </c>
+      <c r="D12">
+        <v>6666966.5247593764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>115.51718409599999</v>
+      </c>
+      <c r="B13">
+        <v>-30.1132629469999</v>
+      </c>
+      <c r="C13">
+        <v>357140.54153876216</v>
+      </c>
+      <c r="D13">
+        <v>6667736.5050134752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>115.51521739499999</v>
+      </c>
+      <c r="B14">
+        <v>-30.1096090069999</v>
+      </c>
+      <c r="C14">
+        <v>356945.77575281181</v>
+      </c>
+      <c r="D14">
+        <v>6668139.0033563729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>115.51346163700001</v>
+      </c>
+      <c r="B15">
+        <v>-30.105979934999901</v>
+      </c>
+      <c r="C15">
+        <v>356771.35912075837</v>
+      </c>
+      <c r="D15">
+        <v>6668539.0071095088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>115.511069437</v>
+      </c>
+      <c r="B16">
+        <v>-30.101274569999902</v>
+      </c>
+      <c r="C16">
+        <v>356534.04496389697</v>
+      </c>
+      <c r="D16">
+        <v>6669057.4929995975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>115.50944405200001</v>
+      </c>
+      <c r="B17">
+        <v>-30.097137068999899</v>
+      </c>
+      <c r="C17">
+        <v>356371.42935738305</v>
+      </c>
+      <c r="D17">
+        <v>6669514.0032608099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>115.50763467500001</v>
+      </c>
+      <c r="B18">
+        <v>-30.093164565999899</v>
+      </c>
+      <c r="C18">
+        <v>356191.30821241613</v>
+      </c>
+      <c r="D18">
+        <v>6669951.9932621606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>115.505509917</v>
+      </c>
+      <c r="B19">
+        <v>-30.089328121999898</v>
+      </c>
+      <c r="C19">
+        <v>355980.975258185</v>
+      </c>
+      <c r="D19">
+        <v>6670374.5038654935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>115.50096779099999</v>
+      </c>
+      <c r="B20">
+        <v>-30.079662498999902</v>
+      </c>
+      <c r="C20">
+        <v>355529.16346303734</v>
+      </c>
+      <c r="D20">
+        <v>6671439.9960581511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>115.500350047</v>
+      </c>
+      <c r="B21">
+        <v>-30.078653872999901</v>
+      </c>
+      <c r="C21">
+        <v>355468.1541567134</v>
+      </c>
+      <c r="D21">
+        <v>6671550.9994073147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>115.499701359</v>
+      </c>
+      <c r="B22">
+        <v>-30.077234377999901</v>
+      </c>
+      <c r="C22">
+        <v>355403.56329717976</v>
+      </c>
+      <c r="D22">
+        <v>6671707.4992754646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>115.498038866</v>
+      </c>
+      <c r="B23">
+        <v>-30.0747881929999</v>
+      </c>
+      <c r="C23">
+        <v>355239.75402154133</v>
+      </c>
+      <c r="D23">
+        <v>6671976.5016373843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>115.497286113</v>
+      </c>
+      <c r="B24">
+        <v>-30.073529879999899</v>
+      </c>
+      <c r="C24">
+        <v>355165.36141752661</v>
+      </c>
+      <c r="D24">
+        <v>6672115.0048865154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>115.496719107</v>
+      </c>
+      <c r="B25">
+        <v>-30.072318929999899</v>
+      </c>
+      <c r="C25">
+        <v>355108.94102479098</v>
+      </c>
+      <c r="D25">
+        <v>6672248.4939828347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>115.495082549</v>
+      </c>
+      <c r="B26">
+        <v>-30.0698232979999</v>
+      </c>
+      <c r="C26">
+        <v>354947.54507240048</v>
+      </c>
+      <c r="D26">
+        <v>6672523.0054096114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>115.494352105</v>
+      </c>
+      <c r="B27">
+        <v>-30.0681773109999</v>
+      </c>
+      <c r="C27">
+        <v>354874.73017224716</v>
+      </c>
+      <c r="D27">
+        <v>6672704.5005022045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>115.493519041</v>
+      </c>
+      <c r="B28">
+        <v>-30.066755562999901</v>
+      </c>
+      <c r="C28">
+        <v>354792.34793164459</v>
+      </c>
+      <c r="D28">
+        <v>6672861.0127640339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>115.492708337</v>
+      </c>
+      <c r="B29">
+        <v>-30.064973430999899</v>
+      </c>
+      <c r="C29">
+        <v>354711.59247485705</v>
+      </c>
+      <c r="D29">
+        <v>6673057.4936811645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>115.49121539399999</v>
+      </c>
+      <c r="B30">
+        <v>-30.061121487999898</v>
+      </c>
+      <c r="C30">
+        <v>354562.03753411706</v>
+      </c>
+      <c r="D30">
+        <v>6673482.5003435239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>115.488810188</v>
+      </c>
+      <c r="B31">
+        <v>-30.055810858999902</v>
+      </c>
+      <c r="C31">
+        <v>354322.38550318964</v>
+      </c>
+      <c r="D31">
+        <v>6674068.0072436426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>115.48748362000001</v>
+      </c>
+      <c r="B32">
+        <v>-30.052624050999899</v>
+      </c>
+      <c r="C32">
+        <v>354189.81984807947</v>
+      </c>
+      <c r="D32">
+        <v>6674419.5054681301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>115.486406862</v>
+      </c>
+      <c r="B33">
+        <v>-30.050658241999901</v>
+      </c>
+      <c r="C33">
+        <v>354083.12280110654</v>
+      </c>
+      <c r="D33">
+        <v>6674635.9996604659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>115.485704109</v>
+      </c>
+      <c r="B34">
+        <v>-30.049098301999901</v>
+      </c>
+      <c r="C34">
+        <v>354013.07785590563</v>
+      </c>
+      <c r="D34">
+        <v>6674807.9885287052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>115.484482595</v>
+      </c>
+      <c r="B35">
+        <v>-30.045867484999899</v>
+      </c>
+      <c r="C35">
+        <v>353890.55954382964</v>
+      </c>
+      <c r="D35">
+        <v>6675164.495055113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>115.48401640199999</v>
+      </c>
+      <c r="B36">
+        <v>-30.0441974169999</v>
+      </c>
+      <c r="C36">
+        <v>353843.15653627762</v>
+      </c>
+      <c r="D36">
+        <v>6675348.9903880991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>115.482707832</v>
+      </c>
+      <c r="B37">
+        <v>-30.040252794999901</v>
+      </c>
+      <c r="C37">
+        <v>353711.18439845659</v>
+      </c>
+      <c r="D37">
+        <v>6675784.4937143493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>115.48062194000001</v>
+      </c>
+      <c r="B38">
+        <v>-30.035144355999901</v>
+      </c>
+      <c r="C38">
+        <v>353502.5336089285</v>
+      </c>
+      <c r="D38">
+        <v>6676347.9845349947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>115.478690172</v>
+      </c>
+      <c r="B39">
+        <v>-30.0295999739999</v>
+      </c>
+      <c r="C39">
+        <v>353308.08413533657</v>
+      </c>
+      <c r="D39">
+        <v>6676959.9841813464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>115.47796191899999</v>
+      </c>
+      <c r="B40">
+        <v>-30.028089164999901</v>
+      </c>
+      <c r="C40">
+        <v>353235.62776092964</v>
+      </c>
+      <c r="D40">
+        <v>6677126.4908513501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>115.476274221</v>
+      </c>
+      <c r="B41">
+        <v>-30.0231836059999</v>
+      </c>
+      <c r="C41">
+        <v>353065.633571896</v>
+      </c>
+      <c r="D41">
+        <v>6677667.9999914914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>115.47538496599999</v>
+      </c>
+      <c r="B42">
+        <v>-30.0213506609999</v>
+      </c>
+      <c r="C42">
+        <v>352977.16644106712</v>
+      </c>
+      <c r="D42">
+        <v>6677870.0002290495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>115.47267419000001</v>
+      </c>
+      <c r="B43">
+        <v>-30.0144797889999</v>
+      </c>
+      <c r="C43">
+        <v>352705.57036117947</v>
+      </c>
+      <c r="D43">
+        <v>6678628.0021541622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>115.470389164</v>
+      </c>
+      <c r="B44">
+        <v>-30.007045329999901</v>
+      </c>
+      <c r="C44">
+        <v>352474.17284891446</v>
+      </c>
+      <c r="D44">
+        <v>6679449.0079022329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>115.46905890799999</v>
+      </c>
+      <c r="B45">
+        <v>-30.000745194999901</v>
+      </c>
+      <c r="C45">
+        <v>352336.52704871871</v>
+      </c>
+      <c r="D45">
+        <v>6680145.5255212989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>115.468272582</v>
+      </c>
+      <c r="B46">
+        <v>-29.996147830999899</v>
+      </c>
+      <c r="C46">
+        <v>352253.86269536451</v>
+      </c>
+      <c r="D46">
+        <v>6680654.0283778682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>115.467643915</v>
+      </c>
+      <c r="B47">
+        <v>-29.9905822989999</v>
+      </c>
+      <c r="C47">
+        <v>352184.96734486392</v>
+      </c>
+      <c r="D47">
+        <v>6681270.0340205543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>115.46663184499999</v>
+      </c>
+      <c r="B48">
+        <v>-29.9740467919999</v>
+      </c>
+      <c r="C48">
+        <v>352062.81366478041</v>
+      </c>
+      <c r="D48">
+        <v>6683101.3220985653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>115.465012153</v>
+      </c>
+      <c r="B49">
+        <v>-29.986105672999901</v>
+      </c>
+      <c r="C49">
+        <v>351924.42504230107</v>
+      </c>
+      <c r="D49">
+        <v>6681762.7713482473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>115.464803469</v>
+      </c>
+      <c r="B50">
+        <v>-29.9876595379999</v>
+      </c>
+      <c r="C50">
+        <v>351906.59829058248</v>
+      </c>
+      <c r="D50">
+        <v>6681590.2900361102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>115.464404483</v>
+      </c>
+      <c r="B51">
+        <v>-29.985072029999898</v>
+      </c>
+      <c r="C51">
+        <v>351864.26307571901</v>
+      </c>
+      <c r="D51">
+        <v>6681876.542513812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>115.464115777</v>
+      </c>
+      <c r="B52">
+        <v>-29.981630972999898</v>
+      </c>
+      <c r="C52">
+        <v>351831.29869245621</v>
+      </c>
+      <c r="D52">
+        <v>6682257.5344035458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>115.462959822</v>
+      </c>
+      <c r="B53">
+        <v>-29.973573346999899</v>
+      </c>
+      <c r="C53">
+        <v>351707.79584956862</v>
+      </c>
+      <c r="D53">
+        <v>6683149.048723517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>115.46274956400001</v>
+      </c>
+      <c r="B54">
+        <v>-29.9714143449999</v>
+      </c>
+      <c r="C54">
+        <v>351684.29987330001</v>
+      </c>
+      <c r="D54">
+        <v>6683388.0540915877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>115.46227613000001</v>
+      </c>
+      <c r="B55">
+        <v>-29.969324474999901</v>
+      </c>
+      <c r="C55">
+        <v>351635.5108211278</v>
+      </c>
+      <c r="D55">
+        <v>6683619.0571128502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>115.461998228</v>
+      </c>
+      <c r="B56">
+        <v>-29.966596287999899</v>
+      </c>
+      <c r="C56">
+        <v>351604.63951161481</v>
+      </c>
+      <c r="D56">
+        <v>6683921.0561990105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>115.45513364</v>
+      </c>
+      <c r="B57">
+        <v>-29.910256914999898</v>
+      </c>
+      <c r="C57">
+        <v>350858.18162112543</v>
+      </c>
+      <c r="D57">
+        <v>6690156.1004763525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>115.454925887</v>
+      </c>
+      <c r="B58">
+        <v>-29.904538379999899</v>
+      </c>
+      <c r="C58">
+        <v>350829.59917959617</v>
+      </c>
+      <c r="D58">
+        <v>6690789.5985061396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>115.45468974000001</v>
+      </c>
+      <c r="B59">
+        <v>-29.902703895999899</v>
+      </c>
+      <c r="C59">
+        <v>350804.06298760197</v>
+      </c>
+      <c r="D59">
+        <v>6690992.6020257212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>115.45466455099999</v>
+      </c>
+      <c r="B60">
+        <v>-29.900569651999898</v>
+      </c>
+      <c r="C60">
+        <v>350798.44969230786</v>
+      </c>
+      <c r="D60">
+        <v>6691229.1008951515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>115.454480915</v>
+      </c>
+      <c r="B61">
+        <v>-29.8986185259999</v>
+      </c>
+      <c r="C61">
+        <v>350777.80923734873</v>
+      </c>
+      <c r="D61">
+        <v>6691445.0995465834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>115.45421810000001</v>
+      </c>
+      <c r="B62">
+        <v>-29.8968739849999</v>
+      </c>
+      <c r="C62">
+        <v>350749.83027756755</v>
+      </c>
+      <c r="D62">
+        <v>6691638.1001337264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>115.45411371900001</v>
+      </c>
+      <c r="B63">
+        <v>-29.8954697399999</v>
+      </c>
+      <c r="C63">
+        <v>350737.65731501905</v>
+      </c>
+      <c r="D63">
+        <v>6691793.5925298799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>115.45374577600001</v>
+      </c>
+      <c r="B64">
+        <v>-29.8935209989999</v>
+      </c>
+      <c r="C64">
+        <v>350699.22070963017</v>
+      </c>
+      <c r="D64">
+        <v>6692009.0872395048</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>115.45350964399999</v>
+      </c>
+      <c r="B65">
+        <v>-29.8918217629999</v>
+      </c>
+      <c r="C65">
+        <v>350673.88395288208</v>
+      </c>
+      <c r="D65">
+        <v>6692197.101259429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>115.453010263</v>
+      </c>
+      <c r="B66">
+        <v>-29.889411281999902</v>
+      </c>
+      <c r="C66">
+        <v>350622.0633219934</v>
+      </c>
+      <c r="D66">
+        <v>6692463.5980480369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>115.452694948</v>
+      </c>
+      <c r="B67">
+        <v>-29.887503719999899</v>
+      </c>
+      <c r="C67">
+        <v>350588.76695228979</v>
+      </c>
+      <c r="D67">
+        <v>6692674.5970276911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>115.45217006</v>
+      </c>
+      <c r="B68">
+        <v>-29.883211624999898</v>
+      </c>
+      <c r="C68">
+        <v>350531.67188179574</v>
+      </c>
+      <c r="D68">
+        <v>6693149.5932553522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>115.45177616799999</v>
+      </c>
+      <c r="B69">
+        <v>-29.881190257999901</v>
+      </c>
+      <c r="C69">
+        <v>350490.61379760609</v>
+      </c>
+      <c r="D69">
+        <v>6693373.1023591328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>115.450706811</v>
+      </c>
+      <c r="B70">
+        <v>-29.8738667759999</v>
+      </c>
+      <c r="C70">
+        <v>350376.39953702304</v>
+      </c>
+      <c r="D70">
+        <v>6694183.3477716949</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>115.44944228599999</v>
+      </c>
+      <c r="B71">
+        <v>-29.868273379999899</v>
+      </c>
+      <c r="C71">
+        <v>350245.90513457672</v>
+      </c>
+      <c r="D71">
+        <v>6694801.5983636063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>115.448194153</v>
+      </c>
+      <c r="B72">
+        <v>-29.863878025999899</v>
+      </c>
+      <c r="C72">
+        <v>350118.77296777081</v>
+      </c>
+      <c r="D72">
+        <v>6695287.0941258715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>115.446486345</v>
+      </c>
+      <c r="B73">
+        <v>-29.858633459999901</v>
+      </c>
+      <c r="C73">
+        <v>349945.95507242763</v>
+      </c>
+      <c r="D73">
+        <v>6695866.1041983999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>115.44510573700001</v>
+      </c>
+      <c r="B74">
+        <v>-29.854141715999901</v>
+      </c>
+      <c r="C74">
+        <v>349805.85834758612</v>
+      </c>
+      <c r="D74">
+        <v>6696362.1064969106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>115.443141622</v>
+      </c>
+      <c r="B75">
+        <v>-29.8493137809999</v>
+      </c>
+      <c r="C75">
+        <v>349608.8734088568</v>
+      </c>
+      <c r="D75">
+        <v>6696894.6035806295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>115.43990921300001</v>
+      </c>
+      <c r="B76">
+        <v>-29.8423187829999</v>
+      </c>
+      <c r="C76">
+        <v>349286.07874636748</v>
+      </c>
+      <c r="D76">
+        <v>6697665.6051040273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>115.43683267900001</v>
+      </c>
+      <c r="B77">
+        <v>-29.836927159999899</v>
+      </c>
+      <c r="C77">
+        <v>348980.71648161358</v>
+      </c>
+      <c r="D77">
+        <v>6698259.1066354439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>115.432777249</v>
+      </c>
+      <c r="B78">
+        <v>-29.831158429999899</v>
+      </c>
+      <c r="C78">
+        <v>348580.16524937062</v>
+      </c>
+      <c r="D78">
+        <v>6698893.1070638765</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>115.426266676</v>
+      </c>
+      <c r="B79">
+        <v>-29.822860979999898</v>
+      </c>
+      <c r="C79">
+        <v>347938.48904752568</v>
+      </c>
+      <c r="D79">
+        <v>6699804.1040598294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>115.422539246</v>
+      </c>
+      <c r="B80">
+        <v>-29.817844748999899</v>
+      </c>
+      <c r="C80">
+        <v>347570.6677032967</v>
+      </c>
+      <c r="D80">
+        <v>6700355.1077596843</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>115.419102681</v>
+      </c>
+      <c r="B81">
+        <v>-29.812940078999901</v>
+      </c>
+      <c r="C81">
+        <v>347231.09204127779</v>
+      </c>
+      <c r="D81">
+        <v>6700894.1222658958</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>115.415957682</v>
+      </c>
+      <c r="B82">
+        <v>-29.8081697709999</v>
+      </c>
+      <c r="C82">
+        <v>346919.86978078203</v>
+      </c>
+      <c r="D82">
+        <v>6701418.6239551101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>115.411738509</v>
+      </c>
+      <c r="B83">
+        <v>-29.799966734999899</v>
+      </c>
+      <c r="C83">
+        <v>346499.55130136991</v>
+      </c>
+      <c r="D83">
+        <v>6702322.1245647874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>115.40771266</v>
+      </c>
+      <c r="B84">
+        <v>-29.790470978999899</v>
+      </c>
+      <c r="C84">
+        <v>346095.8783825225</v>
+      </c>
+      <c r="D84">
+        <v>6703369.1367300367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>115.405326945</v>
+      </c>
+      <c r="B85">
+        <v>-29.783534995999901</v>
+      </c>
+      <c r="C85">
+        <v>345854.62333996873</v>
+      </c>
+      <c r="D85">
+        <v>6704134.6393908821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>115.403841963</v>
+      </c>
+      <c r="B86">
+        <v>-29.7789558939999</v>
+      </c>
+      <c r="C86">
+        <v>345704.0381980947</v>
+      </c>
+      <c r="D86">
+        <v>6704640.1384681202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>115.40279223100001</v>
+      </c>
+      <c r="B87">
+        <v>-29.7753339799999</v>
+      </c>
+      <c r="C87">
+        <v>345596.99165126169</v>
+      </c>
+      <c r="D87">
+        <v>6705040.1369147524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>115.400777801</v>
+      </c>
+      <c r="B88">
+        <v>-29.766714985999901</v>
+      </c>
+      <c r="C88">
+        <v>345388.98784615938</v>
+      </c>
+      <c r="D88">
+        <v>6705992.6495026946</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>115.399475763</v>
+      </c>
+      <c r="B89">
+        <v>-29.760134741999899</v>
+      </c>
+      <c r="C89">
+        <v>345252.97604598431</v>
+      </c>
+      <c r="D89">
+        <v>6706720.1672827788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>115.39841556899999</v>
+      </c>
+      <c r="B90">
+        <v>-29.753963601999899</v>
+      </c>
+      <c r="C90">
+        <v>345140.96628398867</v>
+      </c>
+      <c r="D90">
+        <v>6707402.6685904097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>115.401367182</v>
+      </c>
+      <c r="B91">
+        <v>-29.7604373379999</v>
+      </c>
+      <c r="C91">
+        <v>345436.33712689026</v>
+      </c>
+      <c r="D91">
+        <v>6706689.1669161683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>115.405445843</v>
+      </c>
+      <c r="B92">
+        <v>-29.770105430999902</v>
+      </c>
+      <c r="C92">
+        <v>345845.54183314252</v>
+      </c>
+      <c r="D92">
+        <v>6705623.1467591282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>115.406437999</v>
+      </c>
+      <c r="B93">
+        <v>-29.772206309999898</v>
+      </c>
+      <c r="C93">
+        <v>345944.68801597349</v>
+      </c>
+      <c r="D93">
+        <v>6705391.6399636138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>115.40719466900001</v>
+      </c>
+      <c r="B94">
+        <v>-29.773636518999901</v>
+      </c>
+      <c r="C94">
+        <v>346020.03624175605</v>
+      </c>
+      <c r="D94">
+        <v>6705234.1458070911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>115.409281581</v>
+      </c>
+      <c r="B95">
+        <v>-29.777203306999901</v>
+      </c>
+      <c r="C95">
+        <v>346227.26049748022</v>
+      </c>
+      <c r="D95">
+        <v>6704841.6367901396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>115.411426812</v>
+      </c>
+      <c r="B96">
+        <v>-29.7805811499999</v>
+      </c>
+      <c r="C96">
+        <v>346439.82064961572</v>
+      </c>
+      <c r="D96">
+        <v>6704470.1420419142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>115.41311555</v>
+      </c>
+      <c r="B97">
+        <v>-29.783064924999898</v>
+      </c>
+      <c r="C97">
+        <v>346606.87238206423</v>
+      </c>
+      <c r="D97">
+        <v>6704197.1225544987</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>115.415392916</v>
+      </c>
+      <c r="B98">
+        <v>-29.786047009999901</v>
+      </c>
+      <c r="C98">
+        <v>346831.57977090415</v>
+      </c>
+      <c r="D98">
+        <v>6703869.6571751963</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>115.41507718</v>
+      </c>
+      <c r="B99">
+        <v>-29.782235751999899</v>
+      </c>
+      <c r="C99">
+        <v>346795.25130480912</v>
+      </c>
+      <c r="D99">
+        <v>6704291.624561457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>115.41489937</v>
+      </c>
+      <c r="B100">
+        <v>-29.7771580399999</v>
+      </c>
+      <c r="C100">
+        <v>346770.32696748152</v>
+      </c>
+      <c r="D100">
+        <v>6704854.1310241036</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>115.41488495599999</v>
+      </c>
+      <c r="B101">
+        <v>-29.772447668999899</v>
+      </c>
+      <c r="C101">
+        <v>346761.75964239769</v>
+      </c>
+      <c r="D101">
+        <v>6705376.143294055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>115.41538897700001</v>
+      </c>
+      <c r="B102">
+        <v>-29.767229324999899</v>
+      </c>
+      <c r="C102">
+        <v>346802.54768990807</v>
+      </c>
+      <c r="D102">
+        <v>6705955.1403573779</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>115.41563416699999</v>
+      </c>
+      <c r="B103">
+        <v>-29.765540392999899</v>
+      </c>
+      <c r="C103">
+        <v>346823.68500622327</v>
+      </c>
+      <c r="D103">
+        <v>6706142.6432108255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>115.41602298700001</v>
+      </c>
+      <c r="B104">
+        <v>-29.763212664999902</v>
+      </c>
+      <c r="C104">
+        <v>346857.73959008337</v>
+      </c>
+      <c r="D104">
+        <v>6706401.131659124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>115.416735441</v>
+      </c>
+      <c r="B105">
+        <v>-29.761010489999901</v>
+      </c>
+      <c r="C105">
+        <v>346923.28148700262</v>
+      </c>
+      <c r="D105">
+        <v>6706646.1347546093</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>115.41852753400001</v>
+      </c>
+      <c r="B106">
+        <v>-29.757205962999901</v>
+      </c>
+      <c r="C106">
+        <v>347090.79304121382</v>
+      </c>
+      <c r="D106">
+        <v>6707070.1500512809</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>115.419239616</v>
+      </c>
+      <c r="B107">
+        <v>-29.7553918139999</v>
+      </c>
+      <c r="C107">
+        <v>347156.897927068</v>
+      </c>
+      <c r="D107">
+        <v>6707272.1474925857</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>115.419845892</v>
+      </c>
+      <c r="B108">
+        <v>-29.753513241999901</v>
+      </c>
+      <c r="C108">
+        <v>347212.67584360106</v>
+      </c>
+      <c r="D108">
+        <v>6707481.1440283414</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>115.420531345</v>
+      </c>
+      <c r="B109">
+        <v>-29.751906289999901</v>
+      </c>
+      <c r="C109">
+        <v>347276.52487784828</v>
+      </c>
+      <c r="D109">
+        <v>6707660.1425027829</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>115.420901488</v>
+      </c>
+      <c r="B110">
+        <v>-29.7496368209999</v>
+      </c>
+      <c r="C110">
+        <v>347308.87905828143</v>
+      </c>
+      <c r="D110">
+        <v>6707912.147121775</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>115.421086897</v>
+      </c>
+      <c r="B111">
+        <v>-29.747640297999901</v>
+      </c>
+      <c r="C111">
+        <v>347323.78321342322</v>
+      </c>
+      <c r="D111">
+        <v>6708133.6578288265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>115.421377412</v>
+      </c>
+      <c r="B112">
+        <v>-29.7461955439999</v>
+      </c>
+      <c r="C112">
+        <v>347349.68936232198</v>
+      </c>
+      <c r="D112">
+        <v>6708294.157431799</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>115.421615737</v>
+      </c>
+      <c r="B113">
+        <v>-29.7443124609999</v>
+      </c>
+      <c r="C113">
+        <v>347369.88488843676</v>
+      </c>
+      <c r="D113">
+        <v>6708503.1658557449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>115.42182857100001</v>
+      </c>
+      <c r="B114">
+        <v>-29.741143253999901</v>
+      </c>
+      <c r="C114">
+        <v>347385.66792140366</v>
+      </c>
+      <c r="D114">
+        <v>6708854.6754907239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115.421829652</v>
+      </c>
+      <c r="B115">
+        <v>-29.739446806999901</v>
+      </c>
+      <c r="C115">
+        <v>347383.20288120618</v>
+      </c>
+      <c r="D115">
+        <v>6709042.6860709675</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115.422253373</v>
+      </c>
+      <c r="B116">
+        <v>-29.7359598429999</v>
+      </c>
+      <c r="C116">
+        <v>347418.90424805065</v>
+      </c>
+      <c r="D116">
+        <v>6709429.6895383671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115.422124207</v>
+      </c>
+      <c r="B117">
+        <v>-29.732651262999902</v>
+      </c>
+      <c r="C117">
+        <v>347401.40160274471</v>
+      </c>
+      <c r="D117">
+        <v>6709796.1927027982</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>115.422151899</v>
+      </c>
+      <c r="B118">
+        <v>-29.730910128999898</v>
+      </c>
+      <c r="C118">
+        <v>347401.44403283822</v>
+      </c>
+      <c r="D118">
+        <v>6709989.1906488314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>115.422311048</v>
+      </c>
+      <c r="B119">
+        <v>-29.729233559999901</v>
+      </c>
+      <c r="C119">
+        <v>347414.29990571865</v>
+      </c>
+      <c r="D119">
+        <v>6710175.2068067333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>115.42233874599999</v>
+      </c>
+      <c r="B120">
+        <v>-29.7271901629999</v>
+      </c>
+      <c r="C120">
+        <v>347413.88609120774</v>
+      </c>
+      <c r="D120">
+        <v>6710401.7029583966</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>115.422024511</v>
+      </c>
+      <c r="B121">
+        <v>-29.7254224009999</v>
+      </c>
+      <c r="C121">
+        <v>347380.81427071599</v>
+      </c>
+      <c r="D121">
+        <v>6710597.200050097</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>115.42213107400001</v>
+      </c>
+      <c r="B122">
+        <v>-29.7234475069999</v>
+      </c>
+      <c r="C122">
+        <v>347388.13287945499</v>
+      </c>
+      <c r="D122">
+        <v>6710816.2084524799</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>115.422212792</v>
+      </c>
+      <c r="B123">
+        <v>-29.719248090999901</v>
+      </c>
+      <c r="C123">
+        <v>347389.68212105893</v>
+      </c>
+      <c r="D123">
+        <v>6711281.7164344881</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>115.422005801</v>
+      </c>
+      <c r="B124">
+        <v>-29.715049812999901</v>
+      </c>
+      <c r="C124">
+        <v>347363.30461567699</v>
+      </c>
+      <c r="D124">
+        <v>6711746.7166441437</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>115.421875497</v>
+      </c>
+      <c r="B125">
+        <v>-29.713694739999902</v>
+      </c>
+      <c r="C125">
+        <v>347348.64807658957</v>
+      </c>
+      <c r="D125">
+        <v>6711896.7202515416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>115.421928799</v>
+      </c>
+      <c r="B126">
+        <v>-29.712432056999901</v>
+      </c>
+      <c r="C126">
+        <v>347351.8937721788</v>
+      </c>
+      <c r="D126">
+        <v>6712036.7272820398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>115.421771823</v>
+      </c>
+      <c r="B127">
+        <v>-29.711054186999899</v>
+      </c>
+      <c r="C127">
+        <v>347334.62209629803</v>
+      </c>
+      <c r="D127">
+        <v>6712189.2220746987</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>115.421747012</v>
+      </c>
+      <c r="B128">
+        <v>-29.709425189999902</v>
+      </c>
+      <c r="C128">
+        <v>347329.75648706581</v>
+      </c>
+      <c r="D128">
+        <v>6712369.7225305997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>115.421907218</v>
+      </c>
+      <c r="B129">
+        <v>-29.7062779399999</v>
+      </c>
+      <c r="C129">
+        <v>347340.49368981936</v>
+      </c>
+      <c r="D129">
+        <v>6712718.7273247065</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>115.42146298900001</v>
+      </c>
+      <c r="B130">
+        <v>-29.7020542509999</v>
+      </c>
+      <c r="C130">
+        <v>347291.12289661949</v>
+      </c>
+      <c r="D130">
+        <v>6713186.229515085</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>115.42086469900001</v>
+      </c>
+      <c r="B131">
+        <v>-29.693285568999901</v>
+      </c>
+      <c r="C131">
+        <v>347219.96378352761</v>
+      </c>
+      <c r="D131">
+        <v>6714157.2247100044</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>115.42057744900001</v>
+      </c>
+      <c r="B132">
+        <v>-29.690692377999898</v>
+      </c>
+      <c r="C132">
+        <v>347188.24380326783</v>
+      </c>
+      <c r="D132">
+        <v>6714444.2342804391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>115.420604826</v>
+      </c>
+      <c r="B133">
+        <v>-29.689271549999901</v>
+      </c>
+      <c r="C133">
+        <v>347188.74245946901</v>
+      </c>
+      <c r="D133">
+        <v>6714601.7330098394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>115.42084421600001</v>
+      </c>
+      <c r="B134">
+        <v>-29.6854845669999</v>
+      </c>
+      <c r="C134">
+        <v>347206.17681142309</v>
+      </c>
+      <c r="D134">
+        <v>6715021.7396496031</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>115.42121322200001</v>
+      </c>
+      <c r="B135">
+        <v>-29.683828751999901</v>
+      </c>
+      <c r="C135">
+        <v>347239.38049381482</v>
+      </c>
+      <c r="D135">
+        <v>6715205.7318208069</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>115.421820537</v>
+      </c>
+      <c r="B136">
+        <v>-29.680456695999901</v>
+      </c>
+      <c r="C136">
+        <v>347293.05232133379</v>
+      </c>
+      <c r="D136">
+        <v>6715580.23972027</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>115.421900471</v>
+      </c>
+      <c r="B137">
+        <v>-29.6788515749999</v>
+      </c>
+      <c r="C137">
+        <v>347298.36123137269</v>
+      </c>
+      <c r="D137">
+        <v>6715758.2316644806</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>115.42237529400001</v>
+      </c>
+      <c r="B138">
+        <v>-29.6769712689999</v>
+      </c>
+      <c r="C138">
+        <v>347341.4708489789</v>
+      </c>
+      <c r="D138">
+        <v>6715967.2419205271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>115.422639549</v>
+      </c>
+      <c r="B139">
+        <v>-29.6752960829999</v>
+      </c>
+      <c r="C139">
+        <v>347364.5136594153</v>
+      </c>
+      <c r="D139">
+        <v>6716153.2418166306</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>115.42308742199999</v>
+      </c>
+      <c r="B140">
+        <v>-29.673208017999901</v>
+      </c>
+      <c r="C140">
+        <v>347404.70449668117</v>
+      </c>
+      <c r="D140">
+        <v>6716385.2407642342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>115.42345749499999</v>
+      </c>
+      <c r="B141">
+        <v>-29.670798713999901</v>
+      </c>
+      <c r="C141">
+        <v>347436.88257230306</v>
+      </c>
+      <c r="D141">
+        <v>6716652.7378714569</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>115.42369580499999</v>
+      </c>
+      <c r="B142">
+        <v>-29.668527647999898</v>
+      </c>
+      <c r="C142">
+        <v>347456.51854855369</v>
+      </c>
+      <c r="D142">
+        <v>6716904.7409259947</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>115.42388300099999</v>
+      </c>
+      <c r="B143">
+        <v>-29.663891843999899</v>
+      </c>
+      <c r="C143">
+        <v>347467.63968194759</v>
+      </c>
+      <c r="D143">
+        <v>6717418.7462285236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>115.42409363100001</v>
+      </c>
+      <c r="B144">
+        <v>-29.662856653999899</v>
+      </c>
+      <c r="C144">
+        <v>347486.46448585135</v>
+      </c>
+      <c r="D144">
+        <v>6717533.7477186108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>115.424305631</v>
+      </c>
+      <c r="B145">
+        <v>-29.660607840999901</v>
+      </c>
+      <c r="C145">
+        <v>347503.59144205973</v>
+      </c>
+      <c r="D145">
+        <v>6717783.249444833</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>115.424333007</v>
+      </c>
+      <c r="B146">
+        <v>-29.659277285999899</v>
+      </c>
+      <c r="C146">
+        <v>347504.23403313989</v>
+      </c>
+      <c r="D146">
+        <v>6717930.7428511363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>115.424544316</v>
+      </c>
+      <c r="B147">
+        <v>-29.657876592999902</v>
+      </c>
+      <c r="C147">
+        <v>347522.57488352107</v>
+      </c>
+      <c r="D147">
+        <v>6718086.2515097316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>115.424519137</v>
+      </c>
+      <c r="B148">
+        <v>-29.655674658999899</v>
+      </c>
+      <c r="C148">
+        <v>347516.81664774357</v>
+      </c>
+      <c r="D148">
+        <v>6718330.2452032436</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>115.42523196</v>
+      </c>
+      <c r="B149">
+        <v>-29.651221031999899</v>
+      </c>
+      <c r="C149">
+        <v>347579.10292038042</v>
+      </c>
+      <c r="D149">
+        <v>6718824.7518851766</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>115.425574657</v>
+      </c>
+      <c r="B150">
+        <v>-29.6500747239999</v>
+      </c>
+      <c r="C150">
+        <v>347610.54925200244</v>
+      </c>
+      <c r="D150">
+        <v>6718952.2411786634</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>115.425970351</v>
+      </c>
+      <c r="B151">
+        <v>-29.647552785999899</v>
+      </c>
+      <c r="C151">
+        <v>347645.05441695976</v>
+      </c>
+      <c r="D151">
+        <v>6719232.2524857782</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>115.42591885100001</v>
+      </c>
+      <c r="B152">
+        <v>-29.646428791999899</v>
+      </c>
+      <c r="C152">
+        <v>347638.375713997</v>
+      </c>
+      <c r="D152">
+        <v>6719356.7498776764</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>115.425604544</v>
+      </c>
+      <c r="B153">
+        <v>-29.644015791999902</v>
+      </c>
+      <c r="C153">
+        <v>347604.3131892446</v>
+      </c>
+      <c r="D153">
+        <v>6719623.7537610643</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>115.42565824499999</v>
+      </c>
+      <c r="B154">
+        <v>-29.642617860999898</v>
+      </c>
+      <c r="C154">
+        <v>347607.40592131705</v>
+      </c>
+      <c r="D154">
+        <v>6719778.7482329337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>115.425843247</v>
+      </c>
+      <c r="B155">
+        <v>-29.641194286999902</v>
+      </c>
+      <c r="C155">
+        <v>347623.17171388475</v>
+      </c>
+      <c r="D155">
+        <v>6719936.7572898492</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>115.427160128</v>
+      </c>
+      <c r="B156">
+        <v>-29.636788543999899</v>
+      </c>
+      <c r="C156">
+        <v>347744.03090114758</v>
+      </c>
+      <c r="D156">
+        <v>6720426.7492978312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>115.427871878</v>
+      </c>
+      <c r="B157">
+        <v>-29.633210241999901</v>
+      </c>
+      <c r="C157">
+        <v>347807.55770762783</v>
+      </c>
+      <c r="D157">
+        <v>6720824.2444996843</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>115.428266815</v>
+      </c>
+      <c r="B158">
+        <v>-29.631947110999899</v>
+      </c>
+      <c r="C158">
+        <v>347843.89603181626</v>
+      </c>
+      <c r="D158">
+        <v>6720964.7478059353</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>115.428214563</v>
+      </c>
+      <c r="B159">
+        <v>-29.631238174999901</v>
+      </c>
+      <c r="C159">
+        <v>347837.77107506362</v>
+      </c>
+      <c r="D159">
+        <v>6721043.2458595699</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>115.42845219199999</v>
+      </c>
+      <c r="B160">
+        <v>-29.630180866999901</v>
+      </c>
+      <c r="C160">
+        <v>347859.18915802683</v>
+      </c>
+      <c r="D160">
+        <v>6721160.7324024178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>115.428951881</v>
+      </c>
+      <c r="B161">
+        <v>-29.629036230999901</v>
+      </c>
+      <c r="C161">
+        <v>347905.8499903531</v>
+      </c>
+      <c r="D161">
+        <v>6721288.2409240454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>115.430004896</v>
+      </c>
+      <c r="B162">
+        <v>-29.626052938999901</v>
+      </c>
+      <c r="C162">
+        <v>348003.3264055106</v>
+      </c>
+      <c r="D162">
+        <v>6721620.2411119295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>115.430688907</v>
+      </c>
+      <c r="B163">
+        <v>-29.6246308169999</v>
+      </c>
+      <c r="C163">
+        <v>348067.42200526642</v>
+      </c>
+      <c r="D163">
+        <v>6721778.7424116414</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>115.431136706</v>
+      </c>
+      <c r="B164">
+        <v>-29.6230705699999</v>
+      </c>
+      <c r="C164">
+        <v>348108.44022907212</v>
+      </c>
+      <c r="D164">
+        <v>6721952.2410661234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>115.431347714</v>
+      </c>
+      <c r="B165">
+        <v>-29.621579612999899</v>
+      </c>
+      <c r="C165">
+        <v>348126.63530228555</v>
+      </c>
+      <c r="D165">
+        <v>6722117.7502144594</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>115.431533468</v>
+      </c>
+      <c r="B166">
+        <v>-29.618802674999898</v>
+      </c>
+      <c r="C166">
+        <v>348140.45700356038</v>
+      </c>
+      <c r="D166">
+        <v>6722425.7425915282</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>115.431114032</v>
+      </c>
+      <c r="B167">
+        <v>-29.616713353999899</v>
+      </c>
+      <c r="C167">
+        <v>348096.70761699637</v>
+      </c>
+      <c r="D167">
+        <v>6722656.7378965411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>115.430354107</v>
+      </c>
+      <c r="B168">
+        <v>-29.614024409999899</v>
+      </c>
+      <c r="C168">
+        <v>348019.08502192347</v>
+      </c>
+      <c r="D168">
+        <v>6722953.7386585139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>115.42967192099999</v>
+      </c>
+      <c r="B169">
+        <v>-29.611891271999902</v>
+      </c>
+      <c r="C169">
+        <v>347949.82146130083</v>
+      </c>
+      <c r="D169">
+        <v>6723189.2448065756</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>115.429514991</v>
+      </c>
+      <c r="B170">
+        <v>-29.610788581999898</v>
+      </c>
+      <c r="C170">
+        <v>347932.96892653534</v>
+      </c>
+      <c r="D170">
+        <v>6723311.2423928808</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>115.429463114</v>
+      </c>
+      <c r="B171">
+        <v>-29.609569831999899</v>
+      </c>
+      <c r="C171">
+        <v>347926.11537803931</v>
+      </c>
+      <c r="D171">
+        <v>6723446.2398922006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>115.42956932</v>
+      </c>
+      <c r="B172">
+        <v>-29.608127328999899</v>
+      </c>
+      <c r="C172">
+        <v>347934.23510884121</v>
+      </c>
+      <c r="D172">
+        <v>6723606.2417262858</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>115.430043428</v>
+      </c>
+      <c r="B173">
+        <v>-29.605462008999901</v>
+      </c>
+      <c r="C173">
+        <v>347976.14956498134</v>
+      </c>
+      <c r="D173">
+        <v>6723902.242188042</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>115.430675619</v>
+      </c>
+      <c r="B174">
+        <v>-29.603353450999901</v>
+      </c>
+      <c r="C174">
+        <v>348034.21187130141</v>
+      </c>
+      <c r="D174">
+        <v>6724136.7475256938</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>115.43117530799999</v>
+      </c>
+      <c r="B175">
+        <v>-29.602114107999899</v>
+      </c>
+      <c r="C175">
+        <v>348080.74736646411</v>
+      </c>
+      <c r="D175">
+        <v>6724274.7499076109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>115.431727553</v>
+      </c>
+      <c r="B176">
+        <v>-29.600875428999899</v>
+      </c>
+      <c r="C176">
+        <v>348132.3751553577</v>
+      </c>
+      <c r="D176">
+        <v>6724412.7472743224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>115.432306434</v>
+      </c>
+      <c r="B177">
+        <v>-29.599889682999901</v>
+      </c>
+      <c r="C177">
+        <v>348186.96297125926</v>
+      </c>
+      <c r="D177">
+        <v>6724522.7484596623</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>115.432911189</v>
+      </c>
+      <c r="B178">
+        <v>-29.598651609999902</v>
+      </c>
+      <c r="C178">
+        <v>348243.67999910179</v>
+      </c>
+      <c r="D178">
+        <v>6724660.7467533052</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>115.43356931300001</v>
+      </c>
+      <c r="B179">
+        <v>-29.596313232999901</v>
+      </c>
+      <c r="C179">
+        <v>348303.92055983434</v>
+      </c>
+      <c r="D179">
+        <v>6724920.75315574</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>115.434726692</v>
+      </c>
+      <c r="B180">
+        <v>-29.592893475999901</v>
+      </c>
+      <c r="C180">
+        <v>348410.90318566689</v>
+      </c>
+      <c r="D180">
+        <v>6725301.253059268</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>115.43604143899999</v>
+      </c>
+      <c r="B181">
+        <v>-29.590328354999901</v>
+      </c>
+      <c r="C181">
+        <v>348534.41359537357</v>
+      </c>
+      <c r="D181">
+        <v>6725587.244034145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>115.43788245499999</v>
+      </c>
+      <c r="B182">
+        <v>-29.585716459999901</v>
+      </c>
+      <c r="C182">
+        <v>348705.85220290843</v>
+      </c>
+      <c r="D182">
+        <v>6726100.7482579444</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>115.43840845299999</v>
+      </c>
+      <c r="B183">
+        <v>-29.584707515999899</v>
+      </c>
+      <c r="C183">
+        <v>348755.29768823867</v>
+      </c>
+      <c r="D183">
+        <v>6726213.2477426752</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>115.4397757</v>
+      </c>
+      <c r="B184">
+        <v>-29.581380316999901</v>
+      </c>
+      <c r="C184">
+        <v>348882.77820860595</v>
+      </c>
+      <c r="D184">
+        <v>6726583.7574191233</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>115.440275767</v>
+      </c>
+      <c r="B185">
+        <v>-29.579432686999901</v>
+      </c>
+      <c r="C185">
+        <v>348928.31769544474</v>
+      </c>
+      <c r="D185">
+        <v>6726800.2494290378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>115.44093421399999</v>
+      </c>
+      <c r="B186">
+        <v>-29.5759663609999</v>
+      </c>
+      <c r="C186">
+        <v>348986.940758952</v>
+      </c>
+      <c r="D186">
+        <v>6727185.2524697911</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>115.441408669</v>
+      </c>
+      <c r="B187">
+        <v>-29.571581908999899</v>
+      </c>
+      <c r="C187">
+        <v>349026.37784349045</v>
+      </c>
+      <c r="D187">
+        <v>6727671.7641531127</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>115.441462356</v>
+      </c>
+      <c r="B188">
+        <v>-29.5702516019999</v>
+      </c>
+      <c r="C188">
+        <v>349029.59936008637</v>
+      </c>
+      <c r="D188">
+        <v>6727819.2613909245</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>115.442804438</v>
+      </c>
+      <c r="B189">
+        <v>-29.5634138909999</v>
+      </c>
+      <c r="C189">
+        <v>349149.45417432825</v>
+      </c>
+      <c r="D189">
+        <v>6728578.7751449905</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>115.444750621</v>
+      </c>
+      <c r="B190">
+        <v>-29.557404517999899</v>
+      </c>
+      <c r="C190">
+        <v>349329.09068208659</v>
+      </c>
+      <c r="D190">
+        <v>6729247.2723632716</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>115.446590188</v>
+      </c>
+      <c r="B191">
+        <v>-29.5536903799999</v>
+      </c>
+      <c r="C191">
+        <v>349501.82257589849</v>
+      </c>
+      <c r="D191">
+        <v>6729661.2652927842</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>115.44761437</v>
+      </c>
+      <c r="B192">
+        <v>-29.5528406359999</v>
+      </c>
+      <c r="C192">
+        <v>349599.80164183071</v>
+      </c>
+      <c r="D192">
+        <v>6729756.7622950077</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>115.448822558</v>
+      </c>
+      <c r="B193">
+        <v>-29.552268134999899</v>
+      </c>
+      <c r="C193">
+        <v>349716.02224499983</v>
+      </c>
+      <c r="D193">
+        <v>6729821.771998005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>115.44989929800001</v>
+      </c>
+      <c r="B194">
+        <v>-29.552064199999901</v>
+      </c>
+      <c r="C194">
+        <v>349820.05244066106</v>
+      </c>
+      <c r="D194">
+        <v>6729845.7653908711</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>115.451290691</v>
+      </c>
+      <c r="B195">
+        <v>-29.5522066159999</v>
+      </c>
+      <c r="C195">
+        <v>349955.08360423241</v>
+      </c>
+      <c r="D195">
+        <v>6729831.7812583884</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>115.452839803</v>
+      </c>
+      <c r="B196">
+        <v>-29.552459377999899</v>
+      </c>
+      <c r="C196">
+        <v>350105.55957323214</v>
+      </c>
+      <c r="D196">
+        <v>6729805.7704075091</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>115.45438923099999</v>
+      </c>
+      <c r="B197">
+        <v>-29.5524188189999</v>
+      </c>
+      <c r="C197">
+        <v>350255.63275267475</v>
+      </c>
+      <c r="D197">
+        <v>6729812.2642399147</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>115.455296046</v>
+      </c>
+      <c r="B198">
+        <v>-29.552318884999899</v>
+      </c>
+      <c r="C198">
+        <v>350343.35198579519</v>
+      </c>
+      <c r="D198">
+        <v>6729824.5080826255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>115.454403629</v>
+      </c>
+      <c r="B199">
+        <v>-29.549815623999901</v>
+      </c>
+      <c r="C199">
+        <v>350253.18872252956</v>
+      </c>
+      <c r="D199">
+        <v>6730100.7726001451</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>115.45607866899999</v>
+      </c>
+      <c r="B200">
+        <v>-29.549746321999901</v>
+      </c>
+      <c r="C200">
+        <v>350415.39506511466</v>
+      </c>
+      <c r="D200">
+        <v>6730110.6114336848</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>115.45826247700001</v>
+      </c>
+      <c r="B201">
+        <v>-29.5494173189999</v>
+      </c>
+      <c r="C201">
+        <v>350626.51829704596</v>
+      </c>
+      <c r="D201">
+        <v>6730149.8828135468</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>115.45928197400001</v>
+      </c>
+      <c r="B202">
+        <v>-29.5490303109999</v>
+      </c>
+      <c r="C202">
+        <v>350724.73715315736</v>
+      </c>
+      <c r="D202">
+        <v>6730194.082381431</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>115.461977663</v>
+      </c>
+      <c r="B203">
+        <v>-29.548352562999899</v>
+      </c>
+      <c r="C203">
+        <v>350984.95180879475</v>
+      </c>
+      <c r="D203">
+        <v>6730272.6530773267</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>115.463352469</v>
+      </c>
+      <c r="B204">
+        <v>-29.5479254329999</v>
+      </c>
+      <c r="C204">
+        <v>351117.54356093425</v>
+      </c>
+      <c r="D204">
+        <v>6730321.7513038963</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>115.464626908</v>
+      </c>
+      <c r="B205">
+        <v>-29.547408563999898</v>
+      </c>
+      <c r="C205">
+        <v>351240.2793586154</v>
+      </c>
+      <c r="D205">
+        <v>6730380.6643426139</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>115.465858474</v>
+      </c>
+      <c r="B206">
+        <v>-29.5464037509999</v>
+      </c>
+      <c r="C206">
+        <v>351358.14778826048</v>
+      </c>
+      <c r="D206">
+        <v>6730493.5955858342</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>115.46793959999999</v>
+      </c>
+      <c r="B207">
+        <v>-29.544932750999902</v>
+      </c>
+      <c r="C207">
+        <v>351557.66142972308</v>
+      </c>
+      <c r="D207">
+        <v>6730659.2748335805</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>115.468648464</v>
+      </c>
+      <c r="B208">
+        <v>-29.543835498999901</v>
+      </c>
+      <c r="C208">
+        <v>351624.74925064016</v>
+      </c>
+      <c r="D208">
+        <v>6730781.7790585728</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>115.469541972</v>
+      </c>
+      <c r="B209">
+        <v>-29.541310249999899</v>
+      </c>
+      <c r="C209">
+        <v>351707.64671682159</v>
+      </c>
+      <c r="D209">
+        <v>6731062.7704249052</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>115.470119774</v>
+      </c>
+      <c r="B210">
+        <v>-29.538600801999898</v>
+      </c>
+      <c r="C210">
+        <v>351759.68540561083</v>
+      </c>
+      <c r="D210">
+        <v>6731363.7711825036</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>115.470041632</v>
+      </c>
+      <c r="B211">
+        <v>-29.536330482999901</v>
+      </c>
+      <c r="C211">
+        <v>351748.79986112879</v>
+      </c>
+      <c r="D211">
+        <v>6731615.2700349968</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>115.47022521300001</v>
+      </c>
+      <c r="B212">
+        <v>-29.535024114999899</v>
+      </c>
+      <c r="C212">
+        <v>351764.68488281034</v>
+      </c>
+      <c r="D212">
+        <v>6731760.2769772047</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>115.47012046</v>
+      </c>
+      <c r="B213">
+        <v>-29.533669355999901</v>
+      </c>
+      <c r="C213">
+        <v>351752.55644937197</v>
+      </c>
+      <c r="D213">
+        <v>6731910.2787317317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>115.46975289700001</v>
+      </c>
+      <c r="B214">
+        <v>-29.5326589249999</v>
+      </c>
+      <c r="C214">
+        <v>351715.46017021232</v>
+      </c>
+      <c r="D214">
+        <v>6732021.7864185218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>115.46925464900001</v>
+      </c>
+      <c r="B215">
+        <v>-29.530270912999899</v>
+      </c>
+      <c r="C215">
+        <v>351663.6870203779</v>
+      </c>
+      <c r="D215">
+        <v>6732285.791694561</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>115.469150273</v>
+      </c>
+      <c r="B216">
+        <v>-29.529119299999898</v>
+      </c>
+      <c r="C216">
+        <v>351651.8902148552</v>
+      </c>
+      <c r="D216">
+        <v>6732413.2810139144</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>115.469412706</v>
+      </c>
+      <c r="B217">
+        <v>-29.527998791999899</v>
+      </c>
+      <c r="C217">
+        <v>351675.68931165064</v>
+      </c>
+      <c r="D217">
+        <v>6732537.7914560456</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>115.470804431</v>
+      </c>
+      <c r="B218">
+        <v>-29.5245542329999</v>
+      </c>
+      <c r="C218">
+        <v>351805.55136963446</v>
+      </c>
+      <c r="D218">
+        <v>6732921.2950525489</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>115.47240643400001</v>
+      </c>
+      <c r="B219">
+        <v>-29.521274538999901</v>
+      </c>
+      <c r="C219">
+        <v>351956.04439514701</v>
+      </c>
+      <c r="D219">
+        <v>6733286.7940105665</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>115.473010168</v>
+      </c>
+      <c r="B220">
+        <v>-29.520266360999901</v>
+      </c>
+      <c r="C220">
+        <v>352013.09381318046</v>
+      </c>
+      <c r="D220">
+        <v>6733399.2895523217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>115.473561683</v>
+      </c>
+      <c r="B221">
+        <v>-29.519122109999898</v>
+      </c>
+      <c r="C221">
+        <v>352064.88500775886</v>
+      </c>
+      <c r="D221">
+        <v>6733526.7979546897</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>115.47421798400001</v>
+      </c>
+      <c r="B222">
+        <v>-29.5179521069999</v>
+      </c>
+      <c r="C222">
+        <v>352126.7967226351</v>
+      </c>
+      <c r="D222">
+        <v>6733657.2931930069</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>115.474506676</v>
+      </c>
+      <c r="B223">
+        <v>-29.516529729999899</v>
+      </c>
+      <c r="C223">
+        <v>352152.71090633882</v>
+      </c>
+      <c r="D223">
+        <v>6733815.2887276523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>115.474979361</v>
+      </c>
+      <c r="B224">
+        <v>-29.5152447329999</v>
+      </c>
+      <c r="C224">
+        <v>352196.66025469161</v>
+      </c>
+      <c r="D224">
+        <v>6733958.29357439</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>115.47532096099999</v>
+      </c>
+      <c r="B225">
+        <v>-29.513890603999901</v>
+      </c>
+      <c r="C225">
+        <v>352227.8040431143</v>
+      </c>
+      <c r="D225">
+        <v>6734108.7928009192</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>115.47540522600001</v>
+      </c>
+      <c r="B226">
+        <v>-29.5132463559999</v>
+      </c>
+      <c r="C226">
+        <v>352235.03590973653</v>
+      </c>
+      <c r="D226">
+        <v>6734180.2956473865</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>115.487474819</v>
+      </c>
+      <c r="B227">
+        <v>-29.475687527999899</v>
+      </c>
+      <c r="C227">
+        <v>353350.86235185724</v>
+      </c>
+      <c r="D227">
+        <v>6738357.8313366901</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>115.489461615</v>
+      </c>
+      <c r="B228">
+        <v>-29.472867521999898</v>
+      </c>
+      <c r="C228">
+        <v>353539.46352001396</v>
+      </c>
+      <c r="D228">
+        <v>6738672.8438824546</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>115.490487226</v>
+      </c>
+      <c r="B229">
+        <v>-29.470907600999901</v>
+      </c>
+      <c r="C229">
+        <v>353636.10187121353</v>
+      </c>
+      <c r="D229">
+        <v>6738891.3307515979</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>115.49119965</v>
+      </c>
+      <c r="B230">
+        <v>-29.4690884739999</v>
+      </c>
+      <c r="C230">
+        <v>353702.57521566207</v>
+      </c>
+      <c r="D230">
+        <v>6739093.8203991652</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>115.49092495799999</v>
+      </c>
+      <c r="B231">
+        <v>-29.468124280999898</v>
+      </c>
+      <c r="C231">
+        <v>353674.55232532654</v>
+      </c>
+      <c r="D231">
+        <v>6739200.3262676457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>115.49028596399999</v>
+      </c>
+      <c r="B232">
+        <v>-29.467440284999899</v>
+      </c>
+      <c r="C232">
+        <v>353611.60290887667</v>
+      </c>
+      <c r="D232">
+        <v>6739275.322893451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>115.488988521</v>
+      </c>
+      <c r="B233">
+        <v>-29.4665772849999</v>
+      </c>
+      <c r="C233">
+        <v>353484.54108115594</v>
+      </c>
+      <c r="D233">
+        <v>6739369.3278855234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>115.486873215</v>
+      </c>
+      <c r="B234">
+        <v>-29.4654207849999</v>
+      </c>
+      <c r="C234">
+        <v>353277.74001661863</v>
+      </c>
+      <c r="D234">
+        <v>6739494.8266569795</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>115.485818778</v>
+      </c>
+      <c r="B235">
+        <v>-29.465083915999902</v>
+      </c>
+      <c r="C235">
+        <v>353174.99741564045</v>
+      </c>
+      <c r="D235">
+        <v>6739530.829077825</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>115.48463397099999</v>
+      </c>
+      <c r="B236">
+        <v>-29.464862985999901</v>
+      </c>
+      <c r="C236">
+        <v>353059.77819613443</v>
+      </c>
+      <c r="D236">
+        <v>6739553.8177999277</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>115.483659101</v>
+      </c>
+      <c r="B237">
+        <v>-29.464594606999899</v>
+      </c>
+      <c r="C237">
+        <v>352964.84942023264</v>
+      </c>
+      <c r="D237">
+        <v>6739582.32874709</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>115.482238532</v>
+      </c>
+      <c r="B238">
+        <v>-29.464397927999901</v>
+      </c>
+      <c r="C238">
+        <v>352826.80018075847</v>
+      </c>
+      <c r="D238">
+        <v>6739602.3299200749</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>115.480895037</v>
+      </c>
+      <c r="B239">
+        <v>-29.4640667369999</v>
+      </c>
+      <c r="C239">
+        <v>352696.03049796686</v>
+      </c>
+      <c r="D239">
+        <v>6739637.3334653368</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>115.47957960700001</v>
+      </c>
+      <c r="B240">
+        <v>-29.463866740999901</v>
+      </c>
+      <c r="C240">
+        <v>352568.17148265231</v>
+      </c>
+      <c r="D240">
+        <v>6739657.8321108893</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>115.478240047</v>
+      </c>
+      <c r="B241">
+        <v>-29.463833350999899</v>
+      </c>
+      <c r="C241">
+        <v>352438.21306408138</v>
+      </c>
+      <c r="D241">
+        <v>6739659.8355661333</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>115.47240336599999</v>
+      </c>
+      <c r="B242">
+        <v>-29.463274678999898</v>
+      </c>
+      <c r="C242">
+        <v>351871.36097061471</v>
+      </c>
+      <c r="D242">
+        <v>6739714.3366598468</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>115.47059150600001</v>
+      </c>
+      <c r="B243">
+        <v>-29.463289931999899</v>
+      </c>
+      <c r="C243">
+        <v>351695.6682751996</v>
+      </c>
+      <c r="D243">
+        <v>6739710.3401002232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>115.469170572</v>
+      </c>
+      <c r="B244">
+        <v>-29.463070535999901</v>
+      </c>
+      <c r="C244">
+        <v>351557.54591025907</v>
+      </c>
+      <c r="D244">
+        <v>6739732.842940934</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>115.46756750999999</v>
+      </c>
+      <c r="B245">
+        <v>-29.462966425999898</v>
+      </c>
+      <c r="C245">
+        <v>351401.92808336107</v>
+      </c>
+      <c r="D245">
+        <v>6739742.3357512429</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>115.466328752</v>
+      </c>
+      <c r="B246">
+        <v>-29.4625866109999</v>
+      </c>
+      <c r="C246">
+        <v>351281.23805181409</v>
+      </c>
+      <c r="D246">
+        <v>6739782.8453106647</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>115.462936457</v>
+      </c>
+      <c r="B247">
+        <v>-29.462195546999901</v>
+      </c>
+      <c r="C247">
+        <v>350951.67720874929</v>
+      </c>
+      <c r="D247">
+        <v>6739821.845723602</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>115.459799463</v>
+      </c>
+      <c r="B248">
+        <v>-29.4612073569999</v>
+      </c>
+      <c r="C248">
+        <v>350645.99807531782</v>
+      </c>
+      <c r="D248">
+        <v>6739927.3375238096</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>115.456771155</v>
+      </c>
+      <c r="B249">
+        <v>-29.460495550999902</v>
+      </c>
+      <c r="C249">
+        <v>350351.25945163687</v>
+      </c>
+      <c r="D249">
+        <v>6740002.3320813617</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>115.455320339</v>
+      </c>
+      <c r="B250">
+        <v>-29.460000427999901</v>
+      </c>
+      <c r="C250">
+        <v>350209.8266660145</v>
+      </c>
+      <c r="D250">
+        <v>6740055.3363650292</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>115.45376659999999</v>
+      </c>
+      <c r="B251">
+        <v>-29.459621421999898</v>
+      </c>
+      <c r="C251">
+        <v>350058.58138033014</v>
+      </c>
+      <c r="D251">
+        <v>6740095.338328287</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>115.45255410199999</v>
+      </c>
+      <c r="B252">
+        <v>-29.4592373559999</v>
+      </c>
+      <c r="C252">
+        <v>349940.42262280348</v>
+      </c>
+      <c r="D252">
+        <v>6740136.338806645</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>115.449626596</v>
+      </c>
+      <c r="B253">
+        <v>-29.458179097999899</v>
+      </c>
+      <c r="C253">
+        <v>349654.93822573294</v>
+      </c>
+      <c r="D253">
+        <v>6740249.8393470161</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>115.448384229</v>
+      </c>
+      <c r="B254">
+        <v>-29.457496793999901</v>
+      </c>
+      <c r="C254">
+        <v>349533.43904250499</v>
+      </c>
+      <c r="D254">
+        <v>6740323.8479143213</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>115.446959345</v>
+      </c>
+      <c r="B255">
+        <v>-29.4569342919999</v>
+      </c>
+      <c r="C255">
+        <v>349394.41344613867</v>
+      </c>
+      <c r="D255">
+        <v>6740384.3427519388</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>115.443452587</v>
+      </c>
+      <c r="B256">
+        <v>-29.4557654669999</v>
+      </c>
+      <c r="C256">
+        <v>349052.57242943253</v>
+      </c>
+      <c r="D256">
+        <v>6740509.3324287999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>115.442132106</v>
+      </c>
+      <c r="B257">
+        <v>-29.455131770999898</v>
+      </c>
+      <c r="C257">
+        <v>348923.56212296261</v>
+      </c>
+      <c r="D257">
+        <v>6740577.8467037082</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>115.44044517899999</v>
+      </c>
+      <c r="B258">
+        <v>-29.4545887099999</v>
+      </c>
+      <c r="C258">
+        <v>348759.14326354465</v>
+      </c>
+      <c r="D258">
+        <v>6740635.8395944312</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>115.43730562</v>
+      </c>
+      <c r="B259">
+        <v>-29.453351757999901</v>
+      </c>
+      <c r="C259">
+        <v>348452.80031528161</v>
+      </c>
+      <c r="D259">
+        <v>6740768.8382969666</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>115.43593437200001</v>
+      </c>
+      <c r="B260">
+        <v>-29.452875384999899</v>
+      </c>
+      <c r="C260">
+        <v>348319.09326136525</v>
+      </c>
+      <c r="D260">
+        <v>6740819.8452702975</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>115.43218676399999</v>
+      </c>
+      <c r="B261">
+        <v>-29.451270182999899</v>
+      </c>
+      <c r="C261">
+        <v>347953.21430221701</v>
+      </c>
+      <c r="D261">
+        <v>6740992.8485581167</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>115.430144118</v>
+      </c>
+      <c r="B262">
+        <v>-29.449540681999899</v>
+      </c>
+      <c r="C262">
+        <v>347752.50975304021</v>
+      </c>
+      <c r="D262">
+        <v>6741181.8448137995</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>115.42786567</v>
+      </c>
+      <c r="B263">
+        <v>-29.447808252999899</v>
+      </c>
+      <c r="C263">
+        <v>347528.92224988964</v>
+      </c>
+      <c r="D263">
+        <v>6741370.8536318708</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>115.42711973</v>
+      </c>
+      <c r="B264">
+        <v>-29.446919682999901</v>
+      </c>
+      <c r="C264">
+        <v>347455.23961203138</v>
+      </c>
+      <c r="D264">
+        <v>6741468.3489581011</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>115.42507459799999</v>
+      </c>
+      <c r="B265">
+        <v>-29.4449598819999</v>
+      </c>
+      <c r="C265">
+        <v>347253.93226351624</v>
+      </c>
+      <c r="D265">
+        <v>6741682.8556845458</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>115.422894024</v>
+      </c>
+      <c r="B266">
+        <v>-29.442651120999901</v>
+      </c>
+      <c r="C266">
+        <v>347038.95599158271</v>
+      </c>
+      <c r="D266">
+        <v>6741935.8532519564</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>115.42126970299999</v>
+      </c>
+      <c r="B267">
+        <v>-29.440709813999899</v>
+      </c>
+      <c r="C267">
+        <v>346878.48036561516</v>
+      </c>
+      <c r="D267">
+        <v>6742148.8566602794</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>115.412249491</v>
+      </c>
+      <c r="B268">
+        <v>-29.419455339999899</v>
+      </c>
+      <c r="C268">
+        <v>345971.41033943917</v>
+      </c>
+      <c r="D268">
+        <v>6744492.4055272415</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>115.412129613</v>
+      </c>
+      <c r="B269">
+        <v>-29.4182176579999</v>
+      </c>
+      <c r="C269">
+        <v>345957.91175348498</v>
+      </c>
+      <c r="D269">
+        <v>6744629.4077624455</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>115.41182467500001</v>
+      </c>
+      <c r="B270">
+        <v>-29.416815400999901</v>
+      </c>
+      <c r="C270">
+        <v>345926.20897890907</v>
+      </c>
+      <c r="D270">
+        <v>6744784.4037544187</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>115.411450285</v>
+      </c>
+      <c r="B271">
+        <v>-29.414018078999899</v>
+      </c>
+      <c r="C271">
+        <v>345885.66102009919</v>
+      </c>
+      <c r="D271">
+        <v>6745093.9096897021</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>115.411199698</v>
+      </c>
+      <c r="B272">
+        <v>-29.410572645999899</v>
+      </c>
+      <c r="C272">
+        <v>345856.14590994886</v>
+      </c>
+      <c r="D272">
+        <v>6745475.4030338135</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>115.411394073</v>
+      </c>
+      <c r="B273">
+        <v>-29.409284522999901</v>
+      </c>
+      <c r="C273">
+        <v>345873.06242713338</v>
+      </c>
+      <c r="D273">
+        <v>6745618.4102621926</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>115.41163025500001</v>
+      </c>
+      <c r="B274">
+        <v>-29.408308391999899</v>
+      </c>
+      <c r="C274">
+        <v>345894.50698806992</v>
+      </c>
+      <c r="D274">
+        <v>6745726.8975775028</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>115.41517120899999</v>
+      </c>
+      <c r="B275">
+        <v>-29.411305640999899</v>
+      </c>
+      <c r="C275">
+        <v>346242.61300476233</v>
+      </c>
+      <c r="D275">
+        <v>6745399.4146044124</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>115.415649651</v>
+      </c>
+      <c r="B276">
+        <v>-29.411807714999899</v>
+      </c>
+      <c r="C276">
+        <v>346289.7925551784</v>
+      </c>
+      <c r="D276">
+        <v>6745344.40525157</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>115.422583922</v>
+      </c>
+      <c r="B277">
+        <v>-29.405627760999899</v>
+      </c>
+      <c r="C277">
+        <v>346953.36832791043</v>
+      </c>
+      <c r="D277">
+        <v>6746038.387516384</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>115.42315340499999</v>
+      </c>
+      <c r="B278">
+        <v>-29.404957760999899</v>
+      </c>
+      <c r="C278">
+        <v>347007.62536512746</v>
+      </c>
+      <c r="D278">
+        <v>6746113.3839791184</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>115.42403616</v>
+      </c>
+      <c r="B279">
+        <v>-29.4041921369999</v>
+      </c>
+      <c r="C279">
+        <v>347092.13917857624</v>
+      </c>
+      <c r="D279">
+        <v>6746199.3878649157</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>115.424786037</v>
+      </c>
+      <c r="B280">
+        <v>-29.4032445789999</v>
+      </c>
+      <c r="C280">
+        <v>347163.48780185112</v>
+      </c>
+      <c r="D280">
+        <v>6746305.3788944799</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>115.425404843</v>
+      </c>
+      <c r="B281">
+        <v>-29.402299889999899</v>
+      </c>
+      <c r="C281">
+        <v>347222.12302899361</v>
+      </c>
+      <c r="D281">
+        <v>6746410.8798194826</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>115.426206951</v>
+      </c>
+      <c r="B282">
+        <v>-29.4013754449999</v>
+      </c>
+      <c r="C282">
+        <v>347298.57735760364</v>
+      </c>
+      <c r="D282">
+        <v>6746514.3768772036</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>115.42693414199999</v>
+      </c>
+      <c r="B283">
+        <v>-29.400702756999902</v>
+      </c>
+      <c r="C283">
+        <v>347368.13921216293</v>
+      </c>
+      <c r="D283">
+        <v>6746589.8756617168</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>115.42786038200001</v>
+      </c>
+      <c r="B284">
+        <v>-29.399157198999902</v>
+      </c>
+      <c r="C284">
+        <v>347455.7147641452</v>
+      </c>
+      <c r="D284">
+        <v>6746762.3655339926</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>115.428112063</v>
+      </c>
+      <c r="B285">
+        <v>-29.3982577529999</v>
+      </c>
+      <c r="C285">
+        <v>347478.79579668754</v>
+      </c>
+      <c r="D285">
+        <v>6746862.3709909553</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>115.42825675100001</v>
+      </c>
+      <c r="B286">
+        <v>-29.397226134999901</v>
+      </c>
+      <c r="C286">
+        <v>347491.29697080282</v>
+      </c>
+      <c r="D286">
+        <v>6746976.8837984875</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>115.428058745</v>
+      </c>
+      <c r="B287">
+        <v>-29.396010256999901</v>
+      </c>
+      <c r="C287">
+        <v>347470.26660086052</v>
+      </c>
+      <c r="D287">
+        <v>6747111.3682911955</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>115.427368245</v>
+      </c>
+      <c r="B288">
+        <v>-29.3953478349999</v>
+      </c>
+      <c r="C288">
+        <v>347402.26748063345</v>
+      </c>
+      <c r="D288">
+        <v>6747183.8749276157</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>115.426601496</v>
+      </c>
+      <c r="B289">
+        <v>-29.3948243789999</v>
+      </c>
+      <c r="C289">
+        <v>347327.07540870178</v>
+      </c>
+      <c r="D289">
+        <v>6747240.8812447768</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>115.424151678</v>
+      </c>
+      <c r="B290">
+        <v>-29.394060063999898</v>
+      </c>
+      <c r="C290">
+        <v>347088.18515050213</v>
+      </c>
+      <c r="D290">
+        <v>6747322.3747284701</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>115.423230805</v>
+      </c>
+      <c r="B291">
+        <v>-29.3938821969999</v>
+      </c>
+      <c r="C291">
+        <v>346998.55052476504</v>
+      </c>
+      <c r="D291">
+        <v>6747340.8788643032</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>115.41994581</v>
+      </c>
+      <c r="B292">
+        <v>-29.393446254999901</v>
+      </c>
+      <c r="C292">
+        <v>346679.09556220495</v>
+      </c>
+      <c r="D292">
+        <v>6747384.8783004973</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>115.41870774100001</v>
+      </c>
+      <c r="B293">
+        <v>-29.3930660649999</v>
+      </c>
+      <c r="C293">
+        <v>346558.37249370688</v>
+      </c>
+      <c r="D293">
+        <v>6747425.3836366907</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>115.41760256000001</v>
+      </c>
+      <c r="B294">
+        <v>-29.392818376999902</v>
+      </c>
+      <c r="C294">
+        <v>346450.74421391368</v>
+      </c>
+      <c r="D294">
+        <v>6747451.3787121996</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>115.416361994</v>
+      </c>
+      <c r="B295">
+        <v>-29.392208005999901</v>
+      </c>
+      <c r="C295">
+        <v>346329.43104922969</v>
+      </c>
+      <c r="D295">
+        <v>6747517.3870528284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>115.41522580500001</v>
+      </c>
+      <c r="B296">
+        <v>-29.391549385999902</v>
+      </c>
+      <c r="C296">
+        <v>346218.17360442941</v>
+      </c>
+      <c r="D296">
+        <v>6747588.8786533596</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>115.41276416300001</v>
+      </c>
+      <c r="B297">
+        <v>-29.389751443999899</v>
+      </c>
+      <c r="C297">
+        <v>345976.56168413436</v>
+      </c>
+      <c r="D297">
+        <v>6747784.8804064505</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>115.411888979</v>
+      </c>
+      <c r="B298">
+        <v>-29.388951448999901</v>
+      </c>
+      <c r="C298">
+        <v>345890.41730944987</v>
+      </c>
+      <c r="D298">
+        <v>6747872.3805914558</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>115.41106853300001</v>
+      </c>
+      <c r="B299">
+        <v>-29.388359698999899</v>
+      </c>
+      <c r="C299">
+        <v>345809.89826193493</v>
+      </c>
+      <c r="D299">
+        <v>6747936.8747510081</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>115.409709904</v>
+      </c>
+      <c r="B300">
+        <v>-29.3866469909999</v>
+      </c>
+      <c r="C300">
+        <v>345675.45325629169</v>
+      </c>
+      <c r="D300">
+        <v>6748124.881601016</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>115.409152971</v>
+      </c>
+      <c r="B301">
+        <v>-29.3861485739999</v>
+      </c>
+      <c r="C301">
+        <v>345620.64750938368</v>
+      </c>
+      <c r="D301">
+        <v>6748179.379730979</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>115.40715533300001</v>
+      </c>
+      <c r="B302">
+        <v>-29.383634260999901</v>
+      </c>
+      <c r="C302">
+        <v>345422.96433349361</v>
+      </c>
+      <c r="D302">
+        <v>6748455.3724732213</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>115.405909704</v>
+      </c>
+      <c r="B303">
+        <v>-29.382586006999901</v>
+      </c>
+      <c r="C303">
+        <v>345300.48023069277</v>
+      </c>
+      <c r="D303">
+        <v>6748569.8899989724</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>115.40444988500001</v>
+      </c>
+      <c r="B304">
+        <v>-29.381147380999899</v>
+      </c>
+      <c r="C304">
+        <v>345156.61321827292</v>
+      </c>
+      <c r="D304">
+        <v>6748727.3832983514</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>115.403469247</v>
+      </c>
+      <c r="B305">
+        <v>-29.380350630999899</v>
+      </c>
+      <c r="C305">
+        <v>345060.224969754</v>
+      </c>
+      <c r="D305">
+        <v>6748814.3781524636</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>115.40262325499999</v>
+      </c>
+      <c r="B306">
+        <v>-29.379803505999899</v>
+      </c>
+      <c r="C306">
+        <v>344977.28267835832</v>
+      </c>
+      <c r="D306">
+        <v>6748873.8875487093</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>115.401961183</v>
+      </c>
+      <c r="B307">
+        <v>-29.379258753999899</v>
+      </c>
+      <c r="C307">
+        <v>344912.19474394718</v>
+      </c>
+      <c r="D307">
+        <v>6748933.3777366215</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>115.40101080300001</v>
+      </c>
+      <c r="B308">
+        <v>-29.378782565999899</v>
+      </c>
+      <c r="C308">
+        <v>344819.22628126445</v>
+      </c>
+      <c r="D308">
+        <v>6748984.8861051211</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>115.398954867</v>
+      </c>
+      <c r="B309">
+        <v>-29.377945690999901</v>
+      </c>
+      <c r="C309">
+        <v>344618.40033833578</v>
+      </c>
+      <c r="D309">
+        <v>6749074.8942840099</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>115.39707886799999</v>
+      </c>
+      <c r="B310">
+        <v>-29.376831319999901</v>
+      </c>
+      <c r="C310">
+        <v>344434.61433668691</v>
+      </c>
+      <c r="D310">
+        <v>6749195.8910014071</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>115.395405614</v>
+      </c>
+      <c r="B311">
+        <v>-29.3750966849999</v>
+      </c>
+      <c r="C311">
+        <v>344269.55934507487</v>
+      </c>
+      <c r="D311">
+        <v>6749385.8932050709</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>115.394022108</v>
+      </c>
+      <c r="B312">
+        <v>-29.3734783149999</v>
+      </c>
+      <c r="C312">
+        <v>344132.80129899213</v>
+      </c>
+      <c r="D312">
+        <v>6749563.395483464</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>115.39346122800001</v>
+      </c>
+      <c r="B313">
+        <v>-29.372582695999899</v>
+      </c>
+      <c r="C313">
+        <v>344076.99257974018</v>
+      </c>
+      <c r="D313">
+        <v>6749661.8994718175</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>115.393162105</v>
+      </c>
+      <c r="B314">
+        <v>-29.3717127449999</v>
+      </c>
+      <c r="C314">
+        <v>344046.63066786411</v>
+      </c>
+      <c r="D314">
+        <v>6749757.908296776</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>115.392940662</v>
+      </c>
+      <c r="B315">
+        <v>-29.370703876999901</v>
+      </c>
+      <c r="C315">
+        <v>344023.59687135671</v>
+      </c>
+      <c r="D315">
+        <v>6749869.4156423453</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>115.39299321999999</v>
+      </c>
+      <c r="B316">
+        <v>-29.368453123999899</v>
+      </c>
+      <c r="C316">
+        <v>344025.26671605499</v>
+      </c>
+      <c r="D316">
+        <v>6750118.9150423855</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>115.39354614200001</v>
+      </c>
+      <c r="B317">
+        <v>-29.366379801999901</v>
+      </c>
+      <c r="C317">
+        <v>344075.78008882533</v>
+      </c>
+      <c r="D317">
+        <v>6750349.4195346404</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>115.39421038099999</v>
+      </c>
+      <c r="B318">
+        <v>-29.3648356869999</v>
+      </c>
+      <c r="C318">
+        <v>344137.90829086548</v>
+      </c>
+      <c r="D318">
+        <v>6750521.4253588468</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>115.394726565</v>
+      </c>
+      <c r="B319">
+        <v>-29.364147053999901</v>
+      </c>
+      <c r="C319">
+        <v>344186.96856369177</v>
+      </c>
+      <c r="D319">
+        <v>6750598.4285408817</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>115.394798247</v>
+      </c>
+      <c r="B320">
+        <v>-29.363525373999899</v>
+      </c>
+      <c r="C320">
+        <v>344192.9804916681</v>
+      </c>
+      <c r="D320">
+        <v>6750667.4188639969</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>115.395183422</v>
+      </c>
+      <c r="B321">
+        <v>-29.362808057999899</v>
+      </c>
+      <c r="C321">
+        <v>344229.28010061802</v>
+      </c>
+      <c r="D321">
+        <v>6750747.4256946985</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>115.39604921500001</v>
+      </c>
+      <c r="B322">
+        <v>-29.3605760619999</v>
+      </c>
+      <c r="C322">
+        <v>344309.93328537326</v>
+      </c>
+      <c r="D322">
+        <v>6750995.9301017998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>115.396141344</v>
+      </c>
+      <c r="B323">
+        <v>-29.359471739999901</v>
+      </c>
+      <c r="C323">
+        <v>344317.197074219</v>
+      </c>
+      <c r="D323">
+        <v>6751118.4339638483</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>115.395787833</v>
+      </c>
+      <c r="B324">
+        <v>-29.358416245999901</v>
+      </c>
+      <c r="C324">
+        <v>344281.27180241712</v>
+      </c>
+      <c r="D324">
+        <v>6751234.9327190677</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>115.39494252199999</v>
+      </c>
+      <c r="B325">
+        <v>-29.357896301999901</v>
+      </c>
+      <c r="C325">
+        <v>344198.41579703847</v>
+      </c>
+      <c r="D325">
+        <v>6751291.4258752773</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>115.39347158699999</v>
+      </c>
+      <c r="B326">
+        <v>-29.357743242999899</v>
+      </c>
+      <c r="C326">
+        <v>344055.38057297317</v>
+      </c>
+      <c r="D326">
+        <v>6751306.4252351718</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>115.392449224</v>
+      </c>
+      <c r="B327">
+        <v>-29.357776052999899</v>
+      </c>
+      <c r="C327">
+        <v>343956.17690228135</v>
+      </c>
+      <c r="D327">
+        <v>6751301.4240369098</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>115.389542917</v>
+      </c>
+      <c r="B328">
+        <v>-29.3582554249999</v>
+      </c>
+      <c r="C328">
+        <v>343674.75715643517</v>
+      </c>
+      <c r="D328">
+        <v>6751244.414289739</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>115.387000998</v>
+      </c>
+      <c r="B329">
+        <v>-29.358477361999899</v>
+      </c>
+      <c r="C329">
+        <v>343428.3214473644</v>
+      </c>
+      <c r="D329">
+        <v>6751216.4149164353</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>115.38569130899999</v>
+      </c>
+      <c r="B330">
+        <v>-29.358669054999901</v>
+      </c>
+      <c r="C330">
+        <v>343301.46760441398</v>
+      </c>
+      <c r="D330">
+        <v>6751193.4153319262</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>115.384377692</v>
+      </c>
+      <c r="B331">
+        <v>-29.358472676999899</v>
+      </c>
+      <c r="C331">
+        <v>343173.63815085671</v>
+      </c>
+      <c r="D331">
+        <v>6751213.4152205959</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>115.383117695</v>
+      </c>
+      <c r="B332">
+        <v>-29.358412178999899</v>
+      </c>
+      <c r="C332">
+        <v>343051.22211647162</v>
+      </c>
+      <c r="D332">
+        <v>6751218.4274475733</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>115.38180187</v>
+      </c>
+      <c r="B333">
+        <v>-29.358053429999899</v>
+      </c>
+      <c r="C333">
+        <v>342922.92820009723</v>
+      </c>
+      <c r="D333">
+        <v>6751256.4156104364</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>115.380615689</v>
+      </c>
+      <c r="B334">
+        <v>-29.3575563099999</v>
+      </c>
+      <c r="C334">
+        <v>342807.0070406067</v>
+      </c>
+      <c r="D334">
+        <v>6751309.9111571051</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>115.37981899499999</v>
+      </c>
+      <c r="B335">
+        <v>-29.356684810999901</v>
+      </c>
+      <c r="C335">
+        <v>342728.3222319858</v>
+      </c>
+      <c r="D335">
+        <v>6751405.4188417606</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>115.37912492</v>
+      </c>
+      <c r="B336">
+        <v>-29.3556566799999</v>
+      </c>
+      <c r="C336">
+        <v>342659.35807871394</v>
+      </c>
+      <c r="D336">
+        <v>6751518.4222752973</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>115.37797111</v>
+      </c>
+      <c r="B337">
+        <v>-29.3533911799999</v>
+      </c>
+      <c r="C337">
+        <v>342543.85530614282</v>
+      </c>
+      <c r="D337">
+        <v>6751767.9317145087</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>115.37645478899999</v>
+      </c>
+      <c r="B338">
+        <v>-29.349267049999899</v>
+      </c>
+      <c r="C338">
+        <v>342390.2903044796</v>
+      </c>
+      <c r="D338">
+        <v>6752222.9255164629</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>115.375568784</v>
+      </c>
+      <c r="B339">
+        <v>-29.347478548999899</v>
+      </c>
+      <c r="C339">
+        <v>342301.51218958624</v>
+      </c>
+      <c r="D339">
+        <v>6752419.9327227334</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>115.375291602</v>
+      </c>
+      <c r="B340">
+        <v>-29.346220982999899</v>
+      </c>
+      <c r="C340">
+        <v>342272.66248416144</v>
+      </c>
+      <c r="D340">
+        <v>6752558.9227161501</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>115.37497410100001</v>
+      </c>
+      <c r="B341">
+        <v>-29.341398422999902</v>
+      </c>
+      <c r="C341">
+        <v>342234.40496910259</v>
+      </c>
+      <c r="D341">
+        <v>6753092.9324330576</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>115.375141093</v>
+      </c>
+      <c r="B342">
+        <v>-29.3399701589999</v>
+      </c>
+      <c r="C342">
+        <v>342248.41958863835</v>
+      </c>
+      <c r="D342">
+        <v>6753251.4386195131</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>115.375496097</v>
+      </c>
+      <c r="B343">
+        <v>-29.3388915899999</v>
+      </c>
+      <c r="C343">
+        <v>342281.22948079754</v>
+      </c>
+      <c r="D343">
+        <v>6753371.4451112738</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>115.37565808799999</v>
+      </c>
+      <c r="B344">
+        <v>-29.337030218999899</v>
+      </c>
+      <c r="C344">
+        <v>342294.0929004841</v>
+      </c>
+      <c r="D344">
+        <v>6753577.9414523859</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>115.375648025</v>
+      </c>
+      <c r="B345">
+        <v>-29.336154783999898</v>
+      </c>
+      <c r="C345">
+        <v>342291.76784583298</v>
+      </c>
+      <c r="D345">
+        <v>6753674.9438665062</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>115.374931584</v>
+      </c>
+      <c r="B346">
+        <v>-29.3354017159999</v>
+      </c>
+      <c r="C346">
+        <v>342221.0388830658</v>
+      </c>
+      <c r="D346">
+        <v>6753757.4323441442</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>115.373930781</v>
+      </c>
+      <c r="B347">
+        <v>-29.3350646519999</v>
+      </c>
+      <c r="C347">
+        <v>342123.33709590719</v>
+      </c>
+      <c r="D347">
+        <v>6753793.4347152822</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>115.37310822000001</v>
+      </c>
+      <c r="B348">
+        <v>-29.334219908999899</v>
+      </c>
+      <c r="C348">
+        <v>342042.15998856502</v>
+      </c>
+      <c r="D348">
+        <v>6753885.9382929346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>115.37259952399999</v>
+      </c>
+      <c r="B349">
+        <v>-29.3333023399999</v>
+      </c>
+      <c r="C349">
+        <v>341991.34751282114</v>
+      </c>
+      <c r="D349">
+        <v>6753986.9361893386</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>115.372012713</v>
+      </c>
+      <c r="B350">
+        <v>-29.3324334059999</v>
+      </c>
+      <c r="C350">
+        <v>341933.02369564201</v>
+      </c>
+      <c r="D350">
+        <v>6754082.4385257047</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>115.371440659</v>
+      </c>
+      <c r="B351">
+        <v>-29.330599094999901</v>
+      </c>
+      <c r="C351">
+        <v>341874.64197032963</v>
+      </c>
+      <c r="D351">
+        <v>6754284.9439796451</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>115.37025877799999</v>
+      </c>
+      <c r="B352">
+        <v>-29.328152836999902</v>
+      </c>
+      <c r="C352">
+        <v>341756.09257487406</v>
+      </c>
+      <c r="D352">
+        <v>6754554.4401851539</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>115.36980302000001</v>
+      </c>
+      <c r="B353">
+        <v>-29.324984470999901</v>
+      </c>
+      <c r="C353">
+        <v>341706.93894280633</v>
+      </c>
+      <c r="D353">
+        <v>6754904.9426906202</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>115.369912828</v>
+      </c>
+      <c r="B354">
+        <v>-29.323869717999901</v>
+      </c>
+      <c r="C354">
+        <v>341715.88106944575</v>
+      </c>
+      <c r="D354">
+        <v>6755028.6285919826</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>115.37140572200001</v>
+      </c>
+      <c r="B355">
+        <v>-29.324813711999901</v>
+      </c>
+      <c r="C355">
+        <v>341862.32069274771</v>
+      </c>
+      <c r="D355">
+        <v>6754926.0346680656</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>115.373320577</v>
+      </c>
+      <c r="B356">
+        <v>-29.326024527999898</v>
+      </c>
+      <c r="C356">
+        <v>342050.1470127005</v>
+      </c>
+      <c r="D356">
+        <v>6754794.4397190092</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>115.373260462</v>
+      </c>
+      <c r="B357">
+        <v>-29.324616099999901</v>
+      </c>
+      <c r="C357">
+        <v>342042.13806314673</v>
+      </c>
+      <c r="D357">
+        <v>6754950.4408186534</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>115.373091636</v>
+      </c>
+      <c r="B358">
+        <v>-29.323630541999901</v>
+      </c>
+      <c r="C358">
+        <v>342024.22333291004</v>
+      </c>
+      <c r="D358">
+        <v>6755059.4325051624</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>115.373195627</v>
+      </c>
+      <c r="B359">
+        <v>-29.321262990999902</v>
+      </c>
+      <c r="C359">
+        <v>342030.6732482193</v>
+      </c>
+      <c r="D359">
+        <v>6755321.9454033654</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>115.373180863</v>
+      </c>
+      <c r="B360">
+        <v>-29.319999549999899</v>
+      </c>
+      <c r="C360">
+        <v>342027.29209045158</v>
+      </c>
+      <c r="D360">
+        <v>6755461.9401838584</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>115.373271989</v>
+      </c>
+      <c r="B361">
+        <v>-29.3187599349999</v>
+      </c>
+      <c r="C361">
+        <v>342034.23174447613</v>
+      </c>
+      <c r="D361">
+        <v>6755599.4375582961</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>115.373289981</v>
+      </c>
+      <c r="B362">
+        <v>-29.315773259999901</v>
+      </c>
+      <c r="C362">
+        <v>342031.37663161929</v>
+      </c>
+      <c r="D362">
+        <v>6755930.4454698283</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>115.373379969</v>
+      </c>
+      <c r="B363">
+        <v>-29.314511017999902</v>
+      </c>
+      <c r="C363">
+        <v>342038.17164008459</v>
+      </c>
+      <c r="D363">
+        <v>6756070.4487296101</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>115.373264027</v>
+      </c>
+      <c r="B364">
+        <v>-29.3135440809999</v>
+      </c>
+      <c r="C364">
+        <v>342025.42093866225</v>
+      </c>
+      <c r="D364">
+        <v>6756177.4481641967</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>115.373404791</v>
+      </c>
+      <c r="B365">
+        <v>-29.312075023999899</v>
+      </c>
+      <c r="C365">
+        <v>342036.82929371065</v>
+      </c>
+      <c r="D365">
+        <v>6756340.4391827378</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>115.373795699</v>
+      </c>
+      <c r="B366">
+        <v>-29.309589291999899</v>
+      </c>
+      <c r="C366">
+        <v>342070.96822219045</v>
+      </c>
+      <c r="D366">
+        <v>6756616.4357336899</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>115.373884648</v>
+      </c>
+      <c r="B367">
+        <v>-29.308187098999898</v>
+      </c>
+      <c r="C367">
+        <v>342077.44829324324</v>
+      </c>
+      <c r="D367">
+        <v>6756771.9467613343</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>115.37357001399999</v>
+      </c>
+      <c r="B368">
+        <v>-29.305918286999901</v>
+      </c>
+      <c r="C368">
+        <v>342043.39330424793</v>
+      </c>
+      <c r="D368">
+        <v>6757022.9516303167</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>115.373474945</v>
+      </c>
+      <c r="B369">
+        <v>-29.304491407999901</v>
+      </c>
+      <c r="C369">
+        <v>342031.96127695631</v>
+      </c>
+      <c r="D369">
+        <v>6757180.9498850862</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>115.372612004</v>
+      </c>
+      <c r="B370">
+        <v>-29.3024100989999</v>
+      </c>
+      <c r="C370">
+        <v>341944.93339062331</v>
+      </c>
+      <c r="D370">
+        <v>6757410.4350701924</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>115.370719493</v>
+      </c>
+      <c r="B371">
+        <v>-29.2996888529999</v>
+      </c>
+      <c r="C371">
+        <v>341756.90510641807</v>
+      </c>
+      <c r="D371">
+        <v>6757709.4457191359</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>115.370054568</v>
+      </c>
+      <c r="B372">
+        <v>-29.2988416049999</v>
+      </c>
+      <c r="C372">
+        <v>341691.00795771263</v>
+      </c>
+      <c r="D372">
+        <v>6757802.4384072013</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>115.36933857299999</v>
+      </c>
+      <c r="B373">
+        <v>-29.298155986999902</v>
+      </c>
+      <c r="C373">
+        <v>341620.39835925447</v>
+      </c>
+      <c r="D373">
+        <v>6757877.4498168901</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>115.368667117</v>
+      </c>
+      <c r="B374">
+        <v>-29.296713039999901</v>
+      </c>
+      <c r="C374">
+        <v>341552.94474251685</v>
+      </c>
+      <c r="D374">
+        <v>6758036.4482600167</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>115.367761753</v>
+      </c>
+      <c r="B375">
+        <v>-29.295501801999901</v>
+      </c>
+      <c r="C375">
+        <v>341463.12500089221</v>
+      </c>
+      <c r="D375">
+        <v>6758169.4515782539</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>115.365921062</v>
+      </c>
+      <c r="B376">
+        <v>-29.292713483999901</v>
+      </c>
+      <c r="C376">
+        <v>341280.00279601605</v>
+      </c>
+      <c r="D376">
+        <v>6758475.9582550377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>115.36366635500001</v>
+      </c>
+      <c r="B377">
+        <v>-29.2880883169999</v>
+      </c>
+      <c r="C377">
+        <v>341053.80560269381</v>
+      </c>
+      <c r="D377">
+        <v>6758985.4597486779</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>115.36166726499999</v>
+      </c>
+      <c r="B378">
+        <v>-29.2828842559999</v>
+      </c>
+      <c r="C378">
+        <v>340851.5262317633</v>
+      </c>
+      <c r="D378">
+        <v>6759559.4577434612</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>115.36109019</v>
+      </c>
+      <c r="B379">
+        <v>-29.280544642999899</v>
+      </c>
+      <c r="C379">
+        <v>340791.83244044846</v>
+      </c>
+      <c r="D379">
+        <v>6759817.9489494134</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>115.36035718700001</v>
+      </c>
+      <c r="B380">
+        <v>-29.278347395999901</v>
+      </c>
+      <c r="C380">
+        <v>340717.20742280292</v>
+      </c>
+      <c r="D380">
+        <v>6760060.4508182686</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>115.360082869</v>
+      </c>
+      <c r="B381">
+        <v>-29.277243088999899</v>
+      </c>
+      <c r="C381">
+        <v>340688.84156416357</v>
+      </c>
+      <c r="D381">
+        <v>6760182.4568416905</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>115.360092619</v>
+      </c>
+      <c r="B382">
+        <v>-29.275414892999901</v>
+      </c>
+      <c r="C382">
+        <v>340686.95235427609</v>
+      </c>
+      <c r="D382">
+        <v>6760385.0705187824</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>115.36044034299999</v>
+      </c>
+      <c r="B383">
+        <v>-29.273890634999901</v>
+      </c>
+      <c r="C383">
+        <v>340718.3734287183</v>
+      </c>
+      <c r="D383">
+        <v>6760554.4614633303</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>115.3550169</v>
+      </c>
+      <c r="B384">
+        <v>-29.271563529999899</v>
+      </c>
+      <c r="C384">
+        <v>340187.79387313587</v>
+      </c>
+      <c r="D384">
+        <v>6760804.9633415993</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>115.348449458</v>
+      </c>
+      <c r="B385">
+        <v>-29.268522729999901</v>
+      </c>
+      <c r="C385">
+        <v>339544.9152789613</v>
+      </c>
+      <c r="D385">
+        <v>6761132.9667297024</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>115.344249702</v>
+      </c>
+      <c r="B386">
+        <v>-29.2663864199999</v>
+      </c>
+      <c r="C386">
+        <v>339133.4859735989</v>
+      </c>
+      <c r="D386">
+        <v>6761363.9530989584</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>115.339790335</v>
+      </c>
+      <c r="B387">
+        <v>-29.263908988999901</v>
+      </c>
+      <c r="C387">
+        <v>338696.27675086417</v>
+      </c>
+      <c r="D387">
+        <v>6761632.3709973106</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>115.34268007599999</v>
+      </c>
+      <c r="B388">
+        <v>-29.261002356999899</v>
+      </c>
+      <c r="C388">
+        <v>338972.52558309678</v>
+      </c>
+      <c r="D388">
+        <v>6761958.4595060498</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>115.34560220199999</v>
+      </c>
+      <c r="B389">
+        <v>-29.257492240999898</v>
+      </c>
+      <c r="C389">
+        <v>339250.99357214861</v>
+      </c>
+      <c r="D389">
+        <v>6762351.4629807696</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>115.346349578</v>
+      </c>
+      <c r="B390">
+        <v>-29.256382543999901</v>
+      </c>
+      <c r="C390">
+        <v>339321.88759214245</v>
+      </c>
+      <c r="D390">
+        <v>6762475.4645617958</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>115.350567696</v>
+      </c>
+      <c r="B391">
+        <v>-29.251647677999902</v>
+      </c>
+      <c r="C391">
+        <v>339724.41977233416</v>
+      </c>
+      <c r="D391">
+        <v>6763005.9576189751</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>115.351418323</v>
+      </c>
+      <c r="B392">
+        <v>-29.2504037379999</v>
+      </c>
+      <c r="C392">
+        <v>339805.14862575254</v>
+      </c>
+      <c r="D392">
+        <v>6763144.9736250229</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>115.352219697</v>
+      </c>
+      <c r="B393">
+        <v>-29.249434678999901</v>
+      </c>
+      <c r="C393">
+        <v>339881.52098368562</v>
+      </c>
+      <c r="D393">
+        <v>6763253.4594420604</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>115.353196008</v>
+      </c>
+      <c r="B394">
+        <v>-29.248823991999899</v>
+      </c>
+      <c r="C394">
+        <v>339975.45436695713</v>
+      </c>
+      <c r="D394">
+        <v>6763322.4688515607</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>115.355534932</v>
+      </c>
+      <c r="B395">
+        <v>-29.246245050999899</v>
+      </c>
+      <c r="C395">
+        <v>340198.75817477878</v>
+      </c>
+      <c r="D395">
+        <v>6763611.4568120232</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>115.352021323</v>
+      </c>
+      <c r="B396">
+        <v>-29.2443879879999</v>
+      </c>
+      <c r="C396">
+        <v>339854.38026594173</v>
+      </c>
+      <c r="D396">
+        <v>6763812.4609250706</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>115.347132902</v>
+      </c>
+      <c r="B397">
+        <v>-29.241688237999899</v>
+      </c>
+      <c r="C397">
+        <v>339375.05140302167</v>
+      </c>
+      <c r="D397">
+        <v>6764104.9586505797</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>115.334214738</v>
+      </c>
+      <c r="B398">
+        <v>-29.234344967999899</v>
+      </c>
+      <c r="C398">
+        <v>338107.92449665978</v>
+      </c>
+      <c r="D398">
+        <v>6764900.9723609686</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>115.336232185</v>
+      </c>
+      <c r="B399">
+        <v>-29.2333955349999</v>
+      </c>
+      <c r="C399">
+        <v>338302.52989261923</v>
+      </c>
+      <c r="D399">
+        <v>6765008.9719291516</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>115.33828593</v>
+      </c>
+      <c r="B400">
+        <v>-29.232780283999901</v>
+      </c>
+      <c r="C400">
+        <v>338501.1917961518</v>
+      </c>
+      <c r="D400">
+        <v>6765079.9839889146</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>115.34074693300001</v>
+      </c>
+      <c r="B401">
+        <v>-29.232332658999901</v>
+      </c>
+      <c r="C401">
+        <v>338739.70547094167</v>
+      </c>
+      <c r="D401">
+        <v>6765132.976271851</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>115.34784103200001</v>
+      </c>
+      <c r="B402">
+        <v>-29.2312746089999</v>
+      </c>
+      <c r="C402">
+        <v>339427.61953548412</v>
+      </c>
+      <c r="D402">
+        <v>6765259.9628719129</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>115.350418268</v>
+      </c>
+      <c r="B403">
+        <v>-29.230738240999901</v>
+      </c>
+      <c r="C403">
+        <v>339677.3001913738</v>
+      </c>
+      <c r="D403">
+        <v>6765322.9287487641</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>115.378322509</v>
+      </c>
+      <c r="B404">
+        <v>-29.226774916999901</v>
+      </c>
+      <c r="C404">
+        <v>342383.62394962972</v>
+      </c>
+      <c r="D404">
+        <v>6765799.9608647209</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>115.381089828</v>
+      </c>
+      <c r="B405">
+        <v>-29.225878926999901</v>
+      </c>
+      <c r="C405">
+        <v>342651.25669357961</v>
+      </c>
+      <c r="D405">
+        <v>6765902.968491842</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>115.382268827</v>
+      </c>
+      <c r="B406">
+        <v>-29.225144177999901</v>
+      </c>
+      <c r="C406">
+        <v>342764.7418866643</v>
+      </c>
+      <c r="D406">
+        <v>6765985.973179929</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>115.383578887</v>
+      </c>
+      <c r="B407">
+        <v>-29.224456234999899</v>
+      </c>
+      <c r="C407">
+        <v>342891.04050775687</v>
+      </c>
+      <c r="D407">
+        <v>6766063.96523018</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>115.38847851</v>
+      </c>
+      <c r="B408">
+        <v>-29.222029168999899</v>
+      </c>
+      <c r="C408">
+        <v>343363.63411611202</v>
+      </c>
+      <c r="D408">
+        <v>6766339.4805387976</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>115.389683393</v>
+      </c>
+      <c r="B409">
+        <v>-29.221272106999901</v>
+      </c>
+      <c r="C409">
+        <v>343479.61094818957</v>
+      </c>
+      <c r="D409">
+        <v>6766424.9848920349</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>115.391072256</v>
+      </c>
+      <c r="B410">
+        <v>-29.220657242999899</v>
+      </c>
+      <c r="C410">
+        <v>343613.69076385209</v>
+      </c>
+      <c r="D410">
+        <v>6766494.9751230944</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>115.392303508</v>
+      </c>
+      <c r="B411">
+        <v>-29.219990669999898</v>
+      </c>
+      <c r="C411">
+        <v>343732.37179610762</v>
+      </c>
+      <c r="D411">
+        <v>6766570.4840717288</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>115.393639828</v>
+      </c>
+      <c r="B412">
+        <v>-29.219465363999898</v>
+      </c>
+      <c r="C412">
+        <v>343861.48272891715</v>
+      </c>
+      <c r="D412">
+        <v>6766630.4766117018</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>115.394818825</v>
+      </c>
+      <c r="B413">
+        <v>-29.218843370999899</v>
+      </c>
+      <c r="C413">
+        <v>343975.15437549993</v>
+      </c>
+      <c r="D413">
+        <v>6766700.9730813783</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>115.398382064</v>
+      </c>
+      <c r="B414">
+        <v>-29.217243746999898</v>
+      </c>
+      <c r="C414">
+        <v>344319.13211112493</v>
+      </c>
+      <c r="D414">
+        <v>6766882.973226564</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>115.399613254</v>
+      </c>
+      <c r="B415">
+        <v>-29.216599682999899</v>
+      </c>
+      <c r="C415">
+        <v>344437.84959482093</v>
+      </c>
+      <c r="D415">
+        <v>6766955.9799378179</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>115.403883936</v>
+      </c>
+      <c r="B416">
+        <v>-29.214999372999898</v>
+      </c>
+      <c r="C416">
+        <v>344850.61675155279</v>
+      </c>
+      <c r="D416">
+        <v>6767138.9770273278</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>115.405167757</v>
+      </c>
+      <c r="B417">
+        <v>-29.214355999999899</v>
+      </c>
+      <c r="C417">
+        <v>344974.45782538695</v>
+      </c>
+      <c r="D417">
+        <v>6767211.9708783934</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>115.407630489</v>
+      </c>
+      <c r="B418">
+        <v>-29.2133745689999</v>
+      </c>
+      <c r="C418">
+        <v>345212.40436957916</v>
+      </c>
+      <c r="D418">
+        <v>6767323.9816922825</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>115.41122005</v>
+      </c>
+      <c r="B419">
+        <v>-29.212208140999898</v>
+      </c>
+      <c r="C419">
+        <v>345559.62804109114</v>
+      </c>
+      <c r="D419">
+        <v>6767457.9716992611</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>115.412975362</v>
+      </c>
+      <c r="B420">
+        <v>-29.211520575999899</v>
+      </c>
+      <c r="C420">
+        <v>345729.24923799949</v>
+      </c>
+      <c r="D420">
+        <v>6767536.4746177532</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>115.416276606</v>
+      </c>
+      <c r="B421">
+        <v>-29.210512894999901</v>
+      </c>
+      <c r="C421">
+        <v>346048.69142358413</v>
+      </c>
+      <c r="D421">
+        <v>6767652.4782377454</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>115.417560356</v>
+      </c>
+      <c r="B422">
+        <v>-29.2099415929999</v>
+      </c>
+      <c r="C422">
+        <v>346172.64598867635</v>
+      </c>
+      <c r="D422">
+        <v>6767717.4716660567</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>115.4214638</v>
+      </c>
+      <c r="B423">
+        <v>-29.2085663269999</v>
+      </c>
+      <c r="C423">
+        <v>346550.09699142957</v>
+      </c>
+      <c r="D423">
+        <v>6767874.984627408</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>115.427411734</v>
+      </c>
+      <c r="B424">
+        <v>-29.207129457999901</v>
+      </c>
+      <c r="C424">
+        <v>347126.24072648754</v>
+      </c>
+      <c r="D424">
+        <v>6768041.9759100368</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>115.42927260800001</v>
+      </c>
+      <c r="B425">
+        <v>-29.206853449999901</v>
+      </c>
+      <c r="C425">
+        <v>347306.75385134679</v>
+      </c>
+      <c r="D425">
+        <v>6768074.9845442483</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>115.432653355</v>
+      </c>
+      <c r="B426">
+        <v>-29.206581832999898</v>
+      </c>
+      <c r="C426">
+        <v>347635.0437895949</v>
+      </c>
+      <c r="D426">
+        <v>6768109.4776070891</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>115.435928992</v>
+      </c>
+      <c r="B427">
+        <v>-29.2061734689999</v>
+      </c>
+      <c r="C427">
+        <v>347952.91396226914</v>
+      </c>
+      <c r="D427">
+        <v>6768158.9788297471</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>115.438837815</v>
+      </c>
+      <c r="B428">
+        <v>-29.205923233999901</v>
+      </c>
+      <c r="C428">
+        <v>348235.35579047236</v>
+      </c>
+      <c r="D428">
+        <v>6768190.4735510712</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>115.442167074</v>
+      </c>
+      <c r="B429">
+        <v>-29.206340991999902</v>
+      </c>
+      <c r="C429">
+        <v>348559.65820812521</v>
+      </c>
+      <c r="D429">
+        <v>6768148.4791272748</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>115.44400202200001</v>
+      </c>
+      <c r="B430">
+        <v>-29.206389437999899</v>
+      </c>
+      <c r="C430">
+        <v>348738.1318245749</v>
+      </c>
+      <c r="D430">
+        <v>6768145.4766080976</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>115.445470456</v>
+      </c>
+      <c r="B431">
+        <v>-29.206623060999899</v>
+      </c>
+      <c r="C431">
+        <v>348881.24273974844</v>
+      </c>
+      <c r="D431">
+        <v>6768121.4788355157</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>115.446911898</v>
+      </c>
+      <c r="B432">
+        <v>-29.206693995999899</v>
+      </c>
+      <c r="C432">
+        <v>349021.4901593086</v>
+      </c>
+      <c r="D432">
+        <v>6768115.4730606312</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>115.449979075</v>
+      </c>
+      <c r="B433">
+        <v>-29.206973184999899</v>
+      </c>
+      <c r="C433">
+        <v>349320.10293209512</v>
+      </c>
+      <c r="D433">
+        <v>6768088.4757865379</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>115.45241661999999</v>
+      </c>
+      <c r="B434">
+        <v>-29.206929246999898</v>
+      </c>
+      <c r="C434">
+        <v>349557.02663599583</v>
+      </c>
+      <c r="D434">
+        <v>6768096.47159361</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>115.45362193699999</v>
+      </c>
+      <c r="B435">
+        <v>-29.206794298999899</v>
+      </c>
+      <c r="C435">
+        <v>349674.01538660331</v>
+      </c>
+      <c r="D435">
+        <v>6768112.9703119891</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>115.456896488</v>
+      </c>
+      <c r="B436">
+        <v>-29.205695060999901</v>
+      </c>
+      <c r="C436">
+        <v>349990.77936501749</v>
+      </c>
+      <c r="D436">
+        <v>6768238.9729144257</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>115.45802324</v>
+      </c>
+      <c r="B437">
+        <v>-29.2056493679999</v>
+      </c>
+      <c r="C437">
+        <v>350100.26139091433</v>
+      </c>
+      <c r="D437">
+        <v>6768245.4758851575</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>115.460304591</v>
+      </c>
+      <c r="B438">
+        <v>-29.206113301999899</v>
+      </c>
+      <c r="C438">
+        <v>350322.74019019876</v>
+      </c>
+      <c r="D438">
+        <v>6768196.9758610707</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>115.461301413</v>
+      </c>
+      <c r="B439">
+        <v>-29.206526436999901</v>
+      </c>
+      <c r="C439">
+        <v>350420.25588213769</v>
+      </c>
+      <c r="D439">
+        <v>6768152.4646396786</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>115.462062786</v>
+      </c>
+      <c r="B440">
+        <v>-29.207216424999899</v>
+      </c>
+      <c r="C440">
+        <v>350495.28148156666</v>
+      </c>
+      <c r="D440">
+        <v>6768076.9730172828</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>115.46334979</v>
+      </c>
+      <c r="B441">
+        <v>-29.208783299999901</v>
+      </c>
+      <c r="C441">
+        <v>350622.68150594912</v>
+      </c>
+      <c r="D441">
+        <v>6767904.9770023404</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>115.464033095</v>
+      </c>
+      <c r="B442">
+        <v>-29.209747744999898</v>
+      </c>
+      <c r="C442">
+        <v>350690.51228906855</v>
+      </c>
+      <c r="D442">
+        <v>6767798.9706355371</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>115.4646116</v>
+      </c>
+      <c r="B443">
+        <v>-29.210783114999899</v>
+      </c>
+      <c r="C443">
+        <v>350748.25599787571</v>
+      </c>
+      <c r="D443">
+        <v>6767684.9710123492</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>115.46529452999999</v>
+      </c>
+      <c r="B444">
+        <v>-29.211539922999901</v>
+      </c>
+      <c r="C444">
+        <v>350815.74708783382</v>
+      </c>
+      <c r="D444">
+        <v>6767601.972975295</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>115.466530029</v>
+      </c>
+      <c r="B445">
+        <v>-29.213679295999899</v>
+      </c>
+      <c r="C445">
+        <v>350938.95898796635</v>
+      </c>
+      <c r="D445">
+        <v>6767366.4664027002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>115.467396902</v>
+      </c>
+      <c r="B446">
+        <v>-29.214555479999898</v>
+      </c>
+      <c r="C446">
+        <v>351024.50196392497</v>
+      </c>
+      <c r="D446">
+        <v>6767270.4721173998</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>115.468314905</v>
+      </c>
+      <c r="B447">
+        <v>-29.215062358999901</v>
+      </c>
+      <c r="C447">
+        <v>351114.4800331372</v>
+      </c>
+      <c r="D447">
+        <v>6767215.4669677857</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>115.46923403300001</v>
+      </c>
+      <c r="B448">
+        <v>-29.215844360999899</v>
+      </c>
+      <c r="C448">
+        <v>351204.96425589547</v>
+      </c>
+      <c r="D448">
+        <v>6767129.9745780267</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>115.47083602799999</v>
+      </c>
+      <c r="B449">
+        <v>-29.2176404699999</v>
+      </c>
+      <c r="C449">
+        <v>351363.29601072578</v>
+      </c>
+      <c r="D449">
+        <v>6766932.9676147904</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>115.47178133200001</v>
+      </c>
+      <c r="B450">
+        <v>-29.2184228459999</v>
+      </c>
+      <c r="C450">
+        <v>351456.32134584675</v>
+      </c>
+      <c r="D450">
+        <v>6766847.4650850184</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>115.47277889</v>
+      </c>
+      <c r="B451">
+        <v>-29.219110967999899</v>
+      </c>
+      <c r="C451">
+        <v>351554.2890639666</v>
+      </c>
+      <c r="D451">
+        <v>6766772.4727909528</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>115.47503576299999</v>
+      </c>
+      <c r="B452">
+        <v>-29.2204001499999</v>
+      </c>
+      <c r="C452">
+        <v>351775.54078892886</v>
+      </c>
+      <c r="D452">
+        <v>6766632.4643812897</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>115.47619102100001</v>
+      </c>
+      <c r="B453">
+        <v>-29.221252536999899</v>
+      </c>
+      <c r="C453">
+        <v>351889.07093422383</v>
+      </c>
+      <c r="D453">
+        <v>6766539.4654338341</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>115.48128177300001</v>
+      </c>
+      <c r="B454">
+        <v>-29.223990610999898</v>
+      </c>
+      <c r="C454">
+        <v>352387.86959097418</v>
+      </c>
+      <c r="D454">
+        <v>6766242.459968552</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>115.48251546</v>
+      </c>
+      <c r="B455">
+        <v>-29.2247310549999</v>
+      </c>
+      <c r="C455">
+        <v>352508.85410013993</v>
+      </c>
+      <c r="D455">
+        <v>6766161.9588906206</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>115.483460838</v>
+      </c>
+      <c r="B456">
+        <v>-29.2256713149999</v>
+      </c>
+      <c r="C456">
+        <v>352602.09780253482</v>
+      </c>
+      <c r="D456">
+        <v>6766058.9516300522</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>115.486084889</v>
+      </c>
+      <c r="B457">
+        <v>-29.2269372529999</v>
+      </c>
+      <c r="C457">
+        <v>352858.98035974964</v>
+      </c>
+      <c r="D457">
+        <v>6765921.9603039855</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>115.487509022</v>
+      </c>
+      <c r="B458">
+        <v>-29.227456015999898</v>
+      </c>
+      <c r="C458">
+        <v>352998.15334394836</v>
+      </c>
+      <c r="D458">
+        <v>6765866.2588561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Data_geology/Otorowiri_outcrop.xlsx
+++ b/Data/Data_geology/Otorowiri_outcrop.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA37F1B3-277F-483C-8B00-4E09CD909D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966DA22-6EDC-4940-B65C-745017A8DD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Otorowiri_1" sheetId="1" r:id="rId1"/>
     <sheet name="Otorowiri_2" sheetId="2" r:id="rId2"/>
     <sheet name="Otorowiri_3" sheetId="3" r:id="rId3"/>
     <sheet name="Otorowiri-Parmelia contact" sheetId="4" r:id="rId4"/>
-    <sheet name="Yarragadee-Otorowiri_NEW" sheetId="6" r:id="rId5"/>
-    <sheet name="Otorowiri-Parmelia_NEW" sheetId="5" r:id="rId6"/>
+    <sheet name="Yarragadee-Otorowiri contact" sheetId="7" r:id="rId5"/>
+    <sheet name="Yarragadee-Otorowiri_NEW" sheetId="6" r:id="rId6"/>
+    <sheet name="Otorowiri-Parmelia_NEW" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="629">
   <si>
     <t>Longitude</t>
   </si>
@@ -14726,7 +14727,7 @@
   <dimension ref="A1:D458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J434" sqref="J434"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21152,11 +21153,3120 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1556757B-BEF5-4EA2-92E7-842579201367}">
+  <dimension ref="A1:D221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>115.44903107899999</v>
+      </c>
+      <c r="B2">
+        <v>-29.946426558999899</v>
+      </c>
+      <c r="C2">
+        <v>350323.11707107548</v>
+      </c>
+      <c r="D2">
+        <v>6686139.57207515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>115.447738706</v>
+      </c>
+      <c r="B3">
+        <v>-29.937659003999901</v>
+      </c>
+      <c r="C3">
+        <v>350185.23797649564</v>
+      </c>
+      <c r="D3">
+        <v>6687109.5732190665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>115.446912842</v>
+      </c>
+      <c r="B4">
+        <v>-29.930629304999901</v>
+      </c>
+      <c r="C4">
+        <v>350094.9800640571</v>
+      </c>
+      <c r="D4">
+        <v>6687887.5793880057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>115.446196093</v>
+      </c>
+      <c r="B5">
+        <v>-29.922797760999899</v>
+      </c>
+      <c r="C5">
+        <v>350014.04459131049</v>
+      </c>
+      <c r="D5">
+        <v>6688754.5934853461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>115.445731373</v>
+      </c>
+      <c r="B6">
+        <v>-29.9158760709999</v>
+      </c>
+      <c r="C6">
+        <v>349958.79845159769</v>
+      </c>
+      <c r="D6">
+        <v>6689521.0991102513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>115.444781776</v>
+      </c>
+      <c r="B7">
+        <v>-29.897913542999898</v>
+      </c>
+      <c r="C7">
+        <v>349840.16920772311</v>
+      </c>
+      <c r="D7">
+        <v>6691510.5949937887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>115.444467527</v>
+      </c>
+      <c r="B8">
+        <v>-29.893258313999901</v>
+      </c>
+      <c r="C8">
+        <v>349802.84089186718</v>
+      </c>
+      <c r="D8">
+        <v>6692026.1095577255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>115.443902988</v>
+      </c>
+      <c r="B9">
+        <v>-29.886795741999901</v>
+      </c>
+      <c r="C9">
+        <v>349738.62797378813</v>
+      </c>
+      <c r="D9">
+        <v>6692741.5988855846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>115.443256772</v>
+      </c>
+      <c r="B10">
+        <v>-29.8811125359999</v>
+      </c>
+      <c r="C10">
+        <v>349667.6909205321</v>
+      </c>
+      <c r="D10">
+        <v>6693370.6060119439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>115.442575639</v>
+      </c>
+      <c r="B11">
+        <v>-29.876272757999899</v>
+      </c>
+      <c r="C11">
+        <v>349594.64172003686</v>
+      </c>
+      <c r="D11">
+        <v>6693906.0923896097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>115.44165114400001</v>
+      </c>
+      <c r="B12">
+        <v>-29.870978780999899</v>
+      </c>
+      <c r="C12">
+        <v>349497.39886255271</v>
+      </c>
+      <c r="D12">
+        <v>6694491.5971065024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>115.44063882099999</v>
+      </c>
+      <c r="B13">
+        <v>-29.866310926999901</v>
+      </c>
+      <c r="C13">
+        <v>349392.6047242973</v>
+      </c>
+      <c r="D13">
+        <v>6695007.5947889313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>115.43975789300001</v>
+      </c>
+      <c r="B14">
+        <v>-29.862718308999899</v>
+      </c>
+      <c r="C14">
+        <v>349302.11127388396</v>
+      </c>
+      <c r="D14">
+        <v>6695404.5988647295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>115.43874595699999</v>
+      </c>
+      <c r="B15">
+        <v>-29.858957259999901</v>
+      </c>
+      <c r="C15">
+        <v>349198.70337901684</v>
+      </c>
+      <c r="D15">
+        <v>6695820.0971695855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>115.437183215</v>
+      </c>
+      <c r="B16">
+        <v>-29.853935444999902</v>
+      </c>
+      <c r="C16">
+        <v>349040.18009686854</v>
+      </c>
+      <c r="D16">
+        <v>6696374.5984358322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>115.436297963</v>
+      </c>
+      <c r="B17">
+        <v>-29.8515067579999</v>
+      </c>
+      <c r="C17">
+        <v>348951.0011396904</v>
+      </c>
+      <c r="D17">
+        <v>6696642.5997312851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>115.435318036</v>
+      </c>
+      <c r="B18">
+        <v>-29.849117575999902</v>
+      </c>
+      <c r="C18">
+        <v>348852.73111165967</v>
+      </c>
+      <c r="D18">
+        <v>6696906.0978383264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>115.43360699199999</v>
+      </c>
+      <c r="B19">
+        <v>-29.845510649999898</v>
+      </c>
+      <c r="C19">
+        <v>348681.98408030928</v>
+      </c>
+      <c r="D19">
+        <v>6697303.5924728923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>115.431537385</v>
+      </c>
+      <c r="B20">
+        <v>-29.841745832999901</v>
+      </c>
+      <c r="C20">
+        <v>348476.34340665193</v>
+      </c>
+      <c r="D20">
+        <v>6697718.1113115624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>115.429157096</v>
+      </c>
+      <c r="B21">
+        <v>-29.8378376389999</v>
+      </c>
+      <c r="C21">
+        <v>348240.4526095856</v>
+      </c>
+      <c r="D21">
+        <v>6698148.1071810741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>115.42668356599999</v>
+      </c>
+      <c r="B22">
+        <v>-29.834031936999899</v>
+      </c>
+      <c r="C22">
+        <v>347995.69012754323</v>
+      </c>
+      <c r="D22">
+        <v>6698566.6166146472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>115.42079354800001</v>
+      </c>
+      <c r="B23">
+        <v>-29.825403248999901</v>
+      </c>
+      <c r="C23">
+        <v>347413.44482333376</v>
+      </c>
+      <c r="D23">
+        <v>6699515.1139303204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>115.41854498799999</v>
+      </c>
+      <c r="B24">
+        <v>-29.8219927079999</v>
+      </c>
+      <c r="C24">
+        <v>347190.965810664</v>
+      </c>
+      <c r="D24">
+        <v>6699890.111118298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>115.41518942</v>
+      </c>
+      <c r="B25">
+        <v>-29.816628733999899</v>
+      </c>
+      <c r="C25">
+        <v>346858.51124945935</v>
+      </c>
+      <c r="D25">
+        <v>6700480.1253548525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>115.411896185</v>
+      </c>
+      <c r="B26">
+        <v>-29.811121182999901</v>
+      </c>
+      <c r="C26">
+        <v>346531.82817530539</v>
+      </c>
+      <c r="D26">
+        <v>6701086.1258613532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>115.40927537</v>
+      </c>
+      <c r="B27">
+        <v>-29.806505869999899</v>
+      </c>
+      <c r="C27">
+        <v>346271.46845122473</v>
+      </c>
+      <c r="D27">
+        <v>6701594.1313904785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>115.407368132</v>
+      </c>
+      <c r="B28">
+        <v>-29.802855687999902</v>
+      </c>
+      <c r="C28">
+        <v>346081.53708889242</v>
+      </c>
+      <c r="D28">
+        <v>6701996.1226181593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>115.405516636</v>
+      </c>
+      <c r="B29">
+        <v>-29.798822506999901</v>
+      </c>
+      <c r="C29">
+        <v>345896.39372100722</v>
+      </c>
+      <c r="D29">
+        <v>6702440.6319808792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>115.40416916300001</v>
+      </c>
+      <c r="B30">
+        <v>-29.795427013999898</v>
+      </c>
+      <c r="C30">
+        <v>345760.93621659058</v>
+      </c>
+      <c r="D30">
+        <v>6702815.1404193025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>115.402393281</v>
+      </c>
+      <c r="B31">
+        <v>-29.7903797019999</v>
+      </c>
+      <c r="C31">
+        <v>345581.52046789497</v>
+      </c>
+      <c r="D31">
+        <v>6703372.1390192993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>115.39614165</v>
+      </c>
+      <c r="B32">
+        <v>-29.7717433739999</v>
+      </c>
+      <c r="C32">
+        <v>344948.45764815365</v>
+      </c>
+      <c r="D32">
+        <v>6705429.1488264175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>115.39497130700001</v>
+      </c>
+      <c r="B33">
+        <v>-29.7678807919999</v>
+      </c>
+      <c r="C33">
+        <v>344829.34503770329</v>
+      </c>
+      <c r="D33">
+        <v>6705855.6512027271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>115.39442989299999</v>
+      </c>
+      <c r="B34">
+        <v>-29.7657943419999</v>
+      </c>
+      <c r="C34">
+        <v>344773.77746134496</v>
+      </c>
+      <c r="D34">
+        <v>6706086.1565577202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>115.394053712</v>
+      </c>
+      <c r="B35">
+        <v>-29.764030222999899</v>
+      </c>
+      <c r="C35">
+        <v>344734.68226840068</v>
+      </c>
+      <c r="D35">
+        <v>6706281.1612682072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>115.39370599</v>
+      </c>
+      <c r="B36">
+        <v>-29.761734100999899</v>
+      </c>
+      <c r="C36">
+        <v>344697.5170802502</v>
+      </c>
+      <c r="D36">
+        <v>6706535.1641076989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>115.39345039200001</v>
+      </c>
+      <c r="B37">
+        <v>-29.7588706539999</v>
+      </c>
+      <c r="C37">
+        <v>344668.38359677221</v>
+      </c>
+      <c r="D37">
+        <v>6706852.1653668322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>115.393317592</v>
+      </c>
+      <c r="B38">
+        <v>-29.755683857999902</v>
+      </c>
+      <c r="C38">
+        <v>344650.62505900231</v>
+      </c>
+      <c r="D38">
+        <v>6707205.167364575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>115.39336759299999</v>
+      </c>
+      <c r="B39">
+        <v>-29.753843799999899</v>
+      </c>
+      <c r="C39">
+        <v>344652.62159267964</v>
+      </c>
+      <c r="D39">
+        <v>6707409.1614009198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>115.39353860200001</v>
+      </c>
+      <c r="B40">
+        <v>-29.7528035539999</v>
+      </c>
+      <c r="C40">
+        <v>344667.5543278947</v>
+      </c>
+      <c r="D40">
+        <v>6707524.6781176822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>115.39380685499999</v>
+      </c>
+      <c r="B41">
+        <v>-29.752039930999899</v>
+      </c>
+      <c r="C41">
+        <v>344692.3181543044</v>
+      </c>
+      <c r="D41">
+        <v>6707609.6685717218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>115.39569038400001</v>
+      </c>
+      <c r="B42">
+        <v>-29.7484309489999</v>
+      </c>
+      <c r="C42">
+        <v>344868.90782163257</v>
+      </c>
+      <c r="D42">
+        <v>6708012.1711618342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>115.39841556899999</v>
+      </c>
+      <c r="B43">
+        <v>-29.753963601999899</v>
+      </c>
+      <c r="C43">
+        <v>345140.96628398867</v>
+      </c>
+      <c r="D43">
+        <v>6707402.6685904097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>115.401367182</v>
+      </c>
+      <c r="B44">
+        <v>-29.7604373379999</v>
+      </c>
+      <c r="C44">
+        <v>345436.33712689026</v>
+      </c>
+      <c r="D44">
+        <v>6706689.1669161683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>115.40384761599999</v>
+      </c>
+      <c r="B45">
+        <v>-29.7537225139999</v>
+      </c>
+      <c r="C45">
+        <v>345665.8972145358</v>
+      </c>
+      <c r="D45">
+        <v>6707436.6641048854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>115.40473681100001</v>
+      </c>
+      <c r="B46">
+        <v>-29.7509585829999</v>
+      </c>
+      <c r="C46">
+        <v>345747.65257992124</v>
+      </c>
+      <c r="D46">
+        <v>6707744.1680321768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>115.405594331</v>
+      </c>
+      <c r="B47">
+        <v>-29.747698018999898</v>
+      </c>
+      <c r="C47">
+        <v>345825.58957002906</v>
+      </c>
+      <c r="D47">
+        <v>6708106.6684881281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>115.406321906</v>
+      </c>
+      <c r="B48">
+        <v>-29.7445621389999</v>
+      </c>
+      <c r="C48">
+        <v>345891.15578620124</v>
+      </c>
+      <c r="D48">
+        <v>6708455.1763473861</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>115.40687667100001</v>
+      </c>
+      <c r="B49">
+        <v>-29.741703892999901</v>
+      </c>
+      <c r="C49">
+        <v>345940.43790150841</v>
+      </c>
+      <c r="D49">
+        <v>6708772.6839208361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>115.407151054</v>
+      </c>
+      <c r="B50">
+        <v>-29.739749195999899</v>
+      </c>
+      <c r="C50">
+        <v>345963.98665474227</v>
+      </c>
+      <c r="D50">
+        <v>6708989.6806041524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>115.4073642</v>
+      </c>
+      <c r="B51">
+        <v>-29.737446259999899</v>
+      </c>
+      <c r="C51">
+        <v>345981.08154434757</v>
+      </c>
+      <c r="D51">
+        <v>6709245.1892475821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>115.407606839</v>
+      </c>
+      <c r="B52">
+        <v>-29.7327165079999</v>
+      </c>
+      <c r="C52">
+        <v>345997.32193767821</v>
+      </c>
+      <c r="D52">
+        <v>6709769.6902566459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>115.408204873</v>
+      </c>
+      <c r="B53">
+        <v>-29.7107249019999</v>
+      </c>
+      <c r="C53">
+        <v>346021.58716536767</v>
+      </c>
+      <c r="D53">
+        <v>6712207.7145963777</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>115.408586183</v>
+      </c>
+      <c r="B54">
+        <v>-29.702112274999902</v>
+      </c>
+      <c r="C54">
+        <v>346045.33577085158</v>
+      </c>
+      <c r="D54">
+        <v>6713162.7177105742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>115.40883138300001</v>
+      </c>
+      <c r="B55">
+        <v>-29.698487642999901</v>
+      </c>
+      <c r="C55">
+        <v>346063.53108937381</v>
+      </c>
+      <c r="D55">
+        <v>6713564.744040681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>115.40927883800001</v>
+      </c>
+      <c r="B56">
+        <v>-29.693611568999899</v>
+      </c>
+      <c r="C56">
+        <v>346099.39109140029</v>
+      </c>
+      <c r="D56">
+        <v>6714105.7302161008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>115.410483403</v>
+      </c>
+      <c r="B57">
+        <v>-29.683880810999899</v>
+      </c>
+      <c r="C57">
+        <v>346201.12519219232</v>
+      </c>
+      <c r="D57">
+        <v>6715185.7418865878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>115.410844858</v>
+      </c>
+      <c r="B58">
+        <v>-29.680420117999901</v>
+      </c>
+      <c r="C58">
+        <v>346230.83458415989</v>
+      </c>
+      <c r="D58">
+        <v>6715569.7525736922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>115.41123693999999</v>
+      </c>
+      <c r="B59">
+        <v>-29.673179125999901</v>
+      </c>
+      <c r="C59">
+        <v>346257.75803754723</v>
+      </c>
+      <c r="D59">
+        <v>6716372.7534396239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>115.41163113499999</v>
+      </c>
+      <c r="B60">
+        <v>-29.668388070999899</v>
+      </c>
+      <c r="C60">
+        <v>346288.62040975341</v>
+      </c>
+      <c r="D60">
+        <v>6716904.2432403928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>115.412331722</v>
+      </c>
+      <c r="B61">
+        <v>-29.653891520999899</v>
+      </c>
+      <c r="C61">
+        <v>346334.39094691665</v>
+      </c>
+      <c r="D61">
+        <v>6718511.7434191797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>115.413000626</v>
+      </c>
+      <c r="B62">
+        <v>-29.645408521999901</v>
+      </c>
+      <c r="C62">
+        <v>346386.25555911945</v>
+      </c>
+      <c r="D62">
+        <v>6719452.7517524641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>115.41375521400001</v>
+      </c>
+      <c r="B63">
+        <v>-29.638943329999901</v>
+      </c>
+      <c r="C63">
+        <v>346449.49232106155</v>
+      </c>
+      <c r="D63">
+        <v>6720170.2506856238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>115.414166338</v>
+      </c>
+      <c r="B64">
+        <v>-29.636408201999899</v>
+      </c>
+      <c r="C64">
+        <v>346485.44844035164</v>
+      </c>
+      <c r="D64">
+        <v>6720451.7483870191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>115.414615587</v>
+      </c>
+      <c r="B65">
+        <v>-29.6341487659999</v>
+      </c>
+      <c r="C65">
+        <v>346525.51619945152</v>
+      </c>
+      <c r="D65">
+        <v>6720702.7430717181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>115.415614588</v>
+      </c>
+      <c r="B66">
+        <v>-29.630262512999899</v>
+      </c>
+      <c r="C66">
+        <v>346616.34797813557</v>
+      </c>
+      <c r="D66">
+        <v>6721134.7554212119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>115.41733539499999</v>
+      </c>
+      <c r="B67">
+        <v>-29.625126325999901</v>
+      </c>
+      <c r="C67">
+        <v>346775.18544546037</v>
+      </c>
+      <c r="D67">
+        <v>6721706.2434763554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>115.417746147</v>
+      </c>
+      <c r="B68">
+        <v>-29.623231767999901</v>
+      </c>
+      <c r="C68">
+        <v>346812.09054440231</v>
+      </c>
+      <c r="D68">
+        <v>6721916.7482728399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>115.418153718</v>
+      </c>
+      <c r="B69">
+        <v>-29.6200738819999</v>
+      </c>
+      <c r="C69">
+        <v>346846.77831066458</v>
+      </c>
+      <c r="D69">
+        <v>6722267.2550489744</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>115.419109867</v>
+      </c>
+      <c r="B70">
+        <v>-29.610944624999899</v>
+      </c>
+      <c r="C70">
+        <v>346925.56531583972</v>
+      </c>
+      <c r="D70">
+        <v>6723280.2535439245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>115.419587249</v>
+      </c>
+      <c r="B71">
+        <v>-29.6070568049999</v>
+      </c>
+      <c r="C71">
+        <v>346965.92186802003</v>
+      </c>
+      <c r="D71">
+        <v>6723711.7448178902</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>115.420136633</v>
+      </c>
+      <c r="B72">
+        <v>-29.603679545999899</v>
+      </c>
+      <c r="C72">
+        <v>347014.0268440072</v>
+      </c>
+      <c r="D72">
+        <v>6724086.7485863306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>115.420874633</v>
+      </c>
+      <c r="B73">
+        <v>-29.600367725999899</v>
+      </c>
+      <c r="C73">
+        <v>347080.50226009131</v>
+      </c>
+      <c r="D73">
+        <v>6724454.7484378032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>115.421914333</v>
+      </c>
+      <c r="B74">
+        <v>-29.596576667999901</v>
+      </c>
+      <c r="C74">
+        <v>347175.48100956762</v>
+      </c>
+      <c r="D74">
+        <v>6724876.2557725143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>115.424196706</v>
+      </c>
+      <c r="B75">
+        <v>-29.5888977769999</v>
+      </c>
+      <c r="C75">
+        <v>347384.97764928488</v>
+      </c>
+      <c r="D75">
+        <v>6725730.2583726691</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>115.42557621900001</v>
+      </c>
+      <c r="B76">
+        <v>-29.584023461999902</v>
+      </c>
+      <c r="C76">
+        <v>347511.26878070942</v>
+      </c>
+      <c r="D76">
+        <v>6726272.2577015385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>115.42677178700001</v>
+      </c>
+      <c r="B77">
+        <v>-29.5793500159999</v>
+      </c>
+      <c r="C77">
+        <v>347620.05671106605</v>
+      </c>
+      <c r="D77">
+        <v>6726791.7523119096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>115.42851387100001</v>
+      </c>
+      <c r="B78">
+        <v>-29.5721066669999</v>
+      </c>
+      <c r="C78">
+        <v>347777.94387976115</v>
+      </c>
+      <c r="D78">
+        <v>6727596.7651166935</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>115.429945631</v>
+      </c>
+      <c r="B79">
+        <v>-29.566754649999901</v>
+      </c>
+      <c r="C79">
+        <v>347908.6267117348</v>
+      </c>
+      <c r="D79">
+        <v>6728191.7655096445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>115.43101082299999</v>
+      </c>
+      <c r="B80">
+        <v>-29.5632164619999</v>
+      </c>
+      <c r="C80">
+        <v>348006.52597550198</v>
+      </c>
+      <c r="D80">
+        <v>6728585.2708486766</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>115.432205689</v>
+      </c>
+      <c r="B81">
+        <v>-29.5596167019999</v>
+      </c>
+      <c r="C81">
+        <v>348116.9048908581</v>
+      </c>
+      <c r="D81">
+        <v>6728985.7680350207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>115.433080128</v>
+      </c>
+      <c r="B82">
+        <v>-29.557366640999899</v>
+      </c>
+      <c r="C82">
+        <v>348198.26384712814</v>
+      </c>
+      <c r="D82">
+        <v>6729236.268233262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>115.43387644000001</v>
+      </c>
+      <c r="B83">
+        <v>-29.555747267999902</v>
+      </c>
+      <c r="C83">
+        <v>348272.99937977019</v>
+      </c>
+      <c r="D83">
+        <v>6729416.7713790592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>115.435677117</v>
+      </c>
+      <c r="B84">
+        <v>-29.552750202999899</v>
+      </c>
+      <c r="C84">
+        <v>348442.99845051504</v>
+      </c>
+      <c r="D84">
+        <v>6729751.2637446821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>115.437575064</v>
+      </c>
+      <c r="B85">
+        <v>-29.550096970999899</v>
+      </c>
+      <c r="C85">
+        <v>348622.94609043794</v>
+      </c>
+      <c r="D85">
+        <v>6730047.7755479012</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>115.43856906400001</v>
+      </c>
+      <c r="B86">
+        <v>-29.548895002999899</v>
+      </c>
+      <c r="C86">
+        <v>348717.47235830239</v>
+      </c>
+      <c r="D86">
+        <v>6730182.2751127277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>115.439554688</v>
+      </c>
+      <c r="B87">
+        <v>-29.547832823999901</v>
+      </c>
+      <c r="C87">
+        <v>348811.39742986072</v>
+      </c>
+      <c r="D87">
+        <v>6730301.2711953958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>115.44117112000001</v>
+      </c>
+      <c r="B88">
+        <v>-29.5464215689999</v>
+      </c>
+      <c r="C88">
+        <v>348965.93161719933</v>
+      </c>
+      <c r="D88">
+        <v>6730459.772067342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>115.441828117</v>
+      </c>
+      <c r="B89">
+        <v>-29.545964628999901</v>
+      </c>
+      <c r="C89">
+        <v>349028.91654576914</v>
+      </c>
+      <c r="D89">
+        <v>6730511.2651089178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>115.44286204799999</v>
+      </c>
+      <c r="B90">
+        <v>-29.5453675609999</v>
+      </c>
+      <c r="C90">
+        <v>349128.21978631616</v>
+      </c>
+      <c r="D90">
+        <v>6730578.7766687637</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>115.444445671</v>
+      </c>
+      <c r="B91">
+        <v>-29.544673306999901</v>
+      </c>
+      <c r="C91">
+        <v>349280.6469543596</v>
+      </c>
+      <c r="D91">
+        <v>6730657.7710210793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>115.44659235899999</v>
+      </c>
+      <c r="B92">
+        <v>-29.543967431999899</v>
+      </c>
+      <c r="C92">
+        <v>349487.62222937343</v>
+      </c>
+      <c r="D92">
+        <v>6730738.7808233136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>115.451888318</v>
+      </c>
+      <c r="B93">
+        <v>-29.5424139879999</v>
+      </c>
+      <c r="C93">
+        <v>349998.52752149745</v>
+      </c>
+      <c r="D93">
+        <v>6730917.7864369117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>115.45100487099999</v>
+      </c>
+      <c r="B94">
+        <v>-29.539561298999899</v>
+      </c>
+      <c r="C94">
+        <v>349908.70171415759</v>
+      </c>
+      <c r="D94">
+        <v>6731232.7841716278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>115.453782999</v>
+      </c>
+      <c r="B95">
+        <v>-29.535745164999899</v>
+      </c>
+      <c r="C95">
+        <v>350172.29695395409</v>
+      </c>
+      <c r="D95">
+        <v>6731659.2789890356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>115.454373746</v>
+      </c>
+      <c r="B96">
+        <v>-29.534804602999898</v>
+      </c>
+      <c r="C96">
+        <v>350228.16078479879</v>
+      </c>
+      <c r="D96">
+        <v>6731764.2748539783</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>115.45516142699999</v>
+      </c>
+      <c r="B97">
+        <v>-29.5332661049999</v>
+      </c>
+      <c r="C97">
+        <v>350302.23035519291</v>
+      </c>
+      <c r="D97">
+        <v>6731935.7880733889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>115.45584723899999</v>
+      </c>
+      <c r="B98">
+        <v>-29.531667917999901</v>
+      </c>
+      <c r="C98">
+        <v>350366.3417546266</v>
+      </c>
+      <c r="D98">
+        <v>6732113.7842958691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>115.457257676</v>
+      </c>
+      <c r="B99">
+        <v>-29.527921418999899</v>
+      </c>
+      <c r="C99">
+        <v>350497.52360750636</v>
+      </c>
+      <c r="D99">
+        <v>6732530.7906018011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>115.460333545</v>
+      </c>
+      <c r="B100">
+        <v>-29.518942486999901</v>
+      </c>
+      <c r="C100">
+        <v>350782.45414930908</v>
+      </c>
+      <c r="D100">
+        <v>6733529.7964607906</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>115.463226085</v>
+      </c>
+      <c r="B101">
+        <v>-29.510890793999899</v>
+      </c>
+      <c r="C101">
+        <v>351051.02758255496</v>
+      </c>
+      <c r="D101">
+        <v>6734425.799710813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>115.464910567</v>
+      </c>
+      <c r="B102">
+        <v>-29.505748736999902</v>
+      </c>
+      <c r="C102">
+        <v>351206.79132767639</v>
+      </c>
+      <c r="D102">
+        <v>6734997.8016453134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>115.46654098</v>
+      </c>
+      <c r="B103">
+        <v>-29.500001418999901</v>
+      </c>
+      <c r="C103">
+        <v>351356.44679101353</v>
+      </c>
+      <c r="D103">
+        <v>6735636.8064557258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>115.468289071</v>
+      </c>
+      <c r="B104">
+        <v>-29.492942372999899</v>
+      </c>
+      <c r="C104">
+        <v>351515.61684755632</v>
+      </c>
+      <c r="D104">
+        <v>6736421.3241544245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>115.469519174</v>
+      </c>
+      <c r="B105">
+        <v>-29.487072994999899</v>
+      </c>
+      <c r="C105">
+        <v>351626.3229185837</v>
+      </c>
+      <c r="D105">
+        <v>6737073.3384575285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>115.469986476</v>
+      </c>
+      <c r="B106">
+        <v>-29.484312634999899</v>
+      </c>
+      <c r="C106">
+        <v>351667.60978873953</v>
+      </c>
+      <c r="D106">
+        <v>6737379.8373323195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>115.470257898</v>
+      </c>
+      <c r="B107">
+        <v>-29.4821410099999</v>
+      </c>
+      <c r="C107">
+        <v>351690.76384108409</v>
+      </c>
+      <c r="D107">
+        <v>6737620.8426569272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>115.47035720700001</v>
+      </c>
+      <c r="B108">
+        <v>-29.480445825999901</v>
+      </c>
+      <c r="C108">
+        <v>351697.92423544056</v>
+      </c>
+      <c r="D108">
+        <v>6737808.8293672688</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>115.47027263299999</v>
+      </c>
+      <c r="B109">
+        <v>-29.478671726999899</v>
+      </c>
+      <c r="C109">
+        <v>351687.13981253211</v>
+      </c>
+      <c r="D109">
+        <v>6738005.3270612927</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>115.47005407</v>
+      </c>
+      <c r="B110">
+        <v>-29.477532151999899</v>
+      </c>
+      <c r="C110">
+        <v>351664.28685523046</v>
+      </c>
+      <c r="D110">
+        <v>6738131.3360936567</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>115.46966819799999</v>
+      </c>
+      <c r="B111">
+        <v>-29.476458463999901</v>
+      </c>
+      <c r="C111">
+        <v>351625.30585811543</v>
+      </c>
+      <c r="D111">
+        <v>6738249.830229356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>115.468836939</v>
+      </c>
+      <c r="B112">
+        <v>-29.4750186559999</v>
+      </c>
+      <c r="C112">
+        <v>351542.60178327037</v>
+      </c>
+      <c r="D112">
+        <v>6738408.3296539448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>115.46770943999999</v>
+      </c>
+      <c r="B113">
+        <v>-29.4736114859999</v>
+      </c>
+      <c r="C113">
+        <v>351431.21652082534</v>
+      </c>
+      <c r="D113">
+        <v>6738562.8335455721</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>115.466475679</v>
+      </c>
+      <c r="B114">
+        <v>-29.472419592999898</v>
+      </c>
+      <c r="C114">
+        <v>351309.8380919834</v>
+      </c>
+      <c r="D114">
+        <v>6738693.3437382802</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>115.465167436</v>
+      </c>
+      <c r="B115">
+        <v>-29.4715112159999</v>
+      </c>
+      <c r="C115">
+        <v>351181.64833395998</v>
+      </c>
+      <c r="D115">
+        <v>6738792.3382915761</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115.463528001</v>
+      </c>
+      <c r="B116">
+        <v>-29.470734283999899</v>
+      </c>
+      <c r="C116">
+        <v>351021.53165686422</v>
+      </c>
+      <c r="D116">
+        <v>6738876.3409648258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>115.46189393</v>
+      </c>
+      <c r="B117">
+        <v>-29.470133403999899</v>
+      </c>
+      <c r="C117">
+        <v>350862.19041719695</v>
+      </c>
+      <c r="D117">
+        <v>6738940.8382503251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>115.45979262100001</v>
+      </c>
+      <c r="B118">
+        <v>-29.469491043999898</v>
+      </c>
+      <c r="C118">
+        <v>350657.47618786746</v>
+      </c>
+      <c r="D118">
+        <v>6739009.3309014561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>115.45713618400001</v>
+      </c>
+      <c r="B119">
+        <v>-29.468815026999899</v>
+      </c>
+      <c r="C119">
+        <v>350398.87611023244</v>
+      </c>
+      <c r="D119">
+        <v>6739080.8366149152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>115.446816449</v>
+      </c>
+      <c r="B120">
+        <v>-29.4666015889999</v>
+      </c>
+      <c r="C120">
+        <v>349394.84195469244</v>
+      </c>
+      <c r="D120">
+        <v>6739312.8256406877</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>115.438007978</v>
+      </c>
+      <c r="B121">
+        <v>-29.464531206999901</v>
+      </c>
+      <c r="C121">
+        <v>348537.53721464006</v>
+      </c>
+      <c r="D121">
+        <v>6739530.8403183501</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>115.42879494100001</v>
+      </c>
+      <c r="B122">
+        <v>-29.4628752449999</v>
+      </c>
+      <c r="C122">
+        <v>347641.57999137964</v>
+      </c>
+      <c r="D122">
+        <v>6739702.3356429208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>115.42816168500001</v>
+      </c>
+      <c r="B123">
+        <v>-29.460972862999899</v>
+      </c>
+      <c r="C123">
+        <v>347577.32029079297</v>
+      </c>
+      <c r="D123">
+        <v>6739912.3303399822</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>115.427624929</v>
+      </c>
+      <c r="B124">
+        <v>-29.4590354209999</v>
+      </c>
+      <c r="C124">
+        <v>347522.36509648582</v>
+      </c>
+      <c r="D124">
+        <v>6740126.3364401553</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>115.427302364</v>
+      </c>
+      <c r="B125">
+        <v>-29.4581697929999</v>
+      </c>
+      <c r="C125">
+        <v>347489.78567953233</v>
+      </c>
+      <c r="D125">
+        <v>6740221.843599109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>115.426867796</v>
+      </c>
+      <c r="B126">
+        <v>-29.4571585539999</v>
+      </c>
+      <c r="C126">
+        <v>347446.12497409596</v>
+      </c>
+      <c r="D126">
+        <v>6740333.3406871893</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>115.42443851</v>
+      </c>
+      <c r="B127">
+        <v>-29.450479374999901</v>
+      </c>
+      <c r="C127">
+        <v>347200.50383655494</v>
+      </c>
+      <c r="D127">
+        <v>6741070.3477616115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>115.42050039</v>
+      </c>
+      <c r="B128">
+        <v>-29.4406916289999</v>
+      </c>
+      <c r="C128">
+        <v>346803.82731720299</v>
+      </c>
+      <c r="D128">
+        <v>6742149.8607412744</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>115.416572776</v>
+      </c>
+      <c r="B129">
+        <v>-29.431454160999898</v>
+      </c>
+      <c r="C129">
+        <v>346408.92906327848</v>
+      </c>
+      <c r="D129">
+        <v>6743168.3931622375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>115.414711219</v>
+      </c>
+      <c r="B130">
+        <v>-29.427294656999901</v>
+      </c>
+      <c r="C130">
+        <v>346222.06733357639</v>
+      </c>
+      <c r="D130">
+        <v>6743626.8975614402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>115.412984634</v>
+      </c>
+      <c r="B131">
+        <v>-29.423628595999901</v>
+      </c>
+      <c r="C131">
+        <v>346049.03086411091</v>
+      </c>
+      <c r="D131">
+        <v>6744030.8938304717</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>115.410511055</v>
+      </c>
+      <c r="B132">
+        <v>-29.4187985249999</v>
+      </c>
+      <c r="C132">
+        <v>345801.7490028296</v>
+      </c>
+      <c r="D132">
+        <v>6744562.8964086305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>115.40791541199999</v>
+      </c>
+      <c r="B133">
+        <v>-29.4142287079999</v>
+      </c>
+      <c r="C133">
+        <v>345542.99532580451</v>
+      </c>
+      <c r="D133">
+        <v>6745065.8910343386</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>115.405027451</v>
+      </c>
+      <c r="B134">
+        <v>-29.4095198979999</v>
+      </c>
+      <c r="C134">
+        <v>345255.64479688311</v>
+      </c>
+      <c r="D134">
+        <v>6745583.8958852571</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>115.400985742</v>
+      </c>
+      <c r="B135">
+        <v>-29.4033761889999</v>
+      </c>
+      <c r="C135">
+        <v>344854.1327827333</v>
+      </c>
+      <c r="D135">
+        <v>6746259.3767302958</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>115.398145668</v>
+      </c>
+      <c r="B136">
+        <v>-29.3993851339999</v>
+      </c>
+      <c r="C136">
+        <v>344572.46240551642</v>
+      </c>
+      <c r="D136">
+        <v>6746697.8876605481</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>115.39560296099999</v>
+      </c>
+      <c r="B137">
+        <v>-29.396110564999901</v>
+      </c>
+      <c r="C137">
+        <v>344320.72117229691</v>
+      </c>
+      <c r="D137">
+        <v>6747057.3876015861</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>115.393252508</v>
+      </c>
+      <c r="B138">
+        <v>-29.393361627999901</v>
+      </c>
+      <c r="C138">
+        <v>344088.42452295625</v>
+      </c>
+      <c r="D138">
+        <v>6747358.8884496987</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>115.390056814</v>
+      </c>
+      <c r="B139">
+        <v>-29.389961820999901</v>
+      </c>
+      <c r="C139">
+        <v>343773.08901266556</v>
+      </c>
+      <c r="D139">
+        <v>6747731.3836352378</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>115.384486486</v>
+      </c>
+      <c r="B140">
+        <v>-29.384565944999899</v>
+      </c>
+      <c r="C140">
+        <v>343224.20069910015</v>
+      </c>
+      <c r="D140">
+        <v>6748321.8895128071</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>115.368062169</v>
+      </c>
+      <c r="B141">
+        <v>-29.3694586989999</v>
+      </c>
+      <c r="C141">
+        <v>341606.69738010515</v>
+      </c>
+      <c r="D141">
+        <v>6749973.9196505276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>115.362405471</v>
+      </c>
+      <c r="B142">
+        <v>-29.364137633999899</v>
+      </c>
+      <c r="C142">
+        <v>341049.32170999702</v>
+      </c>
+      <c r="D142">
+        <v>6750555.9203832317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>115.36104033700001</v>
+      </c>
+      <c r="B143">
+        <v>-29.3575110539999</v>
+      </c>
+      <c r="C143">
+        <v>340906.49552729254</v>
+      </c>
+      <c r="D143">
+        <v>6751288.4267490366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>115.360624526</v>
+      </c>
+      <c r="B144">
+        <v>-29.355764383999901</v>
+      </c>
+      <c r="C144">
+        <v>340863.41112308297</v>
+      </c>
+      <c r="D144">
+        <v>6751481.4282238511</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>115.35791589599999</v>
+      </c>
+      <c r="B145">
+        <v>-29.345981110999901</v>
+      </c>
+      <c r="C145">
+        <v>340585.2080769348</v>
+      </c>
+      <c r="D145">
+        <v>6752561.9281985108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>115.356258442</v>
+      </c>
+      <c r="B146">
+        <v>-29.339567339999899</v>
+      </c>
+      <c r="C146">
+        <v>340414.28284290514</v>
+      </c>
+      <c r="D146">
+        <v>6753270.4464460583</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>115.354573618</v>
+      </c>
+      <c r="B147">
+        <v>-29.3324767229999</v>
+      </c>
+      <c r="C147">
+        <v>340239.62599458918</v>
+      </c>
+      <c r="D147">
+        <v>6754053.9336642604</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>115.353084662</v>
+      </c>
+      <c r="B148">
+        <v>-29.325699610999902</v>
+      </c>
+      <c r="C148">
+        <v>340084.45969390031</v>
+      </c>
+      <c r="D148">
+        <v>6754802.9434492532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>115.352246533</v>
+      </c>
+      <c r="B149">
+        <v>-29.3212586749999</v>
+      </c>
+      <c r="C149">
+        <v>339996.1320910987</v>
+      </c>
+      <c r="D149">
+        <v>6755293.9450502582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>115.351092386</v>
+      </c>
+      <c r="B150">
+        <v>-29.313470627999902</v>
+      </c>
+      <c r="C150">
+        <v>339871.8778657575</v>
+      </c>
+      <c r="D150">
+        <v>6756155.4426200036</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>115.353151579</v>
+      </c>
+      <c r="B151">
+        <v>-29.314474999999899</v>
+      </c>
+      <c r="C151">
+        <v>340073.44513964665</v>
+      </c>
+      <c r="D151">
+        <v>6756046.9544658773</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>115.34999541099999</v>
+      </c>
+      <c r="B152">
+        <v>-29.3001201719999</v>
+      </c>
+      <c r="C152">
+        <v>339744.47211196006</v>
+      </c>
+      <c r="D152">
+        <v>6757633.4462269265</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>115.347715127</v>
+      </c>
+      <c r="B153">
+        <v>-29.2893402579999</v>
+      </c>
+      <c r="C153">
+        <v>339506.10742351646</v>
+      </c>
+      <c r="D153">
+        <v>6758824.9569011442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>115.346970666</v>
+      </c>
+      <c r="B154">
+        <v>-29.286186266999898</v>
+      </c>
+      <c r="C154">
+        <v>339428.84952992981</v>
+      </c>
+      <c r="D154">
+        <v>6759173.4626249038</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>115.34652640900001</v>
+      </c>
+      <c r="B155">
+        <v>-29.284606268999902</v>
+      </c>
+      <c r="C155">
+        <v>339383.21679083107</v>
+      </c>
+      <c r="D155">
+        <v>6759347.9492428079</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>115.34584203</v>
+      </c>
+      <c r="B156">
+        <v>-29.2826983369999</v>
+      </c>
+      <c r="C156">
+        <v>339313.74052867468</v>
+      </c>
+      <c r="D156">
+        <v>6759558.4479644401</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>115.34501833500001</v>
+      </c>
+      <c r="B157">
+        <v>-29.280951030999901</v>
+      </c>
+      <c r="C157">
+        <v>339230.97800509224</v>
+      </c>
+      <c r="D157">
+        <v>6759750.9544209754</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>115.343621204</v>
+      </c>
+      <c r="B158">
+        <v>-29.278483733999899</v>
+      </c>
+      <c r="C158">
+        <v>339091.37037253997</v>
+      </c>
+      <c r="D158">
+        <v>6760022.462223826</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>115.342414823</v>
+      </c>
+      <c r="B159">
+        <v>-29.276618974999899</v>
+      </c>
+      <c r="C159">
+        <v>338971.23494724167</v>
+      </c>
+      <c r="D159">
+        <v>6760227.4573217705</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>115.34113606699999</v>
+      </c>
+      <c r="B160">
+        <v>-29.274866036999899</v>
+      </c>
+      <c r="C160">
+        <v>338844.2387414379</v>
+      </c>
+      <c r="D160">
+        <v>6760419.959658904</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>115.339295741</v>
+      </c>
+      <c r="B161">
+        <v>-29.272677590999901</v>
+      </c>
+      <c r="C161">
+        <v>338661.98966558493</v>
+      </c>
+      <c r="D161">
+        <v>6760659.9504815284</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>115.337188666</v>
+      </c>
+      <c r="B162">
+        <v>-29.2704811649999</v>
+      </c>
+      <c r="C162">
+        <v>338453.80141612038</v>
+      </c>
+      <c r="D162">
+        <v>6760900.4551473819</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>115.333430268</v>
+      </c>
+      <c r="B163">
+        <v>-29.266802286999901</v>
+      </c>
+      <c r="C163">
+        <v>338082.81033300958</v>
+      </c>
+      <c r="D163">
+        <v>6761302.9610730316</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>115.33206113999999</v>
+      </c>
+      <c r="B164">
+        <v>-29.265314410999899</v>
+      </c>
+      <c r="C164">
+        <v>337947.42438738747</v>
+      </c>
+      <c r="D164">
+        <v>6761465.9551366325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>115.331636006</v>
+      </c>
+      <c r="B165">
+        <v>-29.264731461999901</v>
+      </c>
+      <c r="C165">
+        <v>337905.19348831609</v>
+      </c>
+      <c r="D165">
+        <v>6761529.969704574</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>115.331199699</v>
+      </c>
+      <c r="B166">
+        <v>-29.263918427999901</v>
+      </c>
+      <c r="C166">
+        <v>337861.51327657176</v>
+      </c>
+      <c r="D166">
+        <v>6761619.466807615</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>115.330876014</v>
+      </c>
+      <c r="B167">
+        <v>-29.2630256069999</v>
+      </c>
+      <c r="C167">
+        <v>337828.65039622015</v>
+      </c>
+      <c r="D167">
+        <v>6761717.9616927663</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>115.330523261</v>
+      </c>
+      <c r="B168">
+        <v>-29.261676732999899</v>
+      </c>
+      <c r="C168">
+        <v>337792.24229561706</v>
+      </c>
+      <c r="D168">
+        <v>6761866.9562764317</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>115.330304328</v>
+      </c>
+      <c r="B169">
+        <v>-29.260302287999899</v>
+      </c>
+      <c r="C169">
+        <v>337768.7971757577</v>
+      </c>
+      <c r="D169">
+        <v>6762018.9698373973</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>115.33004120699999</v>
+      </c>
+      <c r="B170">
+        <v>-29.257537792999901</v>
+      </c>
+      <c r="C170">
+        <v>337738.86244432168</v>
+      </c>
+      <c r="D170">
+        <v>6762324.9681421742</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>115.33334958099999</v>
+      </c>
+      <c r="B171">
+        <v>-29.259821416999898</v>
+      </c>
+      <c r="C171">
+        <v>338063.96652609354</v>
+      </c>
+      <c r="D171">
+        <v>6762076.4726371309</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>115.334507348</v>
+      </c>
+      <c r="B172">
+        <v>-29.2572551549999</v>
+      </c>
+      <c r="C172">
+        <v>338172.43322356563</v>
+      </c>
+      <c r="D172">
+        <v>6762362.4661474535</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>115.334843275</v>
+      </c>
+      <c r="B173">
+        <v>-29.255806542999899</v>
+      </c>
+      <c r="C173">
+        <v>338202.79759464721</v>
+      </c>
+      <c r="D173">
+        <v>6762523.4656164041</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>115.334954143</v>
+      </c>
+      <c r="B174">
+        <v>-29.2546484299999</v>
+      </c>
+      <c r="C174">
+        <v>338211.74860326346</v>
+      </c>
+      <c r="D174">
+        <v>6762651.9610780086</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>115.33496096</v>
+      </c>
+      <c r="B175">
+        <v>-29.2531912329999</v>
+      </c>
+      <c r="C175">
+        <v>338210.11711889808</v>
+      </c>
+      <c r="D175">
+        <v>6762813.4574253112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>115.334872773</v>
+      </c>
+      <c r="B176">
+        <v>-29.252044112999901</v>
+      </c>
+      <c r="C176">
+        <v>338199.74096193037</v>
+      </c>
+      <c r="D176">
+        <v>6762940.4597870708</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>115.33468302999999</v>
+      </c>
+      <c r="B177">
+        <v>-29.250760363999898</v>
+      </c>
+      <c r="C177">
+        <v>338179.27981673682</v>
+      </c>
+      <c r="D177">
+        <v>6763082.4631743049</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>115.33398072</v>
+      </c>
+      <c r="B178">
+        <v>-29.247859549999902</v>
+      </c>
+      <c r="C178">
+        <v>338106.45684481633</v>
+      </c>
+      <c r="D178">
+        <v>6763402.9621444549</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>115.33222429</v>
+      </c>
+      <c r="B179">
+        <v>-29.241994795999901</v>
+      </c>
+      <c r="C179">
+        <v>337926.50728217489</v>
+      </c>
+      <c r="D179">
+        <v>6764050.4681683164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>115.331906734</v>
+      </c>
+      <c r="B180">
+        <v>-29.2403214099999</v>
+      </c>
+      <c r="C180">
+        <v>337893.00469174632</v>
+      </c>
+      <c r="D180">
+        <v>6764235.4740117984</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>115.331789732</v>
+      </c>
+      <c r="B181">
+        <v>-29.2388851689999</v>
+      </c>
+      <c r="C181">
+        <v>337879.36834790476</v>
+      </c>
+      <c r="D181">
+        <v>6764394.4766444536</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>115.331849859</v>
+      </c>
+      <c r="B182">
+        <v>-29.237261665999899</v>
+      </c>
+      <c r="C182">
+        <v>337882.65321373485</v>
+      </c>
+      <c r="D182">
+        <v>6764574.476547854</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>115.33201873100001</v>
+      </c>
+      <c r="B183">
+        <v>-29.236469782999901</v>
+      </c>
+      <c r="C183">
+        <v>337897.81914673897</v>
+      </c>
+      <c r="D183">
+        <v>6764662.4665537253</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>115.33220336700001</v>
+      </c>
+      <c r="B184">
+        <v>-29.236029854999899</v>
+      </c>
+      <c r="C184">
+        <v>337915.07228672487</v>
+      </c>
+      <c r="D184">
+        <v>6764711.474635059</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>115.332461493</v>
+      </c>
+      <c r="B185">
+        <v>-29.2356405969999</v>
+      </c>
+      <c r="C185">
+        <v>337939.54865301726</v>
+      </c>
+      <c r="D185">
+        <v>6764754.9689967837</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>115.332808547</v>
+      </c>
+      <c r="B186">
+        <v>-29.2352839059999</v>
+      </c>
+      <c r="C186">
+        <v>337972.72034329758</v>
+      </c>
+      <c r="D186">
+        <v>6764794.9770976454</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>115.33352062</v>
+      </c>
+      <c r="B187">
+        <v>-29.234755911999901</v>
+      </c>
+      <c r="C187">
+        <v>338041.10257076041</v>
+      </c>
+      <c r="D187">
+        <v>6764854.4730856363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>115.334214738</v>
+      </c>
+      <c r="B188">
+        <v>-29.234344967999899</v>
+      </c>
+      <c r="C188">
+        <v>338107.92449665978</v>
+      </c>
+      <c r="D188">
+        <v>6764900.9723609686</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>115.350418268</v>
+      </c>
+      <c r="B189">
+        <v>-29.230738240999901</v>
+      </c>
+      <c r="C189">
+        <v>339677.3001913738</v>
+      </c>
+      <c r="D189">
+        <v>6765322.9287487641</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>115.351125702</v>
+      </c>
+      <c r="B190">
+        <v>-29.230516679999901</v>
+      </c>
+      <c r="C190">
+        <v>339745.72049345885</v>
+      </c>
+      <c r="D190">
+        <v>6765348.4488635994</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>115.352147702</v>
+      </c>
+      <c r="B191">
+        <v>-29.230087058999899</v>
+      </c>
+      <c r="C191">
+        <v>339844.39438211126</v>
+      </c>
+      <c r="D191">
+        <v>6765397.4552310836</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>115.353749322</v>
+      </c>
+      <c r="B192">
+        <v>-29.229136742999899</v>
+      </c>
+      <c r="C192">
+        <v>339998.60123106395</v>
+      </c>
+      <c r="D192">
+        <v>6765504.9546306571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>115.364363521</v>
+      </c>
+      <c r="B193">
+        <v>-29.221488489999899</v>
+      </c>
+      <c r="C193">
+        <v>341018.54143964447</v>
+      </c>
+      <c r="D193">
+        <v>6766366.9590551071</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>115.37000076299999</v>
+      </c>
+      <c r="B194">
+        <v>-29.2176498769999</v>
+      </c>
+      <c r="C194">
+        <v>341560.64190014731</v>
+      </c>
+      <c r="D194">
+        <v>6766799.9753571171</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>115.375020636</v>
+      </c>
+      <c r="B195">
+        <v>-29.2143721109999</v>
+      </c>
+      <c r="C195">
+        <v>342043.62348225102</v>
+      </c>
+      <c r="D195">
+        <v>6767169.9807358477</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>115.379782342</v>
+      </c>
+      <c r="B196">
+        <v>-29.2115242459999</v>
+      </c>
+      <c r="C196">
+        <v>342502.19421701459</v>
+      </c>
+      <c r="D196">
+        <v>6767491.9767576419</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>115.3825238</v>
+      </c>
+      <c r="B197">
+        <v>-29.210054868999901</v>
+      </c>
+      <c r="C197">
+        <v>342766.47873979609</v>
+      </c>
+      <c r="D197">
+        <v>6767658.4866388086</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>115.38568925</v>
+      </c>
+      <c r="B198">
+        <v>-29.208459807999901</v>
+      </c>
+      <c r="C198">
+        <v>343071.80148408952</v>
+      </c>
+      <c r="D198">
+        <v>6767839.4850796014</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>115.390782851</v>
+      </c>
+      <c r="B199">
+        <v>-29.206044190999901</v>
+      </c>
+      <c r="C199">
+        <v>343563.35278066655</v>
+      </c>
+      <c r="D199">
+        <v>6768113.9786217837</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>115.39683589099999</v>
+      </c>
+      <c r="B200">
+        <v>-29.203382641999902</v>
+      </c>
+      <c r="C200">
+        <v>344147.8396225248</v>
+      </c>
+      <c r="D200">
+        <v>6768416.9777253428</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>115.401739451</v>
+      </c>
+      <c r="B201">
+        <v>-29.201365769999899</v>
+      </c>
+      <c r="C201">
+        <v>344621.56362173765</v>
+      </c>
+      <c r="D201">
+        <v>6768646.9830558803</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>115.408073268</v>
+      </c>
+      <c r="B202">
+        <v>-29.198941644999898</v>
+      </c>
+      <c r="C202">
+        <v>345233.76117574517</v>
+      </c>
+      <c r="D202">
+        <v>6768923.9848411866</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>115.41227665</v>
+      </c>
+      <c r="B203">
+        <v>-29.197475524999899</v>
+      </c>
+      <c r="C203">
+        <v>345640.27003643342</v>
+      </c>
+      <c r="D203">
+        <v>6769091.989987392</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>115.41706177899999</v>
+      </c>
+      <c r="B204">
+        <v>-29.195993654999899</v>
+      </c>
+      <c r="C204">
+        <v>346103.33296522719</v>
+      </c>
+      <c r="D204">
+        <v>6769262.488135268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>115.421081907</v>
+      </c>
+      <c r="B205">
+        <v>-29.194926711999901</v>
+      </c>
+      <c r="C205">
+        <v>346492.6410296922</v>
+      </c>
+      <c r="D205">
+        <v>6769385.9860694706</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>115.424610954</v>
+      </c>
+      <c r="B206">
+        <v>-29.1941516599999</v>
+      </c>
+      <c r="C206">
+        <v>346834.63951473858</v>
+      </c>
+      <c r="D206">
+        <v>6769476.483460282</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>115.42798450700001</v>
+      </c>
+      <c r="B207">
+        <v>-29.193582224999901</v>
+      </c>
+      <c r="C207">
+        <v>347161.82806360803</v>
+      </c>
+      <c r="D207">
+        <v>6769543.9821965843</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>115.431510003</v>
+      </c>
+      <c r="B208">
+        <v>-29.193158854999901</v>
+      </c>
+      <c r="C208">
+        <v>347504.01074353035</v>
+      </c>
+      <c r="D208">
+        <v>6769595.4823051179</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>115.435424654</v>
+      </c>
+      <c r="B209">
+        <v>-29.1928888069999</v>
+      </c>
+      <c r="C209">
+        <v>347884.26289478096</v>
+      </c>
+      <c r="D209">
+        <v>6769630.4856161932</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>115.438624734</v>
+      </c>
+      <c r="B210">
+        <v>-29.1927953759999</v>
+      </c>
+      <c r="C210">
+        <v>348195.29352421011</v>
+      </c>
+      <c r="D210">
+        <v>6769644.980549668</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>115.44273813700001</v>
+      </c>
+      <c r="B211">
+        <v>-29.192789204999901</v>
+      </c>
+      <c r="C211">
+        <v>348595.2621236238</v>
+      </c>
+      <c r="D211">
+        <v>6769650.9751118068</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>115.44657857</v>
+      </c>
+      <c r="B212">
+        <v>-29.1929420919999</v>
+      </c>
+      <c r="C212">
+        <v>348968.92058035254</v>
+      </c>
+      <c r="D212">
+        <v>6769638.9783999659</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>115.448722761</v>
+      </c>
+      <c r="B213">
+        <v>-29.1932196489999</v>
+      </c>
+      <c r="C213">
+        <v>349177.82231158839</v>
+      </c>
+      <c r="D213">
+        <v>6769610.9765632823</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>115.450823317</v>
+      </c>
+      <c r="B214">
+        <v>-29.193686150999898</v>
+      </c>
+      <c r="C214">
+        <v>349382.75609013555</v>
+      </c>
+      <c r="D214">
+        <v>6769561.9768467098</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>115.453085938</v>
+      </c>
+      <c r="B215">
+        <v>-29.1943124689999</v>
+      </c>
+      <c r="C215">
+        <v>349603.67977182689</v>
+      </c>
+      <c r="D215">
+        <v>6769495.4709495027</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>115.45516742300001</v>
+      </c>
+      <c r="B216">
+        <v>-29.194999720999899</v>
+      </c>
+      <c r="C216">
+        <v>349807.07669026731</v>
+      </c>
+      <c r="D216">
+        <v>6769421.9767417395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>115.456592663</v>
+      </c>
+      <c r="B217">
+        <v>-29.195598213999901</v>
+      </c>
+      <c r="C217">
+        <v>349946.53187346191</v>
+      </c>
+      <c r="D217">
+        <v>6769357.4764396045</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>115.458226727</v>
+      </c>
+      <c r="B218">
+        <v>-29.196447277999901</v>
+      </c>
+      <c r="C218">
+        <v>350106.65478052507</v>
+      </c>
+      <c r="D218">
+        <v>6769265.4738650154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>115.461261522</v>
+      </c>
+      <c r="B219">
+        <v>-29.198264450999901</v>
+      </c>
+      <c r="C219">
+        <v>350404.37805414828</v>
+      </c>
+      <c r="D219">
+        <v>6769067.9729227237</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>115.465996565</v>
+      </c>
+      <c r="B220">
+        <v>-29.2012832039999</v>
+      </c>
+      <c r="C220">
+        <v>350869.14593193564</v>
+      </c>
+      <c r="D220">
+        <v>6768739.4716773257</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>115.47318323499999</v>
+      </c>
+      <c r="B221">
+        <v>-29.206328568999901</v>
+      </c>
+      <c r="C221">
+        <v>351575.16948042717</v>
+      </c>
+      <c r="D221">
+        <v>6768189.4747614488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701263F8-3BED-4833-888B-23EA6272BAEC}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E225"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24994,12 +28104,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5D9FE-7C49-48B3-9367-2F5352B6C0CB}">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E400"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Data_geology/Otorowiri_outcrop.xlsx
+++ b/Data/Data_geology/Otorowiri_outcrop.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966DA22-6EDC-4940-B65C-745017A8DD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD155C4-F636-4286-BB26-C6BE2926A8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
+    <workbookView xWindow="40020" yWindow="-16455" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Otorowiri_1" sheetId="1" r:id="rId1"/>
     <sheet name="Otorowiri_2" sheetId="2" r:id="rId2"/>
     <sheet name="Otorowiri_3" sheetId="3" r:id="rId3"/>
     <sheet name="Otorowiri-Parmelia contact" sheetId="4" r:id="rId4"/>
-    <sheet name="Yarragadee-Otorowiri contact" sheetId="7" r:id="rId5"/>
-    <sheet name="Yarragadee-Otorowiri_NEW" sheetId="6" r:id="rId6"/>
-    <sheet name="Otorowiri-Parmelia_NEW" sheetId="5" r:id="rId7"/>
+    <sheet name="O-P contact simplified" sheetId="9" r:id="rId5"/>
+    <sheet name="Yarragadee-Otorowiri contact" sheetId="7" r:id="rId6"/>
+    <sheet name="Y-O contact simplified" sheetId="8" r:id="rId7"/>
+    <sheet name="Yarragadee-Otorowiri_NEW" sheetId="6" r:id="rId8"/>
+    <sheet name="Otorowiri-Parmelia_NEW" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="629">
   <si>
     <t>Longitude</t>
   </si>
@@ -14727,7 +14729,7 @@
   <dimension ref="A1:D458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21153,10 +21155,929 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B33FD7-38C7-497F-B8A4-85FBD6DAE9A7}">
+  <dimension ref="A1:B113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>353021.99255767401</v>
+      </c>
+      <c r="B2">
+        <v>6765869.0254175104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>352848.23874475801</v>
+      </c>
+      <c r="B3">
+        <v>6765928.7532906998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>352603.89744534402</v>
+      </c>
+      <c r="B4">
+        <v>6766048.2090370804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>352522.45034553902</v>
+      </c>
+      <c r="B5">
+        <v>6766140.5157501996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>352283.53885277902</v>
+      </c>
+      <c r="B6">
+        <v>6766292.5503364997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>352066.34658663301</v>
+      </c>
+      <c r="B7">
+        <v>6766417.43588953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>351876.30335375603</v>
+      </c>
+      <c r="B8">
+        <v>6766553.1810558699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>351783.99664064398</v>
+      </c>
+      <c r="B9">
+        <v>6766623.7685423698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>351512.506307962</v>
+      </c>
+      <c r="B10">
+        <v>6766786.6627419796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>351322.46307508502</v>
+      </c>
+      <c r="B11">
+        <v>6766927.8377149701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>351230.15636197297</v>
+      </c>
+      <c r="B12">
+        <v>6767079.8723012796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>351078.12177567102</v>
+      </c>
+      <c r="B13">
+        <v>6767210.1876609595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>350953.236222637</v>
+      </c>
+      <c r="B14">
+        <v>6767351.3626339603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>350839.21028291102</v>
+      </c>
+      <c r="B15">
+        <v>6767552.2654801402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>350795.77182968199</v>
+      </c>
+      <c r="B16">
+        <v>6767620.1380633097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>350741.47376314498</v>
+      </c>
+      <c r="B17">
+        <v>6767698.8702597897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>350657.31176001398</v>
+      </c>
+      <c r="B18">
+        <v>6767850.9048460899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>350584.00937018998</v>
+      </c>
+      <c r="B19">
+        <v>6767962.2158824904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>350505.27717371198</v>
+      </c>
+      <c r="B20">
+        <v>6768073.52691889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>350426.54497723398</v>
+      </c>
+      <c r="B21">
+        <v>6768152.25911537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>350317.94884416199</v>
+      </c>
+      <c r="B22">
+        <v>6768201.1273752498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>350107.54383633297</v>
+      </c>
+      <c r="B23">
+        <v>6768243.2083768202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>349989.44554161601</v>
+      </c>
+      <c r="B24">
+        <v>6768236.4211184997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>349689.44872400298</v>
+      </c>
+      <c r="B25">
+        <v>6768115.6079204604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>349635.15065746597</v>
+      </c>
+      <c r="B26">
+        <v>6768103.3908554902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>349545.55884768098</v>
+      </c>
+      <c r="B27">
+        <v>6768095.2461455101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>349374.51993809198</v>
+      </c>
+      <c r="B28">
+        <v>6768088.4588871896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>349295.78774161398</v>
+      </c>
+      <c r="B29">
+        <v>6768088.4588871896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>348786.743367836</v>
+      </c>
+      <c r="B30">
+        <v>6768133.2547920803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>348612.98955491901</v>
+      </c>
+      <c r="B31">
+        <v>6768133.2547920803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>348200.32424924301</v>
+      </c>
+      <c r="B32">
+        <v>6768182.1230519703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>347809.37817018002</v>
+      </c>
+      <c r="B33">
+        <v>6768133.2547920803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>347212.09943827998</v>
+      </c>
+      <c r="B34">
+        <v>6768062.6673055897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>346674.54857957002</v>
+      </c>
+      <c r="B35">
+        <v>6767899.7731059799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>346234.734240625</v>
+      </c>
+      <c r="B36">
+        <v>6767747.7385196798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>345974.10352125001</v>
+      </c>
+      <c r="B37">
+        <v>6767622.8529666401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>345441.98246919399</v>
+      </c>
+      <c r="B38">
+        <v>6767400.2308938401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>344736.10760422098</v>
+      </c>
+      <c r="B39">
+        <v>6767090.7319145901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>343943.35583278898</v>
+      </c>
+      <c r="B40">
+        <v>6766667.2069955999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>343204.90212789399</v>
+      </c>
+      <c r="B41">
+        <v>6766254.5416899296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>342737.93875568098</v>
+      </c>
+      <c r="B42">
+        <v>6765950.47251732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>341825.73123787</v>
+      </c>
+      <c r="B43">
+        <v>6765114.2822926603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>340489.99880107498</v>
+      </c>
+      <c r="B44">
+        <v>6763843.7075357102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>340207.64885508502</v>
+      </c>
+      <c r="B45">
+        <v>6763561.3575897198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>340229.3680817</v>
+      </c>
+      <c r="B46">
+        <v>6762529.69432553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>340403.12189461599</v>
+      </c>
+      <c r="B47">
+        <v>6761671.7848742604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>340576.87570753298</v>
+      </c>
+      <c r="B48">
+        <v>6760846.4542629002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>340718.050680527</v>
+      </c>
+      <c r="B49">
+        <v>6760531.5254769903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>340750.62952044897</v>
+      </c>
+      <c r="B50">
+        <v>6759966.8255850105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>341315.32941242802</v>
+      </c>
+      <c r="B51">
+        <v>6758381.3220421504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>341923.46775763499</v>
+      </c>
+      <c r="B52">
+        <v>6757447.3952977201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>342118.94079716603</v>
+      </c>
+      <c r="B53">
+        <v>6756730.6608194401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>342053.78311732301</v>
+      </c>
+      <c r="B54">
+        <v>6755992.2071145503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>342162.379250395</v>
+      </c>
+      <c r="B55">
+        <v>6754862.8073305897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>342292.69461008301</v>
+      </c>
+      <c r="B56">
+        <v>6753776.8459998602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>342292.69461008301</v>
+      </c>
+      <c r="B57">
+        <v>6753125.2692014296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>342379.57151654101</v>
+      </c>
+      <c r="B58">
+        <v>6752213.0616836101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>342879.11372867599</v>
+      </c>
+      <c r="B59">
+        <v>6751279.13493919</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>343422.09439404</v>
+      </c>
+      <c r="B60">
+        <v>6750692.7158206003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>344030.23273924697</v>
+      </c>
+      <c r="B61">
+        <v>6749910.8236624701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>345702.61318856798</v>
+      </c>
+      <c r="B62">
+        <v>6748042.9701736197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>346614.82070638001</v>
+      </c>
+      <c r="B63">
+        <v>6747261.0780154997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>347092.64369190001</v>
+      </c>
+      <c r="B64">
+        <v>6746196.8359113801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>347635.62435726402</v>
+      </c>
+      <c r="B65">
+        <v>6744546.1746886801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>348070.008889555</v>
+      </c>
+      <c r="B66">
+        <v>6743243.0210918002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>348678.14723476302</v>
+      </c>
+      <c r="B67">
+        <v>6741852.9905884704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>349329.72403319902</v>
+      </c>
+      <c r="B68">
+        <v>6740636.7138980599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>349677.231659032</v>
+      </c>
+      <c r="B69">
+        <v>6740289.2062722296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>350589.43917684403</v>
+      </c>
+      <c r="B70">
+        <v>6739919.97941978</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>351458.20824142598</v>
+      </c>
+      <c r="B71">
+        <v>6739724.5063802497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>352565.88879876799</v>
+      </c>
+      <c r="B72">
+        <v>6739659.3487004004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>353217.46559720498</v>
+      </c>
+      <c r="B73">
+        <v>6739507.3141141003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>353760.44626256899</v>
+      </c>
+      <c r="B74">
+        <v>6739224.9641681099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>353651.85012949602</v>
+      </c>
+      <c r="B75">
+        <v>6738551.6681430601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>353369.50018350699</v>
+      </c>
+      <c r="B76">
+        <v>6738052.1259309296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>353065.43101090298</v>
+      </c>
+      <c r="B77">
+        <v>6737270.2337728003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>352609.32725199801</v>
+      </c>
+      <c r="B78">
+        <v>6735597.8533234801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>352240.10039954999</v>
+      </c>
+      <c r="B79">
+        <v>6733990.6305539999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>352066.346586634</v>
+      </c>
+      <c r="B80">
+        <v>6733230.4576224899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>351762.27741402999</v>
+      </c>
+      <c r="B81">
+        <v>6732296.5308780698</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>351783.99664064503</v>
+      </c>
+      <c r="B82">
+        <v>6731601.5156263998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>351653.68128095701</v>
+      </c>
+      <c r="B83">
+        <v>6730819.6234682798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>351219.29674866598</v>
+      </c>
+      <c r="B84">
+        <v>6730341.8004827602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>350676.31608330202</v>
+      </c>
+      <c r="B85">
+        <v>6730146.3274432197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>350307.089230855</v>
+      </c>
+      <c r="B86">
+        <v>6729929.1351770796</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>349546.91629934497</v>
+      </c>
+      <c r="B87">
+        <v>6729603.3467778601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>349373.16248642898</v>
+      </c>
+      <c r="B88">
+        <v>6729342.7160584899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>349177.689446898</v>
+      </c>
+      <c r="B89">
+        <v>6728712.8584866598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>349003.93563398102</v>
+      </c>
+      <c r="B90">
+        <v>6727540.0202494804</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>348895.33950090897</v>
+      </c>
+      <c r="B91">
+        <v>6726562.65505182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>348547.83187507599</v>
+      </c>
+      <c r="B92">
+        <v>6725541.8514009397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>348287.20115570101</v>
+      </c>
+      <c r="B93">
+        <v>6723500.24409917</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>348222.043475857</v>
+      </c>
+      <c r="B94">
+        <v>6722327.4058619896</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>348070.008889555</v>
+      </c>
+      <c r="B95">
+        <v>6721719.2675167797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>347831.097396795</v>
+      </c>
+      <c r="B96">
+        <v>6720372.6754666697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>347722.50126372202</v>
+      </c>
+      <c r="B97">
+        <v>6719373.5910424097</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>347570.46667742101</v>
+      </c>
+      <c r="B98">
+        <v>6718787.1719238097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>347374.99363788898</v>
+      </c>
+      <c r="B99">
+        <v>6715681.3225179296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>347288.11673143099</v>
+      </c>
+      <c r="B100">
+        <v>6713813.4690290801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>347374.99363788898</v>
+      </c>
+      <c r="B101">
+        <v>6711033.4080224102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>347461.87054434803</v>
+      </c>
+      <c r="B102">
+        <v>6708123.0316560604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>346984.04755882698</v>
+      </c>
+      <c r="B103">
+        <v>6705690.4782752302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>346897.17065236898</v>
+      </c>
+      <c r="B104">
+        <v>6703952.94014607</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>347722.50126372202</v>
+      </c>
+      <c r="B105">
+        <v>6700152.0754885199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>348439.23574200302</v>
+      </c>
+      <c r="B106">
+        <v>6699055.25454449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>349753.248952183</v>
+      </c>
+      <c r="B107">
+        <v>6696959.3491761796</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>350795.77182968199</v>
+      </c>
+      <c r="B108">
+        <v>6693397.3960114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>350969.52564259898</v>
+      </c>
+      <c r="B109">
+        <v>6690791.0888176505</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>351751.41780072299</v>
+      </c>
+      <c r="B110">
+        <v>6685665.3513366096</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>352185.80233301403</v>
+      </c>
+      <c r="B111">
+        <v>6682103.39817183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>352533.30995884701</v>
+      </c>
+      <c r="B112">
+        <v>6679062.7064457899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>353836.46355571999</v>
+      </c>
+      <c r="B113">
+        <v>6675761.3840003796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1556757B-BEF5-4EA2-92E7-842579201367}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -24261,7 +25182,606 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E3E11C-5152-4597-8929-70F654A7A7EA}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>351604.81302107498</v>
+      </c>
+      <c r="B2">
+        <v>6768187.5528586302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>350888.07854279398</v>
+      </c>
+      <c r="B3">
+        <v>6768708.8142973799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>350225.64213105</v>
+      </c>
+      <c r="B4">
+        <v>6769186.6372828996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>349780.39798545197</v>
+      </c>
+      <c r="B5">
+        <v>6769436.4083889704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>349096.24234709301</v>
+      </c>
+      <c r="B6">
+        <v>6769631.8814284997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>348249.19250912598</v>
+      </c>
+      <c r="B7">
+        <v>6769664.4602684202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>347293.54653808498</v>
+      </c>
+      <c r="B8">
+        <v>6769599.3025885802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>346555.09283318999</v>
+      </c>
+      <c r="B9">
+        <v>6769425.5487756599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>345501.710342384</v>
+      </c>
+      <c r="B10">
+        <v>6769078.0411498304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>344556.92398465099</v>
+      </c>
+      <c r="B11">
+        <v>6768632.7970042303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>343568.699173689</v>
+      </c>
+      <c r="B12">
+        <v>6768154.9740187097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>342710.78972241399</v>
+      </c>
+      <c r="B13">
+        <v>6767644.5721932696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>341766.00336467999</v>
+      </c>
+      <c r="B14">
+        <v>6767014.7146214396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>339811.27296937001</v>
+      </c>
+      <c r="B15">
+        <v>6765407.4918519696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>339203.13462416298</v>
+      </c>
+      <c r="B16">
+        <v>6765212.0188124403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>338334.36555957998</v>
+      </c>
+      <c r="B17">
+        <v>6764994.82654629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>337921.70025390398</v>
+      </c>
+      <c r="B18">
+        <v>6764669.0381470704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>337899.981027289</v>
+      </c>
+      <c r="B19">
+        <v>6763865.4267623303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>338160.61174666398</v>
+      </c>
+      <c r="B20">
+        <v>6763083.5346042104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>338138.892520049</v>
+      </c>
+      <c r="B21">
+        <v>6762366.8001259305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>338073.73484020599</v>
+      </c>
+      <c r="B22">
+        <v>6761954.1348202499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>338204.05019989301</v>
+      </c>
+      <c r="B23">
+        <v>6761237.4003419699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>338681.87318541302</v>
+      </c>
+      <c r="B24">
+        <v>6760564.10431692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>339290.01153062098</v>
+      </c>
+      <c r="B25">
+        <v>6759586.7391192699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>339659.238383068</v>
+      </c>
+      <c r="B26">
+        <v>6758066.3932562498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>340028.46523551602</v>
+      </c>
+      <c r="B27">
+        <v>6756155.1013141703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>340180.49982181803</v>
+      </c>
+      <c r="B28">
+        <v>6754504.44009146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>340571.44590087997</v>
+      </c>
+      <c r="B29">
+        <v>6752658.3058292205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>340897.23430009797</v>
+      </c>
+      <c r="B30">
+        <v>6751159.6791928196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>341179.584246087</v>
+      </c>
+      <c r="B31">
+        <v>6750334.3485814696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>342569.61474941898</v>
+      </c>
+      <c r="B32">
+        <v>6749052.9142112099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>344046.52215920901</v>
+      </c>
+      <c r="B33">
+        <v>6747402.2529884996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>344871.85277056199</v>
+      </c>
+      <c r="B34">
+        <v>6746229.4147513099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>345870.93719483202</v>
+      </c>
+      <c r="B35">
+        <v>6744535.3150753798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>346479.07554003998</v>
+      </c>
+      <c r="B36">
+        <v>6742884.6538526705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>347391.28305785102</v>
+      </c>
+      <c r="B37">
+        <v>6740582.4158315295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>347695.35223045503</v>
+      </c>
+      <c r="B38">
+        <v>6739539.8929540301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>349432.89035961899</v>
+      </c>
+      <c r="B39">
+        <v>6739279.2622346599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>350779.482409722</v>
+      </c>
+      <c r="B40">
+        <v>6738888.3161555901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>351561.37456784601</v>
+      </c>
+      <c r="B41">
+        <v>6738453.9316232996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>351822.00528722099</v>
+      </c>
+      <c r="B42">
+        <v>6737498.2856522603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>351517.93611461698</v>
+      </c>
+      <c r="B43">
+        <v>6735891.0628827801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>351040.11312909698</v>
+      </c>
+      <c r="B44">
+        <v>6733979.7709406996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>350475.41323711799</v>
+      </c>
+      <c r="B45">
+        <v>6732459.4250776796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>349823.83643868199</v>
+      </c>
+      <c r="B46">
+        <v>6730939.0792146698</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>348824.75201441202</v>
+      </c>
+      <c r="B47">
+        <v>6730330.9408694599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>348260.05212243402</v>
+      </c>
+      <c r="B48">
+        <v>6729418.7333516497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>347738.790683684</v>
+      </c>
+      <c r="B49">
+        <v>6727854.9490353996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>347304.40615139302</v>
+      </c>
+      <c r="B50">
+        <v>6725509.2725610305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>346870.02161910199</v>
+      </c>
+      <c r="B51">
+        <v>6723337.3498995798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>346696.26780618599</v>
+      </c>
+      <c r="B52">
+        <v>6721339.1810510401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>346261.88327389403</v>
+      </c>
+      <c r="B53">
+        <v>6719384.4506557202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>346348.76018035301</v>
+      </c>
+      <c r="B54">
+        <v>6717342.8433539597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>346131.567914207</v>
+      </c>
+      <c r="B55">
+        <v>6714606.2208005199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>346001.25255451998</v>
+      </c>
+      <c r="B56">
+        <v>6712217.1058729198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>346044.691007749</v>
+      </c>
+      <c r="B57">
+        <v>6710566.4446502198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>345936.09487467603</v>
+      </c>
+      <c r="B58">
+        <v>6708177.3297226103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>345501.71034238499</v>
+      </c>
+      <c r="B59">
+        <v>6706743.8607660504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>345241.07962301001</v>
+      </c>
+      <c r="B60">
+        <v>6705571.02252887</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>345327.956529469</v>
+      </c>
+      <c r="B61">
+        <v>6704007.2382126199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>345718.902608531</v>
+      </c>
+      <c r="B62">
+        <v>6702095.9462705404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>346717.98703279998</v>
+      </c>
+      <c r="B63">
+        <v>6699576.51598325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>347499.879190924</v>
+      </c>
+      <c r="B64">
+        <v>6698360.2392928395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>348325.20980227803</v>
+      </c>
+      <c r="B65">
+        <v>6696753.0165233603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>348933.348147485</v>
+      </c>
+      <c r="B66">
+        <v>6694407.34004898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>349237.41732008901</v>
+      </c>
+      <c r="B67">
+        <v>6691453.5252294103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>349584.92494592199</v>
+      </c>
+      <c r="B68">
+        <v>6687500.62598556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>350062.74793144199</v>
+      </c>
+      <c r="B69">
+        <v>6683678.0421013897</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>350497.13246373303</v>
+      </c>
+      <c r="B70">
+        <v>6679030.1276058797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>350801.20163633698</v>
+      </c>
+      <c r="B71">
+        <v>6677640.0971025499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>351235.58616862801</v>
+      </c>
+      <c r="B72">
+        <v>6676988.5203041099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>351669.97070091998</v>
+      </c>
+      <c r="B73">
+        <v>6675294.4206281798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701263F8-3BED-4833-888B-23EA6272BAEC}">
   <dimension ref="A1:E225"/>
   <sheetViews>
@@ -28104,7 +29624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5D9FE-7C49-48B3-9367-2F5352B6C0CB}">
   <dimension ref="A1:E400"/>
   <sheetViews>

--- a/Data/Data_geology/Otorowiri_outcrop.xlsx
+++ b/Data/Data_geology/Otorowiri_outcrop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD155C4-F636-4286-BB26-C6BE2926A8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F30C7F-BEFE-4FAD-BDF5-E87C8DA6A1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="-16455" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{3885F5B0-7C21-4634-A104-1A3CDF95EC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Otorowiri_1" sheetId="1" r:id="rId1"/>
@@ -21156,10 +21156,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B33FD7-38C7-497F-B8A4-85FBD6DAE9A7}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21174,897 +21174,745 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>353021.99255767401</v>
+        <v>351979.77915992</v>
       </c>
       <c r="B2">
-        <v>6765869.0254175104</v>
+        <v>6767510.1873401096</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>352848.23874475801</v>
+        <v>351088.03023817798</v>
       </c>
       <c r="B3">
-        <v>6765928.7532906998</v>
+        <v>6767773.8348474</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>352603.89744534402</v>
+        <v>350281.57903938601</v>
       </c>
       <c r="B4">
-        <v>6766048.2090370804</v>
+        <v>6768029.7280162498</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>352522.45034553902</v>
+        <v>350056.70322433801</v>
       </c>
       <c r="B5">
-        <v>6766140.5157501996</v>
+        <v>6768052.9910316002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>352283.53885277902</v>
+        <v>349689.44872400298</v>
       </c>
       <c r="B6">
-        <v>6766292.5503364997</v>
+        <v>6768115.6079204604</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>352066.34658663301</v>
+        <v>349635.15065746597</v>
       </c>
       <c r="B7">
-        <v>6766417.43588953</v>
+        <v>6768103.3908554902</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>351876.30335375603</v>
+        <v>349545.55884768098</v>
       </c>
       <c r="B8">
-        <v>6766553.1810558699</v>
+        <v>6768095.2461455101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>351783.99664064398</v>
+        <v>349374.51993809198</v>
       </c>
       <c r="B9">
-        <v>6766623.7685423698</v>
+        <v>6768088.4588871896</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>351512.506307962</v>
+        <v>349295.78774161398</v>
       </c>
       <c r="B10">
-        <v>6766786.6627419796</v>
+        <v>6768088.4588871896</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>351322.46307508502</v>
+        <v>348786.743367836</v>
       </c>
       <c r="B11">
-        <v>6766927.8377149701</v>
+        <v>6768133.2547920803</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>351230.15636197297</v>
+        <v>348612.98955491901</v>
       </c>
       <c r="B12">
-        <v>6767079.8723012796</v>
+        <v>6768133.2547920803</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>351078.12177567102</v>
+        <v>348200.32424924301</v>
       </c>
       <c r="B13">
-        <v>6767210.1876609595</v>
+        <v>6768182.1230519703</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>350953.236222637</v>
+        <v>347809.37817018002</v>
       </c>
       <c r="B14">
-        <v>6767351.3626339603</v>
+        <v>6768133.2547920803</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>350839.21028291102</v>
+        <v>347212.09943827998</v>
       </c>
       <c r="B15">
-        <v>6767552.2654801402</v>
+        <v>6768062.6673055897</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>350795.77182968199</v>
+        <v>346674.54857957002</v>
       </c>
       <c r="B16">
-        <v>6767620.1380633097</v>
+        <v>6767899.7731059799</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>350741.47376314498</v>
+        <v>346234.734240625</v>
       </c>
       <c r="B17">
-        <v>6767698.8702597897</v>
+        <v>6767747.7385196798</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>350657.31176001398</v>
+        <v>345974.10352125001</v>
       </c>
       <c r="B18">
-        <v>6767850.9048460899</v>
+        <v>6767622.8529666401</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>350584.00937018998</v>
+        <v>345441.98246919399</v>
       </c>
       <c r="B19">
-        <v>6767962.2158824904</v>
+        <v>6767400.2308938401</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>350505.27717371198</v>
+        <v>344736.10760422098</v>
       </c>
       <c r="B20">
-        <v>6768073.52691889</v>
+        <v>6767090.7319145901</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>350426.54497723398</v>
+        <v>343943.35583278898</v>
       </c>
       <c r="B21">
-        <v>6768152.25911537</v>
+        <v>6766667.2069955999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>350317.94884416199</v>
+        <v>343204.90212789399</v>
       </c>
       <c r="B22">
-        <v>6768201.1273752498</v>
+        <v>6766254.5416899296</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>350107.54383633297</v>
+        <v>342737.93875568098</v>
       </c>
       <c r="B23">
-        <v>6768243.2083768202</v>
+        <v>6765950.47251732</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>349989.44554161601</v>
+        <v>341825.73123787</v>
       </c>
       <c r="B24">
-        <v>6768236.4211184997</v>
+        <v>6765114.2822926603</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>349689.44872400298</v>
+        <v>340489.99880107498</v>
       </c>
       <c r="B25">
-        <v>6768115.6079204604</v>
+        <v>6763843.7075357102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>349635.15065746597</v>
+        <v>340207.64885508502</v>
       </c>
       <c r="B26">
-        <v>6768103.3908554902</v>
+        <v>6763561.3575897198</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>349545.55884768098</v>
+        <v>340229.3680817</v>
       </c>
       <c r="B27">
-        <v>6768095.2461455101</v>
+        <v>6762529.69432553</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>349374.51993809198</v>
+        <v>340403.12189461599</v>
       </c>
       <c r="B28">
-        <v>6768088.4588871896</v>
+        <v>6761671.7848742604</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>349295.78774161398</v>
+        <v>340576.87570753298</v>
       </c>
       <c r="B29">
-        <v>6768088.4588871896</v>
+        <v>6760846.4542629002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>348786.743367836</v>
+        <v>340718.050680527</v>
       </c>
       <c r="B30">
-        <v>6768133.2547920803</v>
+        <v>6760531.5254769903</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>348612.98955491901</v>
+        <v>340750.62952044897</v>
       </c>
       <c r="B31">
-        <v>6768133.2547920803</v>
+        <v>6759966.8255850105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>348200.32424924301</v>
+        <v>341315.32941242802</v>
       </c>
       <c r="B32">
-        <v>6768182.1230519703</v>
+        <v>6758381.3220421504</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>347809.37817018002</v>
+        <v>341923.46775763499</v>
       </c>
       <c r="B33">
-        <v>6768133.2547920803</v>
+        <v>6757447.3952977201</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>347212.09943827998</v>
+        <v>342118.94079716603</v>
       </c>
       <c r="B34">
-        <v>6768062.6673055897</v>
+        <v>6756730.6608194401</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>346674.54857957002</v>
+        <v>342053.78311732301</v>
       </c>
       <c r="B35">
-        <v>6767899.7731059799</v>
+        <v>6755992.2071145503</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>346234.734240625</v>
+        <v>342162.379250395</v>
       </c>
       <c r="B36">
-        <v>6767747.7385196798</v>
+        <v>6754862.8073305897</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>345974.10352125001</v>
+        <v>342292.69461008301</v>
       </c>
       <c r="B37">
-        <v>6767622.8529666401</v>
+        <v>6753776.8459998602</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>345441.98246919399</v>
+        <v>342292.69461008301</v>
       </c>
       <c r="B38">
-        <v>6767400.2308938401</v>
+        <v>6753125.2692014296</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>344736.10760422098</v>
+        <v>342379.57151654101</v>
       </c>
       <c r="B39">
-        <v>6767090.7319145901</v>
+        <v>6752213.0616836101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>343943.35583278898</v>
+        <v>342879.11372867599</v>
       </c>
       <c r="B40">
-        <v>6766667.2069955999</v>
+        <v>6751279.13493919</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>343204.90212789399</v>
+        <v>343422.09439404</v>
       </c>
       <c r="B41">
-        <v>6766254.5416899296</v>
+        <v>6750692.7158206003</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>342737.93875568098</v>
+        <v>344030.23273924697</v>
       </c>
       <c r="B42">
-        <v>6765950.47251732</v>
+        <v>6749910.8236624701</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>341825.73123787</v>
+        <v>345702.61318856798</v>
       </c>
       <c r="B43">
-        <v>6765114.2822926603</v>
+        <v>6748042.9701736197</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>340489.99880107498</v>
+        <v>346614.82070638001</v>
       </c>
       <c r="B44">
-        <v>6763843.7075357102</v>
+        <v>6747261.0780154997</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>340207.64885508502</v>
+        <v>347092.64369190001</v>
       </c>
       <c r="B45">
-        <v>6763561.3575897198</v>
+        <v>6746196.8359113801</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>340229.3680817</v>
+        <v>347635.62435726402</v>
       </c>
       <c r="B46">
-        <v>6762529.69432553</v>
+        <v>6744546.1746886801</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>340403.12189461599</v>
+        <v>348070.008889555</v>
       </c>
       <c r="B47">
-        <v>6761671.7848742604</v>
+        <v>6743243.0210918002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>340576.87570753298</v>
+        <v>348678.14723476302</v>
       </c>
       <c r="B48">
-        <v>6760846.4542629002</v>
+        <v>6741852.9905884704</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>340718.050680527</v>
+        <v>349329.72403319902</v>
       </c>
       <c r="B49">
-        <v>6760531.5254769903</v>
+        <v>6740636.7138980599</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>340750.62952044897</v>
+        <v>349677.231659032</v>
       </c>
       <c r="B50">
-        <v>6759966.8255850105</v>
+        <v>6740289.2062722296</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>341315.32941242802</v>
+        <v>350589.43917684403</v>
       </c>
       <c r="B51">
-        <v>6758381.3220421504</v>
+        <v>6739919.97941978</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>341923.46775763499</v>
+        <v>351458.20824142598</v>
       </c>
       <c r="B52">
-        <v>6757447.3952977201</v>
+        <v>6739724.5063802497</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>342118.94079716603</v>
+        <v>352565.88879876799</v>
       </c>
       <c r="B53">
-        <v>6756730.6608194401</v>
+        <v>6739659.3487004004</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>342053.78311732301</v>
+        <v>353217.46559720498</v>
       </c>
       <c r="B54">
-        <v>6755992.2071145503</v>
+        <v>6739507.3141141003</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>342162.379250395</v>
+        <v>353760.44626256899</v>
       </c>
       <c r="B55">
-        <v>6754862.8073305897</v>
+        <v>6739224.9641681099</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>342292.69461008301</v>
+        <v>353651.85012949602</v>
       </c>
       <c r="B56">
-        <v>6753776.8459998602</v>
+        <v>6738551.6681430601</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>342292.69461008301</v>
+        <v>353369.50018350699</v>
       </c>
       <c r="B57">
-        <v>6753125.2692014296</v>
+        <v>6738052.1259309296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>342379.57151654101</v>
+        <v>353065.43101090298</v>
       </c>
       <c r="B58">
-        <v>6752213.0616836101</v>
+        <v>6737270.2337728003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>342879.11372867599</v>
+        <v>352609.32725199801</v>
       </c>
       <c r="B59">
-        <v>6751279.13493919</v>
+        <v>6735597.8533234801</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>343422.09439404</v>
+        <v>352240.10039954999</v>
       </c>
       <c r="B60">
-        <v>6750692.7158206003</v>
+        <v>6733990.6305539999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>344030.23273924697</v>
+        <v>352066.346586634</v>
       </c>
       <c r="B61">
-        <v>6749910.8236624701</v>
+        <v>6733230.4576224899</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>345702.61318856798</v>
+        <v>351762.27741402999</v>
       </c>
       <c r="B62">
-        <v>6748042.9701736197</v>
+        <v>6732296.5308780698</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>346614.82070638001</v>
+        <v>351783.99664064503</v>
       </c>
       <c r="B63">
-        <v>6747261.0780154997</v>
+        <v>6731601.5156263998</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>347092.64369190001</v>
+        <v>351653.68128095701</v>
       </c>
       <c r="B64">
-        <v>6746196.8359113801</v>
+        <v>6730819.6234682798</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>347635.62435726402</v>
+        <v>351219.29674866598</v>
       </c>
       <c r="B65">
-        <v>6744546.1746886801</v>
+        <v>6730341.8004827602</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>348070.008889555</v>
+        <v>350676.31608330202</v>
       </c>
       <c r="B66">
-        <v>6743243.0210918002</v>
+        <v>6730146.3274432197</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>348678.14723476302</v>
+        <v>350307.089230855</v>
       </c>
       <c r="B67">
-        <v>6741852.9905884704</v>
+        <v>6729929.1351770796</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>349329.72403319902</v>
+        <v>349546.91629934497</v>
       </c>
       <c r="B68">
-        <v>6740636.7138980599</v>
+        <v>6729603.3467778601</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>349677.231659032</v>
+        <v>349373.16248642898</v>
       </c>
       <c r="B69">
-        <v>6740289.2062722296</v>
+        <v>6729342.7160584899</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>350589.43917684403</v>
+        <v>349177.689446898</v>
       </c>
       <c r="B70">
-        <v>6739919.97941978</v>
+        <v>6728712.8584866598</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>351458.20824142598</v>
+        <v>349003.93563398102</v>
       </c>
       <c r="B71">
-        <v>6739724.5063802497</v>
+        <v>6727540.0202494804</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>352565.88879876799</v>
+        <v>348895.33950090897</v>
       </c>
       <c r="B72">
-        <v>6739659.3487004004</v>
+        <v>6726562.65505182</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>353217.46559720498</v>
+        <v>348547.83187507599</v>
       </c>
       <c r="B73">
-        <v>6739507.3141141003</v>
+        <v>6725541.8514009397</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>353760.44626256899</v>
+        <v>348287.20115570101</v>
       </c>
       <c r="B74">
-        <v>6739224.9641681099</v>
+        <v>6723500.24409917</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>353651.85012949602</v>
+        <v>348222.043475857</v>
       </c>
       <c r="B75">
-        <v>6738551.6681430601</v>
+        <v>6722327.4058619896</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>353369.50018350699</v>
+        <v>348070.008889555</v>
       </c>
       <c r="B76">
-        <v>6738052.1259309296</v>
+        <v>6721719.2675167797</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>353065.43101090298</v>
+        <v>347831.097396795</v>
       </c>
       <c r="B77">
-        <v>6737270.2337728003</v>
+        <v>6720372.6754666697</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>352609.32725199801</v>
+        <v>347722.50126372202</v>
       </c>
       <c r="B78">
-        <v>6735597.8533234801</v>
+        <v>6719373.5910424097</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>352240.10039954999</v>
+        <v>347570.46667742101</v>
       </c>
       <c r="B79">
-        <v>6733990.6305539999</v>
+        <v>6718787.1719238097</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>352066.346586634</v>
+        <v>347374.99363788898</v>
       </c>
       <c r="B80">
-        <v>6733230.4576224899</v>
+        <v>6715681.3225179296</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>351762.27741402999</v>
+        <v>347288.11673143099</v>
       </c>
       <c r="B81">
-        <v>6732296.5308780698</v>
+        <v>6713813.4690290801</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>351783.99664064503</v>
+        <v>347374.99363788898</v>
       </c>
       <c r="B82">
-        <v>6731601.5156263998</v>
+        <v>6711033.4080224102</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>351653.68128095701</v>
+        <v>347461.87054434803</v>
       </c>
       <c r="B83">
-        <v>6730819.6234682798</v>
+        <v>6708123.0316560604</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>351219.29674866598</v>
+        <v>346984.04755882698</v>
       </c>
       <c r="B84">
-        <v>6730341.8004827602</v>
+        <v>6705690.4782752302</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>350676.31608330202</v>
+        <v>346897.17065236898</v>
       </c>
       <c r="B85">
-        <v>6730146.3274432197</v>
+        <v>6703952.94014607</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>350307.089230855</v>
+        <v>347722.50126372202</v>
       </c>
       <c r="B86">
-        <v>6729929.1351770796</v>
+        <v>6700152.0754885199</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>349546.91629934497</v>
+        <v>348439.23574200302</v>
       </c>
       <c r="B87">
-        <v>6729603.3467778601</v>
+        <v>6699055.25454449</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>349373.16248642898</v>
+        <v>349753.248952183</v>
       </c>
       <c r="B88">
-        <v>6729342.7160584899</v>
+        <v>6696959.3491761796</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>349177.689446898</v>
+        <v>350795.77182968199</v>
       </c>
       <c r="B89">
-        <v>6728712.8584866598</v>
+        <v>6693397.3960114</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>349003.93563398102</v>
+        <v>350969.52564259898</v>
       </c>
       <c r="B90">
-        <v>6727540.0202494804</v>
+        <v>6690791.0888176505</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>348895.33950090897</v>
+        <v>351751.41780072299</v>
       </c>
       <c r="B91">
-        <v>6726562.65505182</v>
+        <v>6685665.3513366096</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>348547.83187507599</v>
+        <v>352185.80233301403</v>
       </c>
       <c r="B92">
-        <v>6725541.8514009397</v>
+        <v>6682103.39817183</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>348287.20115570101</v>
+        <v>352533.30995884701</v>
       </c>
       <c r="B93">
-        <v>6723500.24409917</v>
+        <v>6679062.7064457899</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>348222.043475857</v>
+        <v>353836.46355571999</v>
       </c>
       <c r="B94">
-        <v>6722327.4058619896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>348070.008889555</v>
-      </c>
-      <c r="B95">
-        <v>6721719.2675167797</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>347831.097396795</v>
-      </c>
-      <c r="B96">
-        <v>6720372.6754666697</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>347722.50126372202</v>
-      </c>
-      <c r="B97">
-        <v>6719373.5910424097</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>347570.46667742101</v>
-      </c>
-      <c r="B98">
-        <v>6718787.1719238097</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>347374.99363788898</v>
-      </c>
-      <c r="B99">
-        <v>6715681.3225179296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>347288.11673143099</v>
-      </c>
-      <c r="B100">
-        <v>6713813.4690290801</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>347374.99363788898</v>
-      </c>
-      <c r="B101">
-        <v>6711033.4080224102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>347461.87054434803</v>
-      </c>
-      <c r="B102">
-        <v>6708123.0316560604</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>346984.04755882698</v>
-      </c>
-      <c r="B103">
-        <v>6705690.4782752302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>346897.17065236898</v>
-      </c>
-      <c r="B104">
-        <v>6703952.94014607</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>347722.50126372202</v>
-      </c>
-      <c r="B105">
-        <v>6700152.0754885199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>348439.23574200302</v>
-      </c>
-      <c r="B106">
-        <v>6699055.25454449</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>349753.248952183</v>
-      </c>
-      <c r="B107">
-        <v>6696959.3491761796</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>350795.77182968199</v>
-      </c>
-      <c r="B108">
-        <v>6693397.3960114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>350969.52564259898</v>
-      </c>
-      <c r="B109">
-        <v>6690791.0888176505</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>351751.41780072299</v>
-      </c>
-      <c r="B110">
-        <v>6685665.3513366096</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>352185.80233301403</v>
-      </c>
-      <c r="B111">
-        <v>6682103.39817183</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>352533.30995884701</v>
-      </c>
-      <c r="B112">
-        <v>6679062.7064457899</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>353836.46355571999</v>
-      </c>
-      <c r="B113">
         <v>6675761.3840003796</v>
       </c>
     </row>
@@ -25186,8 +25034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E3E11C-5152-4597-8929-70F654A7A7EA}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25202,42 +25050,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>351604.81302107498</v>
+        <v>350991.10100755398</v>
       </c>
       <c r="B2">
-        <v>6768187.5528586302</v>
+        <v>6769049.4235224202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>350888.07854279398</v>
+        <v>350750.71651560598</v>
       </c>
       <c r="B3">
-        <v>6768708.8142973799</v>
+        <v>6769181.2472760696</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>350225.64213105</v>
+        <v>350471.56033140898</v>
       </c>
       <c r="B4">
-        <v>6769186.6372828996</v>
+        <v>6769274.2993374597</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>349780.39798545197</v>
+        <v>350052.82605511299</v>
       </c>
       <c r="B5">
-        <v>6769436.4083889704</v>
+        <v>6769367.3513988601</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>349096.24234709301</v>
+        <v>349300.65522547002</v>
       </c>
       <c r="B6">
-        <v>6769631.8814284997</v>
+        <v>6769561.2098601097</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
